--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\process mining\pm4py\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E49D459C-1B02-475F-A8F4-6B5D30A4B929}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E730167-418F-42AD-9A0B-E7DB7FC337D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C1753F0F-FFC1-467F-9ECD-AF02EB500D34}"/>
   </bookViews>
@@ -613,8 +613,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1D8B2EC-DD97-4072-9002-9DD13F52F6A9}">
   <dimension ref="A5:AA310"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F277" workbookViewId="0">
-      <selection activeCell="Z289" sqref="Z289"/>
+    <sheetView tabSelected="1" topLeftCell="F155" workbookViewId="0">
+      <selection activeCell="N174" sqref="N174"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -711,7 +711,7 @@
         <v>0.4</v>
       </c>
       <c r="L7">
-        <f t="shared" ref="L7:L34" si="0">J7*2</f>
+        <f t="shared" ref="L7:L45" si="0">J7*2</f>
         <v>0.8</v>
       </c>
       <c r="O7">
@@ -721,15 +721,15 @@
         <v>621</v>
       </c>
       <c r="R7">
-        <f t="shared" ref="R7:R34" si="1">Q7/819</f>
+        <f t="shared" ref="R7:R45" si="1">Q7/819</f>
         <v>0.75824175824175821</v>
       </c>
       <c r="T7">
-        <f t="shared" ref="T7:T34" si="2">R7*O7</f>
+        <f t="shared" ref="T7:T45" si="2">R7*O7</f>
         <v>0.72351428571428578</v>
       </c>
       <c r="X7">
-        <f t="shared" ref="X7:X34" si="3">R7*L7</f>
+        <f t="shared" ref="X7:X45" si="3">R7*L7</f>
         <v>0.60659340659340666</v>
       </c>
     </row>
@@ -982,6 +982,29 @@
       <c r="O15">
         <v>0.94359999999999999</v>
       </c>
+      <c r="Q15">
+        <v>294</v>
+      </c>
+      <c r="R15">
+        <f t="shared" si="1"/>
+        <v>0.35897435897435898</v>
+      </c>
+      <c r="T15">
+        <f t="shared" si="2"/>
+        <v>0.33872820512820512</v>
+      </c>
+      <c r="V15">
+        <f>SUM(T15:T19)</f>
+        <v>0.96729600732600729</v>
+      </c>
+      <c r="X15">
+        <f t="shared" si="3"/>
+        <v>0.17948717948717949</v>
+      </c>
+      <c r="AA15">
+        <f>SUM(X15:X19)</f>
+        <v>0.62590427350427347</v>
+      </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="E16" t="s">
@@ -997,6 +1020,21 @@
       <c r="O16">
         <v>1</v>
       </c>
+      <c r="Q16">
+        <v>208</v>
+      </c>
+      <c r="R16">
+        <f t="shared" si="1"/>
+        <v>0.25396825396825395</v>
+      </c>
+      <c r="T16">
+        <f t="shared" si="2"/>
+        <v>0.25396825396825395</v>
+      </c>
+      <c r="X16">
+        <f t="shared" si="3"/>
+        <v>0.20317460317460317</v>
+      </c>
     </row>
     <row r="17" spans="2:27" x14ac:dyDescent="0.25">
       <c r="E17" t="s">
@@ -1012,16 +1050,81 @@
       <c r="O17">
         <v>0.93271000000000004</v>
       </c>
+      <c r="Q17">
+        <v>33</v>
+      </c>
+      <c r="R17">
+        <f t="shared" si="1"/>
+        <v>4.0293040293040296E-2</v>
+      </c>
+      <c r="T17">
+        <f t="shared" si="2"/>
+        <v>3.7581721611721616E-2</v>
+      </c>
+      <c r="X17">
+        <f t="shared" si="3"/>
+        <v>2.8027838827838828E-2</v>
+      </c>
     </row>
     <row r="18" spans="2:27" x14ac:dyDescent="0.25">
       <c r="E18" t="s">
         <v>19</v>
       </c>
+      <c r="J18">
+        <v>0.3</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="0"/>
+        <v>0.6</v>
+      </c>
+      <c r="O18">
+        <v>0.99819999999999998</v>
+      </c>
+      <c r="Q18">
+        <v>196</v>
+      </c>
+      <c r="R18">
+        <f t="shared" si="1"/>
+        <v>0.23931623931623933</v>
+      </c>
+      <c r="T18">
+        <f t="shared" si="2"/>
+        <v>0.23888547008547009</v>
+      </c>
+      <c r="X18">
+        <f t="shared" si="3"/>
+        <v>0.14358974358974358</v>
+      </c>
     </row>
     <row r="19" spans="2:27" x14ac:dyDescent="0.25">
       <c r="E19" t="s">
         <v>45</v>
       </c>
+      <c r="J19">
+        <v>0.33329999999999999</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="0"/>
+        <v>0.66659999999999997</v>
+      </c>
+      <c r="O19">
+        <v>0.9133</v>
+      </c>
+      <c r="Q19">
+        <v>88</v>
+      </c>
+      <c r="R19">
+        <f t="shared" si="1"/>
+        <v>0.10744810744810745</v>
+      </c>
+      <c r="T19">
+        <f t="shared" si="2"/>
+        <v>9.8132356532356538E-2</v>
+      </c>
+      <c r="X19">
+        <f t="shared" si="3"/>
+        <v>7.1624908424908429E-2</v>
+      </c>
     </row>
     <row r="20" spans="2:27" x14ac:dyDescent="0.25">
       <c r="D20" t="s">
@@ -1030,31 +1133,189 @@
       <c r="E20" t="s">
         <v>44</v>
       </c>
+      <c r="J20">
+        <v>0.25</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="O20">
+        <v>0.88300000000000001</v>
+      </c>
+      <c r="Q20">
+        <v>101</v>
+      </c>
+      <c r="R20">
+        <f t="shared" si="1"/>
+        <v>0.12332112332112333</v>
+      </c>
+      <c r="T20">
+        <f t="shared" si="2"/>
+        <v>0.1088925518925519</v>
+      </c>
+      <c r="V20">
+        <f>SUM(T20:T25)</f>
+        <v>0.97462857142857151</v>
+      </c>
+      <c r="X20">
+        <f t="shared" si="3"/>
+        <v>6.1660561660561664E-2</v>
+      </c>
+      <c r="AA20">
+        <f>SUM(X20:X25)</f>
+        <v>0.55070207570207574</v>
+      </c>
     </row>
     <row r="21" spans="2:27" x14ac:dyDescent="0.25">
       <c r="E21" t="s">
         <v>17</v>
       </c>
+      <c r="J21">
+        <v>0.25</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="O21">
+        <v>0.99609999999999999</v>
+      </c>
+      <c r="Q21">
+        <v>224</v>
+      </c>
+      <c r="R21">
+        <f t="shared" si="1"/>
+        <v>0.27350427350427353</v>
+      </c>
+      <c r="T21">
+        <f t="shared" si="2"/>
+        <v>0.27243760683760687</v>
+      </c>
+      <c r="X21">
+        <f t="shared" si="3"/>
+        <v>0.13675213675213677</v>
+      </c>
     </row>
     <row r="22" spans="2:27" x14ac:dyDescent="0.25">
       <c r="E22" t="s">
         <v>18</v>
       </c>
+      <c r="J22">
+        <v>0.25</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="O22">
+        <v>0.99829999999999997</v>
+      </c>
+      <c r="Q22">
+        <v>199</v>
+      </c>
+      <c r="R22">
+        <f t="shared" si="1"/>
+        <v>0.24297924297924298</v>
+      </c>
+      <c r="T22">
+        <f t="shared" si="2"/>
+        <v>0.24256617826617827</v>
+      </c>
+      <c r="X22">
+        <f t="shared" si="3"/>
+        <v>0.12148962148962149</v>
+      </c>
     </row>
     <row r="23" spans="2:27" x14ac:dyDescent="0.25">
       <c r="E23" t="s">
         <v>19</v>
       </c>
+      <c r="J23">
+        <v>0.3</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="0"/>
+        <v>0.6</v>
+      </c>
+      <c r="O23">
+        <v>0.99819999999999998</v>
+      </c>
+      <c r="Q23">
+        <v>196</v>
+      </c>
+      <c r="R23">
+        <f t="shared" si="1"/>
+        <v>0.23931623931623933</v>
+      </c>
+      <c r="T23">
+        <f t="shared" si="2"/>
+        <v>0.23888547008547009</v>
+      </c>
+      <c r="X23">
+        <f t="shared" si="3"/>
+        <v>0.14358974358974358</v>
+      </c>
     </row>
     <row r="24" spans="2:27" x14ac:dyDescent="0.25">
       <c r="E24" t="s">
         <v>45</v>
       </c>
+      <c r="J24">
+        <v>0.35709999999999997</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="0"/>
+        <v>0.71419999999999995</v>
+      </c>
+      <c r="O24">
+        <v>0.92269999999999996</v>
+      </c>
+      <c r="Q24">
+        <v>70</v>
+      </c>
+      <c r="R24">
+        <f t="shared" si="1"/>
+        <v>8.5470085470085472E-2</v>
+      </c>
+      <c r="T24">
+        <f t="shared" si="2"/>
+        <v>7.886324786324786E-2</v>
+      </c>
+      <c r="X24">
+        <f t="shared" si="3"/>
+        <v>6.1042735042735038E-2</v>
+      </c>
     </row>
     <row r="25" spans="2:27" x14ac:dyDescent="0.25">
       <c r="E25" t="s">
         <v>47</v>
       </c>
+      <c r="J25">
+        <v>0.3695</v>
+      </c>
+      <c r="L25">
+        <f t="shared" si="0"/>
+        <v>0.73899999999999999</v>
+      </c>
+      <c r="O25">
+        <v>0.93149999999999999</v>
+      </c>
+      <c r="Q25">
+        <v>29</v>
+      </c>
+      <c r="R25">
+        <f t="shared" si="1"/>
+        <v>3.5409035409035408E-2</v>
+      </c>
+      <c r="T25">
+        <f t="shared" si="2"/>
+        <v>3.2983516483516481E-2</v>
+      </c>
+      <c r="X25">
+        <f t="shared" si="3"/>
+        <v>2.6167277167277167E-2</v>
+      </c>
     </row>
     <row r="26" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
@@ -1302,7 +1563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:27" x14ac:dyDescent="0.25">
       <c r="E33" t="s">
         <v>18</v>
       </c>
@@ -1332,7 +1593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.25">
       <c r="E34" t="s">
         <v>19</v>
       </c>
@@ -1362,68 +1623,359 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:27" x14ac:dyDescent="0.25">
       <c r="D35" t="s">
         <v>48</v>
       </c>
       <c r="E35" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="36" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="J35">
+        <v>0.47820000000000001</v>
+      </c>
+      <c r="L35">
+        <f t="shared" si="0"/>
+        <v>0.95640000000000003</v>
+      </c>
+      <c r="O35">
+        <v>0.94730000000000003</v>
+      </c>
+      <c r="Q35">
+        <v>677</v>
+      </c>
+      <c r="R35">
+        <f t="shared" si="1"/>
+        <v>0.82661782661782657</v>
+      </c>
+      <c r="T35">
+        <f t="shared" si="2"/>
+        <v>0.78305506715506712</v>
+      </c>
+      <c r="V35">
+        <f>SUM(T35:T39)</f>
+        <v>0.95643724053724055</v>
+      </c>
+      <c r="X35">
+        <f t="shared" si="3"/>
+        <v>0.79057728937728933</v>
+      </c>
+      <c r="AA35">
+        <f>SUM(X35:X39)</f>
+        <v>0.79057728937728933</v>
+      </c>
+    </row>
+    <row r="36" spans="2:27" x14ac:dyDescent="0.25">
       <c r="E36" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="L36">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O36">
+        <v>1</v>
+      </c>
+      <c r="Q36">
+        <v>1</v>
+      </c>
+      <c r="R36">
+        <f t="shared" si="1"/>
+        <v>1.221001221001221E-3</v>
+      </c>
+      <c r="T36">
+        <f t="shared" si="2"/>
+        <v>1.221001221001221E-3</v>
+      </c>
+      <c r="X36">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:27" x14ac:dyDescent="0.25">
       <c r="E37" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O37">
+        <v>1</v>
+      </c>
+      <c r="Q37">
+        <v>49</v>
+      </c>
+      <c r="R37">
+        <f t="shared" si="1"/>
+        <v>5.9829059829059832E-2</v>
+      </c>
+      <c r="T37">
+        <f t="shared" si="2"/>
+        <v>5.9829059829059832E-2</v>
+      </c>
+      <c r="X37">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:27" x14ac:dyDescent="0.25">
       <c r="E38" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="L38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O38">
+        <v>1</v>
+      </c>
+      <c r="Q38">
+        <v>24</v>
+      </c>
+      <c r="R38">
+        <f t="shared" si="1"/>
+        <v>2.9304029304029304E-2</v>
+      </c>
+      <c r="T38">
+        <f t="shared" si="2"/>
+        <v>2.9304029304029304E-2</v>
+      </c>
+      <c r="X38">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="2:27" x14ac:dyDescent="0.25">
       <c r="E39" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="J39">
+        <v>0</v>
+      </c>
+      <c r="L39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O39">
+        <v>1</v>
+      </c>
+      <c r="Q39">
+        <v>68</v>
+      </c>
+      <c r="R39">
+        <f t="shared" si="1"/>
+        <v>8.3028083028083025E-2</v>
+      </c>
+      <c r="T39">
+        <f t="shared" si="2"/>
+        <v>8.3028083028083025E-2</v>
+      </c>
+      <c r="X39">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.25">
       <c r="D40" t="s">
         <v>46</v>
       </c>
       <c r="E40" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="L40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O40">
+        <v>1</v>
+      </c>
+      <c r="Q40">
+        <v>22</v>
+      </c>
+      <c r="R40">
+        <f t="shared" si="1"/>
+        <v>2.6862026862026864E-2</v>
+      </c>
+      <c r="T40">
+        <f t="shared" si="2"/>
+        <v>2.6862026862026864E-2</v>
+      </c>
+      <c r="V40">
+        <f>SUM(T40:T45)</f>
+        <v>0.95946153846153859</v>
+      </c>
+      <c r="X40">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AA40">
+        <f>SUM(X40:X45)</f>
+        <v>0.73569230769230776</v>
+      </c>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.25">
       <c r="E41" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="L41">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O41">
+        <v>1</v>
+      </c>
+      <c r="Q41">
+        <v>49</v>
+      </c>
+      <c r="R41">
+        <f t="shared" si="1"/>
+        <v>5.9829059829059832E-2</v>
+      </c>
+      <c r="T41">
+        <f t="shared" si="2"/>
+        <v>5.9829059829059832E-2</v>
+      </c>
+      <c r="X41">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:27" x14ac:dyDescent="0.25">
       <c r="E42" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O42">
+        <v>1</v>
+      </c>
+      <c r="Q42">
+        <v>78</v>
+      </c>
+      <c r="R42">
+        <f t="shared" si="1"/>
+        <v>9.5238095238095233E-2</v>
+      </c>
+      <c r="T42">
+        <f t="shared" si="2"/>
+        <v>9.5238095238095233E-2</v>
+      </c>
+      <c r="X42">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.25">
       <c r="E43" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="J43">
+        <v>0.47820000000000001</v>
+      </c>
+      <c r="L43">
+        <f t="shared" si="0"/>
+        <v>0.95640000000000003</v>
+      </c>
+      <c r="O43">
+        <v>0.94730000000000003</v>
+      </c>
+      <c r="Q43">
+        <v>630</v>
+      </c>
+      <c r="R43">
+        <f t="shared" si="1"/>
+        <v>0.76923076923076927</v>
+      </c>
+      <c r="T43">
+        <f t="shared" si="2"/>
+        <v>0.72869230769230775</v>
+      </c>
+      <c r="X43">
+        <f t="shared" si="3"/>
+        <v>0.73569230769230776</v>
+      </c>
+    </row>
+    <row r="44" spans="2:27" x14ac:dyDescent="0.25">
       <c r="E44" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O44">
+        <v>1</v>
+      </c>
+      <c r="Q44">
+        <v>39</v>
+      </c>
+      <c r="R44">
+        <f t="shared" si="1"/>
+        <v>4.7619047619047616E-2</v>
+      </c>
+      <c r="T44">
+        <f t="shared" si="2"/>
+        <v>4.7619047619047616E-2</v>
+      </c>
+      <c r="X44">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:27" x14ac:dyDescent="0.25">
       <c r="E45" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O45">
+        <v>1</v>
+      </c>
+      <c r="Q45">
+        <v>1</v>
+      </c>
+      <c r="R45">
+        <f t="shared" si="1"/>
+        <v>1.221001221001221E-3</v>
+      </c>
+      <c r="T45">
+        <f t="shared" si="2"/>
+        <v>1.221001221001221E-3</v>
+      </c>
+      <c r="X45">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
         <v>21</v>
       </c>
@@ -1527,7 +2079,7 @@
         <v>0.47910000000000003</v>
       </c>
       <c r="L51">
-        <f t="shared" ref="L51:L78" si="4">J51*2</f>
+        <f t="shared" ref="L51:L89" si="4">J51*2</f>
         <v>0.95820000000000005</v>
       </c>
       <c r="O51">
@@ -1537,15 +2089,15 @@
         <v>7547</v>
       </c>
       <c r="R51">
-        <f t="shared" ref="R51:R78" si="5">Q51/10500</f>
+        <f t="shared" ref="R51:R89" si="5">Q51/10500</f>
         <v>0.71876190476190471</v>
       </c>
       <c r="T51">
-        <f t="shared" ref="T51:T78" si="6">R51*O51</f>
+        <f t="shared" ref="T51:T89" si="6">R51*O51</f>
         <v>0.7171806285714285</v>
       </c>
       <c r="X51">
-        <f t="shared" ref="X51:X78" si="7">R51*L51</f>
+        <f t="shared" ref="X51:X89" si="7">R51*L51</f>
         <v>0.68871765714285715</v>
       </c>
     </row>
@@ -1788,26 +2340,159 @@
       <c r="E59" t="s">
         <v>44</v>
       </c>
+      <c r="J59">
+        <v>0.47910000000000003</v>
+      </c>
+      <c r="L59">
+        <f t="shared" si="4"/>
+        <v>0.95820000000000005</v>
+      </c>
+      <c r="O59">
+        <v>0.99870000000000003</v>
+      </c>
+      <c r="Q59">
+        <v>4665</v>
+      </c>
+      <c r="R59">
+        <f t="shared" si="5"/>
+        <v>0.44428571428571428</v>
+      </c>
+      <c r="T59">
+        <f t="shared" si="6"/>
+        <v>0.44370814285714288</v>
+      </c>
+      <c r="V59">
+        <f>SUM(T59:T63)</f>
+        <v>0.98445292380952387</v>
+      </c>
+      <c r="X59">
+        <f t="shared" si="7"/>
+        <v>0.42571457142857144</v>
+      </c>
+      <c r="AA59">
+        <f>SUM(X59:X62)</f>
+        <v>0.78428245714285716</v>
+      </c>
     </row>
     <row r="60" spans="1:27" x14ac:dyDescent="0.25">
       <c r="E60" t="s">
         <v>17</v>
       </c>
+      <c r="J60">
+        <v>0.47360000000000002</v>
+      </c>
+      <c r="L60">
+        <f t="shared" si="4"/>
+        <v>0.94720000000000004</v>
+      </c>
+      <c r="O60">
+        <v>0.99880000000000002</v>
+      </c>
+      <c r="Q60">
+        <v>2480</v>
+      </c>
+      <c r="R60">
+        <f t="shared" si="5"/>
+        <v>0.2361904761904762</v>
+      </c>
+      <c r="T60">
+        <f t="shared" si="6"/>
+        <v>0.23590704761904763</v>
+      </c>
+      <c r="X60">
+        <f t="shared" si="7"/>
+        <v>0.22371961904761906</v>
+      </c>
     </row>
     <row r="61" spans="1:27" x14ac:dyDescent="0.25">
       <c r="E61" t="s">
         <v>18</v>
       </c>
+      <c r="J61">
+        <v>0.45829999999999999</v>
+      </c>
+      <c r="L61">
+        <f t="shared" si="4"/>
+        <v>0.91659999999999997</v>
+      </c>
+      <c r="O61">
+        <v>0.98060000000000003</v>
+      </c>
+      <c r="Q61">
+        <v>660</v>
+      </c>
+      <c r="R61">
+        <f t="shared" si="5"/>
+        <v>6.2857142857142861E-2</v>
+      </c>
+      <c r="T61">
+        <f t="shared" si="6"/>
+        <v>6.1637714285714289E-2</v>
+      </c>
+      <c r="X61">
+        <f t="shared" si="7"/>
+        <v>5.7614857142857148E-2</v>
+      </c>
     </row>
     <row r="62" spans="1:27" x14ac:dyDescent="0.25">
       <c r="E62" t="s">
         <v>19</v>
       </c>
+      <c r="J62">
+        <v>0.46660000000000001</v>
+      </c>
+      <c r="L62">
+        <f t="shared" si="4"/>
+        <v>0.93320000000000003</v>
+      </c>
+      <c r="O62">
+        <v>0.99460000000000004</v>
+      </c>
+      <c r="Q62">
+        <v>869</v>
+      </c>
+      <c r="R62">
+        <f t="shared" si="5"/>
+        <v>8.2761904761904759E-2</v>
+      </c>
+      <c r="T62">
+        <f t="shared" si="6"/>
+        <v>8.231499047619048E-2</v>
+      </c>
+      <c r="X62">
+        <f t="shared" si="7"/>
+        <v>7.7233409523809526E-2</v>
+      </c>
     </row>
     <row r="63" spans="1:27" x14ac:dyDescent="0.25">
       <c r="E63" t="s">
         <v>45</v>
       </c>
+      <c r="J63">
+        <v>0.46150000000000002</v>
+      </c>
+      <c r="L63">
+        <f t="shared" si="4"/>
+        <v>0.92300000000000004</v>
+      </c>
+      <c r="O63">
+        <v>0.99839999999999995</v>
+      </c>
+      <c r="Q63">
+        <v>1692</v>
+      </c>
+      <c r="R63">
+        <f t="shared" si="5"/>
+        <v>0.16114285714285714</v>
+      </c>
+      <c r="T63">
+        <f t="shared" si="6"/>
+        <v>0.16088502857142856</v>
+      </c>
+      <c r="X63">
+        <f t="shared" si="7"/>
+        <v>0.14873485714285714</v>
+      </c>
     </row>
     <row r="64" spans="1:27" x14ac:dyDescent="0.25">
       <c r="D64" t="s">
@@ -1816,31 +2501,189 @@
       <c r="E64" t="s">
         <v>44</v>
       </c>
+      <c r="J64">
+        <v>0.46660000000000001</v>
+      </c>
+      <c r="L64">
+        <f t="shared" si="4"/>
+        <v>0.93320000000000003</v>
+      </c>
+      <c r="O64">
+        <v>0.99529999999999996</v>
+      </c>
+      <c r="Q64">
+        <v>836</v>
+      </c>
+      <c r="R64">
+        <f t="shared" si="5"/>
+        <v>7.9619047619047617E-2</v>
+      </c>
+      <c r="T64">
+        <f t="shared" si="6"/>
+        <v>7.9244838095238093E-2</v>
+      </c>
+      <c r="V64">
+        <f>SUM(T64:U64)</f>
+        <v>7.9244838095238093E-2</v>
+      </c>
+      <c r="X64">
+        <f t="shared" si="7"/>
+        <v>7.4300495238095232E-2</v>
+      </c>
+      <c r="AA64">
+        <f>SUM(X64:X69)</f>
+        <v>0.90707563809523817</v>
+      </c>
     </row>
     <row r="65" spans="2:27" x14ac:dyDescent="0.25">
       <c r="E65" t="s">
         <v>17</v>
       </c>
+      <c r="J65">
+        <v>0.3125</v>
+      </c>
+      <c r="L65">
+        <f t="shared" si="4"/>
+        <v>0.625</v>
+      </c>
+      <c r="O65">
+        <v>1</v>
+      </c>
+      <c r="Q65">
+        <v>33</v>
+      </c>
+      <c r="R65">
+        <f t="shared" si="5"/>
+        <v>3.142857142857143E-3</v>
+      </c>
+      <c r="T65">
+        <f t="shared" si="6"/>
+        <v>3.142857142857143E-3</v>
+      </c>
+      <c r="X65">
+        <f t="shared" si="7"/>
+        <v>1.9642857142857144E-3</v>
+      </c>
     </row>
     <row r="66" spans="2:27" x14ac:dyDescent="0.25">
       <c r="E66" t="s">
         <v>18</v>
       </c>
+      <c r="J66">
+        <v>0.47360000000000002</v>
+      </c>
+      <c r="L66">
+        <f t="shared" si="4"/>
+        <v>0.94720000000000004</v>
+      </c>
+      <c r="O66">
+        <v>0.99880000000000002</v>
+      </c>
+      <c r="Q66">
+        <v>2476</v>
+      </c>
+      <c r="R66">
+        <f t="shared" si="5"/>
+        <v>0.2358095238095238</v>
+      </c>
+      <c r="T66">
+        <f t="shared" si="6"/>
+        <v>0.23552655238095238</v>
+      </c>
+      <c r="X66">
+        <f t="shared" si="7"/>
+        <v>0.22335878095238096</v>
+      </c>
     </row>
     <row r="67" spans="2:27" x14ac:dyDescent="0.25">
       <c r="E67" t="s">
         <v>19</v>
       </c>
+      <c r="J67">
+        <v>0</v>
+      </c>
+      <c r="L67">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O67">
+        <v>1</v>
+      </c>
+      <c r="Q67">
+        <v>287</v>
+      </c>
+      <c r="R67">
+        <f t="shared" si="5"/>
+        <v>2.7333333333333334E-2</v>
+      </c>
+      <c r="T67">
+        <f t="shared" si="6"/>
+        <v>2.7333333333333334E-2</v>
+      </c>
+      <c r="X67">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="68" spans="2:27" x14ac:dyDescent="0.25">
       <c r="E68" t="s">
         <v>45</v>
       </c>
+      <c r="J68">
+        <v>0.46150000000000002</v>
+      </c>
+      <c r="L68">
+        <f t="shared" si="4"/>
+        <v>0.92300000000000004</v>
+      </c>
+      <c r="O68">
+        <v>0.99870000000000003</v>
+      </c>
+      <c r="Q68">
+        <v>2110</v>
+      </c>
+      <c r="R68">
+        <f t="shared" si="5"/>
+        <v>0.20095238095238097</v>
+      </c>
+      <c r="T68">
+        <f t="shared" si="6"/>
+        <v>0.20069114285714287</v>
+      </c>
+      <c r="X68">
+        <f t="shared" si="7"/>
+        <v>0.18547904761904763</v>
+      </c>
     </row>
     <row r="69" spans="2:27" x14ac:dyDescent="0.25">
       <c r="E69" t="s">
         <v>50</v>
       </c>
+      <c r="J69">
+        <v>0.47910000000000003</v>
+      </c>
+      <c r="L69">
+        <f t="shared" si="4"/>
+        <v>0.95820000000000005</v>
+      </c>
+      <c r="O69">
+        <v>0.95830000000000004</v>
+      </c>
+      <c r="Q69">
+        <v>4624</v>
+      </c>
+      <c r="R69">
+        <f t="shared" si="5"/>
+        <v>0.44038095238095237</v>
+      </c>
+      <c r="T69">
+        <f t="shared" si="6"/>
+        <v>0.42201706666666666</v>
+      </c>
+      <c r="X69">
+        <f t="shared" si="7"/>
+        <v>0.4219730285714286</v>
+      </c>
     </row>
     <row r="70" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
@@ -2155,26 +2998,159 @@
       <c r="E79" t="s">
         <v>44</v>
       </c>
+      <c r="J79">
+        <v>0.22220000000000001</v>
+      </c>
+      <c r="L79">
+        <f t="shared" si="4"/>
+        <v>0.44440000000000002</v>
+      </c>
+      <c r="O79">
+        <v>0.74199999999999999</v>
+      </c>
+      <c r="Q79">
+        <v>18</v>
+      </c>
+      <c r="R79">
+        <f t="shared" si="5"/>
+        <v>1.7142857142857142E-3</v>
+      </c>
+      <c r="T79">
+        <f t="shared" si="6"/>
+        <v>1.2719999999999999E-3</v>
+      </c>
+      <c r="V79">
+        <f>SUM(T79:T83)</f>
+        <v>0.99783876190476195</v>
+      </c>
+      <c r="X79">
+        <f t="shared" si="7"/>
+        <v>7.6182857142857144E-4</v>
+      </c>
+      <c r="AA79">
+        <f>SUM(X79:X83)</f>
+        <v>0.89553853333333333</v>
+      </c>
     </row>
     <row r="80" spans="2:27" x14ac:dyDescent="0.25">
       <c r="E80" t="s">
         <v>17</v>
       </c>
+      <c r="J80">
+        <v>0</v>
+      </c>
+      <c r="L80">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O80">
+        <v>1</v>
+      </c>
+      <c r="Q80">
+        <v>104</v>
+      </c>
+      <c r="R80">
+        <f t="shared" si="5"/>
+        <v>9.9047619047619041E-3</v>
+      </c>
+      <c r="T80">
+        <f t="shared" si="6"/>
+        <v>9.9047619047619041E-3</v>
+      </c>
+      <c r="X80">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="81" spans="1:27" x14ac:dyDescent="0.25">
       <c r="E81" t="s">
         <v>18</v>
       </c>
+      <c r="J81">
+        <v>0.38229999999999997</v>
+      </c>
+      <c r="L81">
+        <f t="shared" si="4"/>
+        <v>0.76459999999999995</v>
+      </c>
+      <c r="O81">
+        <v>0.999</v>
+      </c>
+      <c r="Q81">
+        <v>2497</v>
+      </c>
+      <c r="R81">
+        <f t="shared" si="5"/>
+        <v>0.2378095238095238</v>
+      </c>
+      <c r="T81">
+        <f t="shared" si="6"/>
+        <v>0.23757171428571427</v>
+      </c>
+      <c r="X81">
+        <f t="shared" si="7"/>
+        <v>0.18182916190476189</v>
+      </c>
     </row>
     <row r="82" spans="1:27" x14ac:dyDescent="0.25">
       <c r="E82" t="s">
         <v>19</v>
       </c>
+      <c r="J82">
+        <v>0.1666</v>
+      </c>
+      <c r="L82">
+        <f t="shared" si="4"/>
+        <v>0.3332</v>
+      </c>
+      <c r="O82">
+        <v>1</v>
+      </c>
+      <c r="Q82">
+        <v>105</v>
+      </c>
+      <c r="R82">
+        <f t="shared" si="5"/>
+        <v>0.01</v>
+      </c>
+      <c r="T82">
+        <f t="shared" si="6"/>
+        <v>0.01</v>
+      </c>
+      <c r="X82">
+        <f t="shared" si="7"/>
+        <v>3.3319999999999999E-3</v>
+      </c>
     </row>
     <row r="83" spans="1:27" x14ac:dyDescent="0.25">
       <c r="E83" t="s">
         <v>45</v>
       </c>
+      <c r="J83">
+        <v>0.47910000000000003</v>
+      </c>
+      <c r="L83">
+        <f t="shared" si="4"/>
+        <v>0.95820000000000005</v>
+      </c>
+      <c r="O83">
+        <v>0.998</v>
+      </c>
+      <c r="Q83">
+        <v>7776</v>
+      </c>
+      <c r="R83">
+        <f t="shared" si="5"/>
+        <v>0.74057142857142855</v>
+      </c>
+      <c r="T83">
+        <f t="shared" si="6"/>
+        <v>0.7390902857142857</v>
+      </c>
+      <c r="X83">
+        <f t="shared" si="7"/>
+        <v>0.7096155428571429</v>
+      </c>
     </row>
     <row r="84" spans="1:27" x14ac:dyDescent="0.25">
       <c r="D84" t="s">
@@ -2183,31 +3159,189 @@
       <c r="E84" t="s">
         <v>44</v>
       </c>
+      <c r="J84">
+        <v>0.34210000000000002</v>
+      </c>
+      <c r="L84">
+        <f t="shared" si="4"/>
+        <v>0.68420000000000003</v>
+      </c>
+      <c r="O84">
+        <v>0.99919999999999998</v>
+      </c>
+      <c r="Q84">
+        <v>1233</v>
+      </c>
+      <c r="R84">
+        <f t="shared" si="5"/>
+        <v>0.11742857142857142</v>
+      </c>
+      <c r="T84">
+        <f t="shared" si="6"/>
+        <v>0.11733462857142857</v>
+      </c>
+      <c r="V84">
+        <f>SUM(T84:T89)</f>
+        <v>0.99756840000000002</v>
+      </c>
+      <c r="X84">
+        <f t="shared" si="7"/>
+        <v>8.0344628571428572E-2</v>
+      </c>
+      <c r="AA84">
+        <f>SUM(X84:X89)</f>
+        <v>0.88493234285714284</v>
+      </c>
     </row>
     <row r="85" spans="1:27" x14ac:dyDescent="0.25">
       <c r="E85" t="s">
         <v>17</v>
       </c>
+      <c r="J85">
+        <v>0.1666</v>
+      </c>
+      <c r="L85">
+        <f t="shared" si="4"/>
+        <v>0.3332</v>
+      </c>
+      <c r="O85">
+        <v>1</v>
+      </c>
+      <c r="Q85">
+        <v>100</v>
+      </c>
+      <c r="R85">
+        <f t="shared" si="5"/>
+        <v>9.5238095238095247E-3</v>
+      </c>
+      <c r="T85">
+        <f t="shared" si="6"/>
+        <v>9.5238095238095247E-3</v>
+      </c>
+      <c r="X85">
+        <f t="shared" si="7"/>
+        <v>3.1733333333333336E-3</v>
+      </c>
     </row>
     <row r="86" spans="1:27" x14ac:dyDescent="0.25">
       <c r="E86" t="s">
         <v>18</v>
       </c>
+      <c r="J86">
+        <v>0.38229999999999997</v>
+      </c>
+      <c r="L86">
+        <f t="shared" si="4"/>
+        <v>0.76459999999999995</v>
+      </c>
+      <c r="O86">
+        <v>0.99909999999999999</v>
+      </c>
+      <c r="Q86">
+        <v>1790</v>
+      </c>
+      <c r="R86">
+        <f t="shared" si="5"/>
+        <v>0.17047619047619048</v>
+      </c>
+      <c r="T86">
+        <f t="shared" si="6"/>
+        <v>0.17032276190476189</v>
+      </c>
+      <c r="X86">
+        <f t="shared" si="7"/>
+        <v>0.13034609523809523</v>
+      </c>
     </row>
     <row r="87" spans="1:27" x14ac:dyDescent="0.25">
       <c r="E87" t="s">
         <v>19</v>
       </c>
+      <c r="J87">
+        <v>0.35709999999999997</v>
+      </c>
+      <c r="L87">
+        <f t="shared" si="4"/>
+        <v>0.71419999999999995</v>
+      </c>
+      <c r="O87">
+        <v>0.95889999999999997</v>
+      </c>
+      <c r="Q87">
+        <v>54</v>
+      </c>
+      <c r="R87">
+        <f t="shared" si="5"/>
+        <v>5.1428571428571426E-3</v>
+      </c>
+      <c r="T87">
+        <f t="shared" si="6"/>
+        <v>4.9314857142857141E-3</v>
+      </c>
+      <c r="X87">
+        <f t="shared" si="7"/>
+        <v>3.6730285714285708E-3</v>
+      </c>
     </row>
     <row r="88" spans="1:27" x14ac:dyDescent="0.25">
       <c r="E88" t="s">
         <v>45</v>
       </c>
+      <c r="J88">
+        <v>0.22220000000000001</v>
+      </c>
+      <c r="L88">
+        <f t="shared" si="4"/>
+        <v>0.44440000000000002</v>
+      </c>
+      <c r="O88">
+        <v>0.74199999999999999</v>
+      </c>
+      <c r="Q88">
+        <v>18</v>
+      </c>
+      <c r="R88">
+        <f t="shared" si="5"/>
+        <v>1.7142857142857142E-3</v>
+      </c>
+      <c r="T88">
+        <f t="shared" si="6"/>
+        <v>1.2719999999999999E-3</v>
+      </c>
+      <c r="X88">
+        <f t="shared" si="7"/>
+        <v>7.6182857142857144E-4</v>
+      </c>
     </row>
     <row r="89" spans="1:27" x14ac:dyDescent="0.25">
       <c r="E89" t="s">
         <v>47</v>
       </c>
+      <c r="J89">
+        <v>0.47910000000000003</v>
+      </c>
+      <c r="L89">
+        <f t="shared" si="4"/>
+        <v>0.95820000000000005</v>
+      </c>
+      <c r="O89">
+        <v>0.99780000000000002</v>
+      </c>
+      <c r="Q89">
+        <v>7305</v>
+      </c>
+      <c r="R89">
+        <f t="shared" si="5"/>
+        <v>0.69571428571428573</v>
+      </c>
+      <c r="T89">
+        <f t="shared" si="6"/>
+        <v>0.69418371428571435</v>
+      </c>
+      <c r="X89">
+        <f t="shared" si="7"/>
+        <v>0.6666334285714286</v>
+      </c>
     </row>
     <row r="90" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B90" t="s">
@@ -3103,11 +4237,11 @@
         <v>65786</v>
       </c>
       <c r="R138">
-        <f t="shared" ref="R138:R165" si="13">Q138/100000</f>
+        <f t="shared" ref="R138:R176" si="13">Q138/100000</f>
         <v>0.65786</v>
       </c>
       <c r="T138">
-        <f t="shared" ref="T138:T165" si="14">R138*O138</f>
+        <f t="shared" ref="T138:T176" si="14">R138*O138</f>
         <v>0.46727795800000005</v>
       </c>
       <c r="X138">
@@ -3354,26 +4488,159 @@
       <c r="E146" t="s">
         <v>44</v>
       </c>
+      <c r="J146">
+        <v>0.49530000000000002</v>
+      </c>
+      <c r="L146">
+        <f t="shared" si="12"/>
+        <v>0.99060000000000004</v>
+      </c>
+      <c r="O146">
+        <v>0.99950000000000006</v>
+      </c>
+      <c r="Q146">
+        <v>7005</v>
+      </c>
+      <c r="R146">
+        <f t="shared" si="13"/>
+        <v>7.0050000000000001E-2</v>
+      </c>
+      <c r="T146">
+        <f t="shared" si="14"/>
+        <v>7.0014975000000007E-2</v>
+      </c>
+      <c r="V146">
+        <f>SUM(T146:T150)</f>
+        <v>0.96745226000000006</v>
+      </c>
+      <c r="X146">
+        <f t="shared" si="15"/>
+        <v>6.9391530000000007E-2</v>
+      </c>
+      <c r="AA146">
+        <f>SUM(X146:X150)</f>
+        <v>0.84184506600000009</v>
+      </c>
     </row>
     <row r="147" spans="2:27" x14ac:dyDescent="0.25">
       <c r="E147" t="s">
         <v>17</v>
       </c>
+      <c r="J147">
+        <v>0.4264</v>
+      </c>
+      <c r="L147">
+        <f t="shared" si="12"/>
+        <v>0.8528</v>
+      </c>
+      <c r="O147">
+        <v>0.99150000000000005</v>
+      </c>
+      <c r="Q147">
+        <v>40140</v>
+      </c>
+      <c r="R147">
+        <f t="shared" si="13"/>
+        <v>0.40139999999999998</v>
+      </c>
+      <c r="T147">
+        <f t="shared" si="14"/>
+        <v>0.39798810000000001</v>
+      </c>
+      <c r="X147">
+        <f t="shared" si="15"/>
+        <v>0.34231391999999999</v>
+      </c>
     </row>
     <row r="148" spans="2:27" x14ac:dyDescent="0.25">
       <c r="E148" t="s">
         <v>18</v>
       </c>
+      <c r="J148">
+        <v>0.421875</v>
+      </c>
+      <c r="L148">
+        <f t="shared" si="12"/>
+        <v>0.84375</v>
+      </c>
+      <c r="O148">
+        <v>0.97560000000000002</v>
+      </c>
+      <c r="Q148">
+        <v>2608</v>
+      </c>
+      <c r="R148">
+        <f t="shared" si="13"/>
+        <v>2.6079999999999999E-2</v>
+      </c>
+      <c r="T148">
+        <f t="shared" si="14"/>
+        <v>2.5443647999999999E-2</v>
+      </c>
+      <c r="X148">
+        <f t="shared" si="15"/>
+        <v>2.2005E-2</v>
+      </c>
     </row>
     <row r="149" spans="2:27" x14ac:dyDescent="0.25">
       <c r="E149" t="s">
         <v>19</v>
       </c>
+      <c r="J149">
+        <v>0.3947</v>
+      </c>
+      <c r="L149">
+        <f t="shared" si="12"/>
+        <v>0.78939999999999999</v>
+      </c>
+      <c r="O149">
+        <v>0.88360000000000005</v>
+      </c>
+      <c r="Q149">
+        <v>24026</v>
+      </c>
+      <c r="R149">
+        <f t="shared" si="13"/>
+        <v>0.24026</v>
+      </c>
+      <c r="T149">
+        <f t="shared" si="14"/>
+        <v>0.21229373600000001</v>
+      </c>
+      <c r="X149">
+        <f t="shared" si="15"/>
+        <v>0.18966124400000001</v>
+      </c>
     </row>
     <row r="150" spans="2:27" x14ac:dyDescent="0.25">
       <c r="E150" t="s">
         <v>45</v>
       </c>
+      <c r="J150">
+        <v>0.41660000000000003</v>
+      </c>
+      <c r="L150">
+        <f t="shared" si="12"/>
+        <v>0.83320000000000005</v>
+      </c>
+      <c r="O150">
+        <v>0.99809999999999999</v>
+      </c>
+      <c r="Q150">
+        <v>26221</v>
+      </c>
+      <c r="R150">
+        <f t="shared" si="13"/>
+        <v>0.26221</v>
+      </c>
+      <c r="T150">
+        <f t="shared" si="14"/>
+        <v>0.26171180100000002</v>
+      </c>
+      <c r="X150">
+        <f t="shared" si="15"/>
+        <v>0.218473372</v>
+      </c>
     </row>
     <row r="151" spans="2:27" x14ac:dyDescent="0.25">
       <c r="D151" t="s">
@@ -3382,31 +4649,189 @@
       <c r="E151" t="s">
         <v>44</v>
       </c>
+      <c r="J151">
+        <v>0.3947</v>
+      </c>
+      <c r="L151">
+        <f t="shared" si="12"/>
+        <v>0.78939999999999999</v>
+      </c>
+      <c r="O151">
+        <v>0.99139999999999995</v>
+      </c>
+      <c r="Q151">
+        <v>37053</v>
+      </c>
+      <c r="R151">
+        <f t="shared" si="13"/>
+        <v>0.37053000000000003</v>
+      </c>
+      <c r="T151">
+        <f t="shared" si="14"/>
+        <v>0.36734344200000002</v>
+      </c>
+      <c r="V151">
+        <f>SUM(T151:T156)</f>
+        <v>0.99559385300000003</v>
+      </c>
+      <c r="X151">
+        <f t="shared" si="15"/>
+        <v>0.292496382</v>
+      </c>
+      <c r="AA151">
+        <f>SUM(X151:X156)</f>
+        <v>0.61688804400000008</v>
+      </c>
     </row>
     <row r="152" spans="2:27" x14ac:dyDescent="0.25">
       <c r="E152" t="s">
         <v>17</v>
       </c>
+      <c r="J152">
+        <v>0.44440000000000002</v>
+      </c>
+      <c r="L152">
+        <f t="shared" si="12"/>
+        <v>0.88880000000000003</v>
+      </c>
+      <c r="O152">
+        <v>0.99850000000000005</v>
+      </c>
+      <c r="Q152">
+        <v>26116</v>
+      </c>
+      <c r="R152">
+        <f t="shared" si="13"/>
+        <v>0.26116</v>
+      </c>
+      <c r="T152">
+        <f t="shared" si="14"/>
+        <v>0.26076826000000003</v>
+      </c>
+      <c r="X152">
+        <f t="shared" si="15"/>
+        <v>0.23211900800000002</v>
+      </c>
     </row>
     <row r="153" spans="2:27" x14ac:dyDescent="0.25">
       <c r="E153" t="s">
         <v>18</v>
       </c>
+      <c r="J153">
+        <v>0.40899999999999997</v>
+      </c>
+      <c r="L153">
+        <f t="shared" si="12"/>
+        <v>0.81799999999999995</v>
+      </c>
+      <c r="O153">
+        <v>0.97709999999999997</v>
+      </c>
+      <c r="Q153">
+        <v>3083</v>
+      </c>
+      <c r="R153">
+        <f t="shared" si="13"/>
+        <v>3.083E-2</v>
+      </c>
+      <c r="T153">
+        <f t="shared" si="14"/>
+        <v>3.0123992999999998E-2</v>
+      </c>
+      <c r="X153">
+        <f t="shared" si="15"/>
+        <v>2.5218939999999999E-2</v>
+      </c>
     </row>
     <row r="154" spans="2:27" x14ac:dyDescent="0.25">
       <c r="E154" t="s">
         <v>19</v>
       </c>
+      <c r="J154">
+        <v>0</v>
+      </c>
+      <c r="L154">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="O154">
+        <v>1</v>
+      </c>
+      <c r="Q154">
+        <v>3116</v>
+      </c>
+      <c r="R154">
+        <f t="shared" si="13"/>
+        <v>3.116E-2</v>
+      </c>
+      <c r="T154">
+        <f t="shared" si="14"/>
+        <v>3.116E-2</v>
+      </c>
+      <c r="X154">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="155" spans="2:27" x14ac:dyDescent="0.25">
       <c r="E155" t="s">
         <v>45</v>
       </c>
+      <c r="J155">
+        <v>0.49530000000000002</v>
+      </c>
+      <c r="L155">
+        <f t="shared" si="12"/>
+        <v>0.99060000000000004</v>
+      </c>
+      <c r="O155">
+        <v>0.99819999999999998</v>
+      </c>
+      <c r="Q155">
+        <v>6769</v>
+      </c>
+      <c r="R155">
+        <f t="shared" si="13"/>
+        <v>6.769E-2</v>
+      </c>
+      <c r="T155">
+        <f t="shared" si="14"/>
+        <v>6.7568158000000003E-2</v>
+      </c>
+      <c r="X155">
+        <f t="shared" si="15"/>
+        <v>6.7053714E-2</v>
+      </c>
     </row>
     <row r="156" spans="2:27" x14ac:dyDescent="0.25">
       <c r="E156" t="s">
         <v>47</v>
       </c>
+      <c r="J156">
+        <v>0</v>
+      </c>
+      <c r="L156">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="O156">
+        <v>1</v>
+      </c>
+      <c r="Q156">
+        <v>23863</v>
+      </c>
+      <c r="R156">
+        <f t="shared" si="13"/>
+        <v>0.23863000000000001</v>
+      </c>
+      <c r="T156">
+        <f t="shared" si="14"/>
+        <v>0.23863000000000001</v>
+      </c>
+      <c r="X156">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="157" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B157" t="s">
@@ -3721,26 +5146,159 @@
       <c r="E166" t="s">
         <v>44</v>
       </c>
+      <c r="J166">
+        <v>0.46289999999999998</v>
+      </c>
+      <c r="L166">
+        <f t="shared" si="12"/>
+        <v>0.92579999999999996</v>
+      </c>
+      <c r="O166">
+        <v>0.98029999999999995</v>
+      </c>
+      <c r="Q166">
+        <v>7903</v>
+      </c>
+      <c r="R166">
+        <f t="shared" si="13"/>
+        <v>7.9030000000000003E-2</v>
+      </c>
+      <c r="T166">
+        <f t="shared" si="14"/>
+        <v>7.7473108999999998E-2</v>
+      </c>
+      <c r="V166">
+        <f>SUM(T166:T170)</f>
+        <v>0.72818988800000006</v>
+      </c>
+      <c r="X166">
+        <f t="shared" ref="X166:X176" si="16">R166*L166</f>
+        <v>7.3165973999999995E-2</v>
+      </c>
+      <c r="AA166">
+        <f>SUM(X166:X170)</f>
+        <v>0.92776095420000004</v>
+      </c>
     </row>
     <row r="167" spans="4:27" x14ac:dyDescent="0.25">
       <c r="E167" t="s">
         <v>17</v>
       </c>
+      <c r="J167">
+        <v>0.4375</v>
+      </c>
+      <c r="L167">
+        <f t="shared" si="12"/>
+        <v>0.875</v>
+      </c>
+      <c r="O167">
+        <v>0.99280000000000002</v>
+      </c>
+      <c r="Q167">
+        <v>27006</v>
+      </c>
+      <c r="R167">
+        <f t="shared" si="13"/>
+        <v>0.27006000000000002</v>
+      </c>
+      <c r="T167">
+        <f t="shared" si="14"/>
+        <v>0.26811556800000003</v>
+      </c>
+      <c r="X167">
+        <f t="shared" si="16"/>
+        <v>0.23630250000000003</v>
+      </c>
     </row>
     <row r="168" spans="4:27" x14ac:dyDescent="0.25">
       <c r="E168" t="s">
         <v>18</v>
       </c>
+      <c r="J168">
+        <v>0.49530000000000002</v>
+      </c>
+      <c r="L168">
+        <f t="shared" si="12"/>
+        <v>0.99060000000000004</v>
+      </c>
+      <c r="O168">
+        <v>0.98919999999999997</v>
+      </c>
+      <c r="Q168">
+        <v>12013</v>
+      </c>
+      <c r="R168">
+        <f t="shared" si="13"/>
+        <v>0.12013</v>
+      </c>
+      <c r="T168">
+        <f t="shared" si="14"/>
+        <v>0.118832596</v>
+      </c>
+      <c r="X168">
+        <f t="shared" si="16"/>
+        <v>0.119000778</v>
+      </c>
     </row>
     <row r="169" spans="4:27" x14ac:dyDescent="0.25">
       <c r="E169" t="s">
         <v>19</v>
       </c>
+      <c r="J169">
+        <v>0.40379999999999999</v>
+      </c>
+      <c r="L169">
+        <f t="shared" si="12"/>
+        <v>0.80759999999999998</v>
+      </c>
+      <c r="O169">
+        <v>0.98780000000000001</v>
+      </c>
+      <c r="Q169">
+        <v>8671</v>
+      </c>
+      <c r="R169">
+        <f t="shared" si="13"/>
+        <v>8.6709999999999995E-2</v>
+      </c>
+      <c r="T169">
+        <f t="shared" si="14"/>
+        <v>8.5652138000000003E-2</v>
+      </c>
+      <c r="X169">
+        <f t="shared" si="16"/>
+        <v>7.0026995999999994E-2</v>
+      </c>
     </row>
     <row r="170" spans="4:27" x14ac:dyDescent="0.25">
       <c r="E170" t="s">
         <v>45</v>
       </c>
+      <c r="J170">
+        <v>0.48332999999999998</v>
+      </c>
+      <c r="L170">
+        <f>J170*2</f>
+        <v>0.96665999999999996</v>
+      </c>
+      <c r="O170">
+        <v>0.40110000000000001</v>
+      </c>
+      <c r="Q170">
+        <v>44407</v>
+      </c>
+      <c r="R170">
+        <f t="shared" si="13"/>
+        <v>0.44407000000000002</v>
+      </c>
+      <c r="T170">
+        <f t="shared" si="14"/>
+        <v>0.17811647700000002</v>
+      </c>
+      <c r="X170">
+        <f t="shared" si="16"/>
+        <v>0.42926470620000001</v>
+      </c>
     </row>
     <row r="171" spans="4:27" x14ac:dyDescent="0.25">
       <c r="D171" t="s">
@@ -3749,31 +5307,189 @@
       <c r="E171" t="s">
         <v>44</v>
       </c>
+      <c r="J171">
+        <v>0.4375</v>
+      </c>
+      <c r="L171">
+        <f>J171*2</f>
+        <v>0.875</v>
+      </c>
+      <c r="O171">
+        <v>0.99280000000000002</v>
+      </c>
+      <c r="Q171">
+        <v>27363</v>
+      </c>
+      <c r="R171">
+        <f t="shared" si="13"/>
+        <v>0.27362999999999998</v>
+      </c>
+      <c r="T171">
+        <f t="shared" si="14"/>
+        <v>0.27165986399999997</v>
+      </c>
+      <c r="V171">
+        <f>SUM(T171:T176)</f>
+        <v>0.72987471199999998</v>
+      </c>
+      <c r="X171">
+        <f t="shared" si="16"/>
+        <v>0.23942624999999998</v>
+      </c>
+      <c r="AA171">
+        <f>SUM(X171:X176)</f>
+        <v>0.92554169000000008</v>
+      </c>
     </row>
     <row r="172" spans="4:27" x14ac:dyDescent="0.25">
       <c r="E172" t="s">
         <v>17</v>
       </c>
+      <c r="J172">
+        <v>0.48330000000000001</v>
+      </c>
+      <c r="L172">
+        <f>J172*2</f>
+        <v>0.96660000000000001</v>
+      </c>
+      <c r="O172">
+        <v>0.3992</v>
+      </c>
+      <c r="Q172">
+        <v>43922</v>
+      </c>
+      <c r="R172">
+        <f t="shared" si="13"/>
+        <v>0.43922</v>
+      </c>
+      <c r="T172">
+        <f t="shared" si="14"/>
+        <v>0.175336624</v>
+      </c>
+      <c r="X172">
+        <f t="shared" si="16"/>
+        <v>0.42455005200000001</v>
+      </c>
     </row>
     <row r="173" spans="4:27" x14ac:dyDescent="0.25">
       <c r="E173" t="s">
         <v>18</v>
       </c>
+      <c r="J173">
+        <v>0.40379999999999999</v>
+      </c>
+      <c r="L173">
+        <f>J173*2</f>
+        <v>0.80759999999999998</v>
+      </c>
+      <c r="O173">
+        <v>0.98799999999999999</v>
+      </c>
+      <c r="Q173">
+        <v>8305</v>
+      </c>
+      <c r="R173">
+        <f t="shared" si="13"/>
+        <v>8.3049999999999999E-2</v>
+      </c>
+      <c r="T173">
+        <f t="shared" si="14"/>
+        <v>8.2053399999999999E-2</v>
+      </c>
+      <c r="X173">
+        <f t="shared" si="16"/>
+        <v>6.7071179999999994E-2</v>
+      </c>
     </row>
     <row r="174" spans="4:27" x14ac:dyDescent="0.25">
       <c r="E174" t="s">
         <v>19</v>
       </c>
+      <c r="J174">
+        <v>0.49530000000000002</v>
+      </c>
+      <c r="L174">
+        <f>J174*2</f>
+        <v>0.99060000000000004</v>
+      </c>
+      <c r="O174">
+        <v>0.98529999999999995</v>
+      </c>
+      <c r="Q174">
+        <v>10763</v>
+      </c>
+      <c r="R174">
+        <f t="shared" si="13"/>
+        <v>0.10763</v>
+      </c>
+      <c r="T174">
+        <f t="shared" si="14"/>
+        <v>0.106047839</v>
+      </c>
+      <c r="X174">
+        <f t="shared" si="16"/>
+        <v>0.10661827800000001</v>
+      </c>
     </row>
     <row r="175" spans="4:27" x14ac:dyDescent="0.25">
       <c r="E175" t="s">
         <v>45</v>
       </c>
+      <c r="J175">
+        <v>0.45229999999999998</v>
+      </c>
+      <c r="L175">
+        <f>J175*2</f>
+        <v>0.90459999999999996</v>
+      </c>
+      <c r="O175">
+        <v>0.98229999999999995</v>
+      </c>
+      <c r="Q175">
+        <v>2395</v>
+      </c>
+      <c r="R175">
+        <f t="shared" si="13"/>
+        <v>2.3949999999999999E-2</v>
+      </c>
+      <c r="T175">
+        <f t="shared" si="14"/>
+        <v>2.3526084999999999E-2</v>
+      </c>
+      <c r="X175">
+        <f t="shared" si="16"/>
+        <v>2.1665169999999997E-2</v>
+      </c>
     </row>
     <row r="176" spans="4:27" x14ac:dyDescent="0.25">
       <c r="E176" t="s">
         <v>47</v>
       </c>
+      <c r="J176">
+        <v>0.45650000000000002</v>
+      </c>
+      <c r="L176">
+        <f>J176*2</f>
+        <v>0.91300000000000003</v>
+      </c>
+      <c r="O176">
+        <v>0.98250000000000004</v>
+      </c>
+      <c r="Q176">
+        <v>7252</v>
+      </c>
+      <c r="R176">
+        <f t="shared" si="13"/>
+        <v>7.2520000000000001E-2</v>
+      </c>
+      <c r="T176">
+        <f t="shared" si="14"/>
+        <v>7.1250900000000006E-2</v>
+      </c>
+      <c r="X176">
+        <f t="shared" si="16"/>
+        <v>6.6210760000000007E-2</v>
+      </c>
     </row>
     <row r="177" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B177" t="s">
@@ -3883,7 +5599,7 @@
         <v>0.43180000000000002</v>
       </c>
       <c r="L182">
-        <f t="shared" ref="L182:L209" si="16">J182*2</f>
+        <f t="shared" ref="L182:L209" si="17">J182*2</f>
         <v>0.86360000000000003</v>
       </c>
       <c r="O182">
@@ -3893,15 +5609,15 @@
         <v>1307</v>
       </c>
       <c r="R182">
-        <f t="shared" ref="R182:R209" si="17">Q182/1434</f>
+        <f t="shared" ref="R182:R209" si="18">Q182/1434</f>
         <v>0.91143654114365413</v>
       </c>
       <c r="T182">
-        <f t="shared" ref="T182:T209" si="18">R182*O182</f>
+        <f t="shared" ref="T182:T209" si="19">R182*O182</f>
         <v>0.81737629009762902</v>
       </c>
       <c r="X182">
-        <f t="shared" ref="X182:X208" si="19">R182*L182</f>
+        <f t="shared" ref="X182:X208" si="20">R182*L182</f>
         <v>0.7871165969316597</v>
       </c>
     </row>
@@ -3916,7 +5632,7 @@
         <v>0.375</v>
       </c>
       <c r="L183">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.75</v>
       </c>
       <c r="O183">
@@ -3926,11 +5642,11 @@
         <v>127</v>
       </c>
       <c r="R183">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>8.8563458856345881E-2</v>
       </c>
       <c r="T183">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>8.77221059972106E-2</v>
       </c>
       <c r="V183">
@@ -3938,7 +5654,7 @@
         <v>0.90473557182705722</v>
       </c>
       <c r="X183">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>6.6422594142259414E-2</v>
       </c>
       <c r="AA183">
@@ -3954,7 +5670,7 @@
         <v>0.38090000000000002</v>
       </c>
       <c r="L184">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.76180000000000003</v>
       </c>
       <c r="O184">
@@ -3964,15 +5680,15 @@
         <v>44</v>
       </c>
       <c r="R184">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>3.0683403068340307E-2</v>
       </c>
       <c r="T184">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>2.4009762900976291E-2</v>
       </c>
       <c r="X184">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>2.3374616457461646E-2</v>
       </c>
     </row>
@@ -3984,7 +5700,7 @@
         <v>0.39279999999999998</v>
       </c>
       <c r="L185">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.78559999999999997</v>
       </c>
       <c r="O185">
@@ -3994,15 +5710,15 @@
         <v>1263</v>
       </c>
       <c r="R185">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.88075313807531386</v>
       </c>
       <c r="T185">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0.79300370292887035</v>
       </c>
       <c r="X185">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.69191966527196658</v>
       </c>
     </row>
@@ -4017,7 +5733,7 @@
         <v>0.3125</v>
       </c>
       <c r="L186">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.625</v>
       </c>
       <c r="O186">
@@ -4027,11 +5743,11 @@
         <v>40</v>
       </c>
       <c r="R186">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>2.7894002789400279E-2</v>
       </c>
       <c r="T186">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1.4532775453277545E-2</v>
       </c>
       <c r="V186">
@@ -4039,7 +5755,7 @@
         <v>0.89667810320781038</v>
       </c>
       <c r="X186">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1.7433751743375175E-2</v>
       </c>
       <c r="AA186">
@@ -4055,7 +5771,7 @@
         <v>0.43180000000000002</v>
       </c>
       <c r="L187">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.86360000000000003</v>
       </c>
       <c r="O187">
@@ -4065,15 +5781,15 @@
         <v>1276</v>
       </c>
       <c r="R187">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.88981868898186889</v>
       </c>
       <c r="T187">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0.79985801952580193</v>
       </c>
       <c r="X187">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.76844741980474196</v>
       </c>
     </row>
@@ -4085,7 +5801,7 @@
         <v>0.33329999999999999</v>
       </c>
       <c r="L188">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.66659999999999997</v>
       </c>
       <c r="O188">
@@ -4095,15 +5811,15 @@
         <v>118</v>
       </c>
       <c r="R188">
-        <f t="shared" si="17"/>
-        <v>8.2287308228730829E-2</v>
-      </c>
-      <c r="T188">
         <f t="shared" si="18"/>
         <v>8.2287308228730829E-2</v>
       </c>
+      <c r="T188">
+        <f t="shared" si="19"/>
+        <v>8.2287308228730829E-2</v>
+      </c>
       <c r="X188">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>5.4852719665271971E-2</v>
       </c>
     </row>
@@ -4182,15 +5898,15 @@
         <v>0</v>
       </c>
       <c r="R200">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="T200">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="X200" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -4208,7 +5924,7 @@
         <v>0.47720000000000001</v>
       </c>
       <c r="L201">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.95440000000000003</v>
       </c>
       <c r="O201">
@@ -4218,11 +5934,11 @@
         <v>1368</v>
       </c>
       <c r="R201">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.95397489539748959</v>
       </c>
       <c r="T201">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0.8341556485355649</v>
       </c>
       <c r="V201">
@@ -4230,7 +5946,7 @@
         <v>0.87962845188284522</v>
       </c>
       <c r="X201">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.9104736401673641</v>
       </c>
       <c r="AA201">
@@ -4246,7 +5962,7 @@
         <v>0.33300000000000002</v>
       </c>
       <c r="L202">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.66600000000000004</v>
       </c>
       <c r="O202">
@@ -4256,15 +5972,15 @@
         <v>66</v>
       </c>
       <c r="R202">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>4.6025104602510462E-2</v>
       </c>
       <c r="T202">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>4.5472803347280336E-2</v>
       </c>
       <c r="X202">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>3.0652719665271971E-2</v>
       </c>
     </row>
@@ -4279,7 +5995,7 @@
         <v>0</v>
       </c>
       <c r="L203">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="O203">
@@ -4289,11 +6005,11 @@
         <v>25</v>
       </c>
       <c r="R203">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1.7433751743375175E-2</v>
       </c>
       <c r="T203">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1.6271443514644351E-2</v>
       </c>
       <c r="V203">
@@ -4301,7 +6017,7 @@
         <v>0.87900240585774059</v>
       </c>
       <c r="X203">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="AA203">
@@ -4317,7 +6033,7 @@
         <v>0.2</v>
       </c>
       <c r="L204">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.4</v>
       </c>
       <c r="O204">
@@ -4327,15 +6043,15 @@
         <v>37</v>
       </c>
       <c r="R204">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>2.5801952580195259E-2</v>
       </c>
       <c r="T204">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>2.5466527196652721E-2</v>
       </c>
       <c r="X204">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1.0320781032078105E-2</v>
       </c>
     </row>
@@ -4347,7 +6063,7 @@
         <v>0.47720000000000001</v>
       </c>
       <c r="L205">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.95440000000000003</v>
       </c>
       <c r="O205">
@@ -4357,15 +6073,15 @@
         <v>1372</v>
       </c>
       <c r="R205">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.95676429567642962</v>
       </c>
       <c r="T205">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0.83726443514644355</v>
       </c>
       <c r="X205">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.91313584379358448</v>
       </c>
     </row>
@@ -4380,7 +6096,7 @@
         <v>0.26919999999999999</v>
       </c>
       <c r="L206">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.53839999999999999</v>
       </c>
       <c r="O206">
@@ -4390,11 +6106,11 @@
         <v>12</v>
       </c>
       <c r="R206">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>8.368200836820083E-3</v>
       </c>
       <c r="T206">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>7.9255230125523015E-3</v>
       </c>
       <c r="V206">
@@ -4402,7 +6118,7 @@
         <v>0.88071813110181318</v>
       </c>
       <c r="X206">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>4.5054393305439325E-3</v>
       </c>
       <c r="AA206">
@@ -4418,7 +6134,7 @@
         <v>0.47720000000000001</v>
       </c>
       <c r="L207">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.95440000000000003</v>
       </c>
       <c r="O207">
@@ -4428,15 +6144,15 @@
         <v>1339</v>
       </c>
       <c r="R207">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.9337517433751743</v>
       </c>
       <c r="T207">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0.81759302649930266</v>
       </c>
       <c r="X207">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.89117266387726635</v>
       </c>
     </row>
@@ -4448,7 +6164,7 @@
         <v>0.2</v>
       </c>
       <c r="L208">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.4</v>
       </c>
       <c r="O208">
@@ -4458,15 +6174,15 @@
         <v>48</v>
       </c>
       <c r="R208">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>3.3472803347280332E-2</v>
       </c>
       <c r="T208">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>3.1109623430962342E-2</v>
       </c>
       <c r="X208">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1.3389121338912133E-2</v>
       </c>
     </row>
@@ -4478,7 +6194,7 @@
         <v>0.2</v>
       </c>
       <c r="L209">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.4</v>
       </c>
       <c r="O209">
@@ -4488,11 +6204,11 @@
         <v>35</v>
       </c>
       <c r="R209">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>2.4407252440725245E-2</v>
       </c>
       <c r="T209">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>2.4089958158995818E-2</v>
       </c>
       <c r="X209">
@@ -4624,7 +6340,7 @@
         <v>0.22489999999999999</v>
       </c>
       <c r="L226">
-        <f t="shared" ref="L226:L266" si="20">J226*2</f>
+        <f t="shared" ref="L226:L266" si="21">J226*2</f>
         <v>0.44979999999999998</v>
       </c>
       <c r="O226">
@@ -4662,7 +6378,7 @@
         <v>0.32785999999999998</v>
       </c>
       <c r="L227">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0.65571999999999997</v>
       </c>
       <c r="O227">
@@ -4672,15 +6388,15 @@
         <v>3932</v>
       </c>
       <c r="R227">
-        <f t="shared" ref="R227:R266" si="21">Q227/10000</f>
+        <f t="shared" ref="R227:R266" si="22">Q227/10000</f>
         <v>0.39319999999999999</v>
       </c>
       <c r="T227">
-        <f t="shared" ref="T227:T266" si="22">R227*O227</f>
+        <f t="shared" ref="T227:T266" si="23">R227*O227</f>
         <v>0.32255768799999995</v>
       </c>
       <c r="X227">
-        <f t="shared" ref="X227:X266" si="23">R227*L227</f>
+        <f t="shared" ref="X227:X266" si="24">R227*L227</f>
         <v>0.25782910399999998</v>
       </c>
     </row>
@@ -4713,7 +6429,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
       <c r="L231">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0.16600000000000001</v>
       </c>
       <c r="O231">
@@ -4723,11 +6439,11 @@
         <v>3326</v>
       </c>
       <c r="R231">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.33260000000000001</v>
       </c>
       <c r="T231">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.29594748000000004</v>
       </c>
       <c r="V231">
@@ -4735,7 +6451,7 @@
         <v>0.91535864400000011</v>
       </c>
       <c r="X231">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>5.5211600000000007E-2</v>
       </c>
       <c r="AA231">
@@ -4751,7 +6467,7 @@
         <v>0.29499999999999998</v>
       </c>
       <c r="L232">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0.59</v>
       </c>
       <c r="O232">
@@ -4761,15 +6477,15 @@
         <v>1994</v>
       </c>
       <c r="R232">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.19939999999999999</v>
       </c>
       <c r="T232">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.16003046400000001</v>
       </c>
       <c r="X232">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0.11764599999999999</v>
       </c>
     </row>
@@ -4781,7 +6497,7 @@
         <v>0</v>
       </c>
       <c r="L233">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="O233">
@@ -4791,15 +6507,15 @@
         <v>2325</v>
       </c>
       <c r="R233">
-        <f t="shared" si="21"/>
-        <v>0.23250000000000001</v>
-      </c>
-      <c r="T233">
         <f t="shared" si="22"/>
         <v>0.23250000000000001</v>
       </c>
+      <c r="T233">
+        <f t="shared" si="23"/>
+        <v>0.23250000000000001</v>
+      </c>
       <c r="X233">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
     </row>
@@ -4811,7 +6527,7 @@
         <v>0.19439999999999999</v>
       </c>
       <c r="L234">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0.38879999999999998</v>
       </c>
       <c r="O234">
@@ -4821,15 +6537,15 @@
         <v>2355</v>
       </c>
       <c r="R234">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.23549999999999999</v>
       </c>
       <c r="T234">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.22688069999999999</v>
       </c>
       <c r="X234">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>9.1562399999999988E-2</v>
       </c>
     </row>
@@ -4872,7 +6588,7 @@
         <v>0</v>
       </c>
       <c r="L240">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="O240">
@@ -4882,11 +6598,11 @@
         <v>1589</v>
       </c>
       <c r="R240">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.15890000000000001</v>
       </c>
       <c r="T240">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.15890000000000001</v>
       </c>
       <c r="V240">
@@ -4894,7 +6610,7 @@
         <v>0.92501869599999997</v>
       </c>
       <c r="X240">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="AA240">
@@ -4910,7 +6626,7 @@
         <v>0</v>
       </c>
       <c r="L241">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="O241">
@@ -4920,15 +6636,15 @@
         <v>2002</v>
       </c>
       <c r="R241">
-        <f t="shared" si="21"/>
-        <v>0.20019999999999999</v>
-      </c>
-      <c r="T241">
         <f t="shared" si="22"/>
         <v>0.20019999999999999</v>
       </c>
+      <c r="T241">
+        <f t="shared" si="23"/>
+        <v>0.20019999999999999</v>
+      </c>
       <c r="X241">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
     </row>
@@ -4940,7 +6656,7 @@
         <v>0.125</v>
       </c>
       <c r="L242">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0.25</v>
       </c>
       <c r="O242">
@@ -4950,15 +6666,15 @@
         <v>1995</v>
       </c>
       <c r="R242">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.19950000000000001</v>
       </c>
       <c r="T242">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.163191</v>
       </c>
       <c r="X242">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>4.9875000000000003E-2</v>
       </c>
     </row>
@@ -4970,7 +6686,7 @@
         <v>0.26229000000000002</v>
       </c>
       <c r="L243">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0.52458000000000005</v>
       </c>
       <c r="O243">
@@ -4980,15 +6696,15 @@
         <v>844</v>
       </c>
       <c r="R243">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>8.4400000000000003E-2</v>
       </c>
       <c r="T243">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>6.6459936000000011E-2</v>
       </c>
       <c r="X243">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>4.4274552000000009E-2</v>
       </c>
     </row>
@@ -5000,7 +6716,7 @@
         <v>0.15625</v>
       </c>
       <c r="L244">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0.3125</v>
       </c>
       <c r="O244">
@@ -5010,15 +6726,15 @@
         <v>1619</v>
       </c>
       <c r="R244">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.16189999999999999</v>
       </c>
       <c r="T244">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.15872675999999999</v>
       </c>
       <c r="X244">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>5.0593749999999993E-2</v>
       </c>
     </row>
@@ -5030,7 +6746,7 @@
         <v>0.1363</v>
       </c>
       <c r="L245">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0.27260000000000001</v>
       </c>
       <c r="O245">
@@ -5040,15 +6756,15 @@
         <v>1951</v>
       </c>
       <c r="R245">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.1951</v>
       </c>
       <c r="T245">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.177541</v>
       </c>
       <c r="X245">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>5.3184259999999997E-2</v>
       </c>
     </row>
@@ -5066,7 +6782,7 @@
         <v>0.41120000000000001</v>
       </c>
       <c r="L246">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0.82240000000000002</v>
       </c>
       <c r="O246">
@@ -5076,11 +6792,11 @@
         <v>5898</v>
       </c>
       <c r="R246">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.58979999999999999</v>
       </c>
       <c r="T246">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.54639072</v>
       </c>
       <c r="V246">
@@ -5088,7 +6804,7 @@
         <v>0.95659072000000001</v>
       </c>
       <c r="X246">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0.48505152000000001</v>
       </c>
       <c r="AA246">
@@ -5104,7 +6820,7 @@
         <v>0</v>
       </c>
       <c r="L247">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="O247">
@@ -5114,15 +6830,15 @@
         <v>4102</v>
       </c>
       <c r="R247">
-        <f t="shared" si="21"/>
-        <v>0.41020000000000001</v>
-      </c>
-      <c r="T247">
         <f t="shared" si="22"/>
         <v>0.41020000000000001</v>
       </c>
+      <c r="T247">
+        <f t="shared" si="23"/>
+        <v>0.41020000000000001</v>
+      </c>
       <c r="X247">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
     </row>
@@ -5155,7 +6871,7 @@
         <v>0.41128999999999999</v>
       </c>
       <c r="L251">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0.82257999999999998</v>
       </c>
       <c r="O251">
@@ -5165,11 +6881,11 @@
         <v>3057</v>
       </c>
       <c r="R251">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.30570000000000003</v>
       </c>
       <c r="T251">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.28551768600000005</v>
       </c>
       <c r="V251">
@@ -5177,7 +6893,7 @@
         <v>0.95780512600000012</v>
       </c>
       <c r="X251">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0.25146270600000004</v>
       </c>
       <c r="AA251">
@@ -5193,7 +6909,7 @@
         <v>0</v>
       </c>
       <c r="L252">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="O252">
@@ -5203,15 +6919,15 @@
         <v>2095</v>
       </c>
       <c r="R252">
-        <f t="shared" si="21"/>
-        <v>0.20949999999999999</v>
-      </c>
-      <c r="T252">
         <f t="shared" si="22"/>
         <v>0.20949999999999999</v>
       </c>
+      <c r="T252">
+        <f t="shared" si="23"/>
+        <v>0.20949999999999999</v>
+      </c>
       <c r="X252">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
     </row>
@@ -5223,7 +6939,7 @@
         <v>0.36537999999999998</v>
       </c>
       <c r="L253">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0.73075999999999997</v>
       </c>
       <c r="O253">
@@ -5233,15 +6949,15 @@
         <v>2844</v>
       </c>
       <c r="R253">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.28439999999999999</v>
       </c>
       <c r="T253">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.26238743999999997</v>
       </c>
       <c r="X253">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0.20782814399999999</v>
       </c>
     </row>
@@ -5253,7 +6969,7 @@
         <v>0</v>
       </c>
       <c r="L254">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="O254">
@@ -5263,15 +6979,15 @@
         <v>2004</v>
       </c>
       <c r="R254">
-        <f t="shared" si="21"/>
-        <v>0.20039999999999999</v>
-      </c>
-      <c r="T254">
         <f t="shared" si="22"/>
         <v>0.20039999999999999</v>
       </c>
+      <c r="T254">
+        <f t="shared" si="23"/>
+        <v>0.20039999999999999</v>
+      </c>
       <c r="X254">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
     </row>
@@ -5314,7 +7030,7 @@
         <v>0</v>
       </c>
       <c r="L260">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="O260">
@@ -5324,11 +7040,11 @@
         <v>1370</v>
       </c>
       <c r="R260">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.13700000000000001</v>
       </c>
       <c r="T260">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.13700000000000001</v>
       </c>
       <c r="V260">
@@ -5336,7 +7052,7 @@
         <v>0.96368827000000001</v>
       </c>
       <c r="X260">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="AA260">
@@ -5352,7 +7068,7 @@
         <v>0.41120000000000001</v>
       </c>
       <c r="L261">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0.82240000000000002</v>
       </c>
       <c r="O261">
@@ -5362,15 +7078,15 @@
         <v>1982</v>
       </c>
       <c r="R261">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.19819999999999999</v>
       </c>
       <c r="T261">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.18783413999999998</v>
       </c>
       <c r="X261">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0.16299967999999998</v>
       </c>
     </row>
@@ -5382,7 +7098,7 @@
         <v>0</v>
       </c>
       <c r="L262">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="O262">
@@ -5392,15 +7108,15 @@
         <v>1831</v>
       </c>
       <c r="R262">
-        <f t="shared" si="21"/>
-        <v>0.18310000000000001</v>
-      </c>
-      <c r="T262">
         <f t="shared" si="22"/>
         <v>0.18310000000000001</v>
       </c>
+      <c r="T262">
+        <f t="shared" si="23"/>
+        <v>0.18310000000000001</v>
+      </c>
       <c r="X262">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
     </row>
@@ -5412,7 +7128,7 @@
         <v>0.36530000000000001</v>
       </c>
       <c r="L263">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0.73060000000000003</v>
       </c>
       <c r="O263">
@@ -5422,15 +7138,15 @@
         <v>1785</v>
       </c>
       <c r="R263">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.17849999999999999</v>
       </c>
       <c r="T263">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.16430924999999999</v>
       </c>
       <c r="X263">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0.1304121</v>
       </c>
     </row>
@@ -5442,7 +7158,7 @@
         <v>0</v>
       </c>
       <c r="L264">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="O264">
@@ -5452,15 +7168,15 @@
         <v>1381</v>
       </c>
       <c r="R264">
-        <f t="shared" si="21"/>
-        <v>0.1381</v>
-      </c>
-      <c r="T264">
         <f t="shared" si="22"/>
         <v>0.1381</v>
       </c>
+      <c r="T264">
+        <f t="shared" si="23"/>
+        <v>0.1381</v>
+      </c>
       <c r="X264">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
     </row>
@@ -5472,7 +7188,7 @@
         <v>0.36</v>
       </c>
       <c r="L265">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0.72</v>
       </c>
       <c r="O265">
@@ -5482,15 +7198,15 @@
         <v>1651</v>
       </c>
       <c r="R265">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.1651</v>
       </c>
       <c r="T265">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.15334487999999999</v>
       </c>
       <c r="X265">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0.11887199999999999</v>
       </c>
     </row>
@@ -5502,7 +7218,7 @@
         <v>0.41120000000000001</v>
       </c>
       <c r="L266">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0.82240000000000002</v>
       </c>
       <c r="O266">
@@ -5512,15 +7228,15 @@
         <v>10000</v>
       </c>
       <c r="R266">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="T266">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.90959999999999996</v>
       </c>
       <c r="X266">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0.82240000000000002</v>
       </c>
       <c r="AA266">
@@ -5625,15 +7341,15 @@
         <v>69715</v>
       </c>
       <c r="R270">
-        <f t="shared" ref="R270:R309" si="24">Q270/150370</f>
+        <f t="shared" ref="R270:R309" si="25">Q270/150370</f>
         <v>0.46362306311099288</v>
       </c>
       <c r="T270">
-        <f t="shared" ref="T270:T309" si="25">R270*O270</f>
+        <f t="shared" ref="T270:T309" si="26">R270*O270</f>
         <v>0.28841990756134867</v>
       </c>
       <c r="X270">
-        <f t="shared" ref="X270:X310" si="26">R270*L270</f>
+        <f t="shared" ref="X270:X309" si="27">R270*L270</f>
         <v>0.324536144177695</v>
       </c>
     </row>
@@ -5660,11 +7376,11 @@
         <v>20534</v>
       </c>
       <c r="R271">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0.13655649398151226</v>
       </c>
       <c r="T271">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0.13654147276717429</v>
       </c>
       <c r="V271">
@@ -5672,7 +7388,7 @@
         <v>0.82274273897718952</v>
       </c>
       <c r="X271">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>8.1933896388907357E-2</v>
       </c>
       <c r="AA271">
@@ -5697,15 +7413,15 @@
         <v>69715</v>
       </c>
       <c r="R272">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0.46362306311099288</v>
       </c>
       <c r="T272">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0.28841990756134867</v>
       </c>
       <c r="X272">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0.324536144177695</v>
       </c>
     </row>
@@ -5726,15 +7442,15 @@
         <v>60121</v>
       </c>
       <c r="R273">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0.39982044290749486</v>
       </c>
       <c r="T273">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0.39778135864866665</v>
       </c>
       <c r="X273">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0.19991022145374743</v>
       </c>
     </row>
@@ -5761,11 +7477,11 @@
         <v>19832</v>
       </c>
       <c r="R274">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0.13188800957637828</v>
       </c>
       <c r="T274">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>9.6693694220921736E-2</v>
       </c>
       <c r="V274">
@@ -5773,7 +7489,7 @@
         <v>0.96271977123096364</v>
       </c>
       <c r="X274">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>8.0267042628183821E-2</v>
       </c>
       <c r="AA274">
@@ -5798,15 +7514,15 @@
         <v>49883</v>
       </c>
       <c r="R275">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0.33173505353461463</v>
       </c>
       <c r="T275">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0.33170188002926115</v>
       </c>
       <c r="X275">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0.19904103212076876</v>
       </c>
     </row>
@@ -5827,15 +7543,15 @@
         <v>20534</v>
       </c>
       <c r="R276">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0.13655649398151226</v>
       </c>
       <c r="T276">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0.13654283833211411</v>
       </c>
       <c r="X276">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>8.1933896388907357E-2</v>
       </c>
     </row>
@@ -5856,15 +7572,15 @@
         <v>60121</v>
       </c>
       <c r="R277">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0.39982044290749486</v>
       </c>
       <c r="T277">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0.39778135864866665</v>
       </c>
       <c r="X277">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0.19991022145374743</v>
       </c>
     </row>
@@ -5895,11 +7611,11 @@
         <v>20534</v>
       </c>
       <c r="R278">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0.13655649398151226</v>
       </c>
       <c r="T278">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0.13654147276717429</v>
       </c>
       <c r="V278">
@@ -5907,7 +7623,7 @@
         <v>0.96271840566602385</v>
       </c>
       <c r="X278">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>8.1933896388907357E-2</v>
       </c>
       <c r="AA278">
@@ -5923,7 +7639,7 @@
         <v>0.25</v>
       </c>
       <c r="L279">
-        <f t="shared" ref="L279:L281" si="27">J279*2</f>
+        <f t="shared" ref="L279:L281" si="28">J279*2</f>
         <v>0.5</v>
       </c>
       <c r="O279">
@@ -5933,15 +7649,15 @@
         <v>60121</v>
       </c>
       <c r="R279">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0.39982044290749486</v>
       </c>
       <c r="T279">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0.39778135864866665</v>
       </c>
       <c r="X279">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0.19991022145374743</v>
       </c>
     </row>
@@ -5953,7 +7669,7 @@
         <v>0.3</v>
       </c>
       <c r="L280">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0.6</v>
       </c>
       <c r="O280">
@@ -5963,15 +7679,15 @@
         <v>49883</v>
       </c>
       <c r="R280">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0.33173505353461463</v>
       </c>
       <c r="T280">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0.33170188002926115</v>
       </c>
       <c r="X280">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0.19904103212076876</v>
       </c>
     </row>
@@ -5983,7 +7699,7 @@
         <v>0.30430000000000001</v>
       </c>
       <c r="L281">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0.60860000000000003</v>
       </c>
       <c r="O281">
@@ -5993,15 +7709,15 @@
         <v>19832</v>
       </c>
       <c r="R281">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0.13188800957637828</v>
       </c>
       <c r="T281">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>9.6693694220921736E-2</v>
       </c>
       <c r="X281">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>8.0267042628183821E-2</v>
       </c>
     </row>
@@ -6016,15 +7732,15 @@
         <v>0</v>
       </c>
       <c r="R282">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="T282">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="X282">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
     </row>
@@ -6055,11 +7771,11 @@
         <v>7366</v>
       </c>
       <c r="R283">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>4.8985834940480151E-2</v>
       </c>
       <c r="T283">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>4.8662528429872981E-2</v>
       </c>
       <c r="V283">
@@ -6067,7 +7783,7 @@
         <v>0.9888191797566005</v>
       </c>
       <c r="X283">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>2.6716874376537875E-2</v>
       </c>
       <c r="AA283">
@@ -6083,7 +7799,7 @@
         <v>0.3</v>
       </c>
       <c r="L284">
-        <f t="shared" ref="L284:L288" si="28">J284*2</f>
+        <f t="shared" ref="L284:L288" si="29">J284*2</f>
         <v>0.6</v>
       </c>
       <c r="O284">
@@ -6093,15 +7809,15 @@
         <v>20534</v>
       </c>
       <c r="R284">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0.13655649398151226</v>
       </c>
       <c r="T284">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0.13654147276717429</v>
       </c>
       <c r="X284">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>8.1933896388907357E-2</v>
       </c>
     </row>
@@ -6113,7 +7829,7 @@
         <v>0.25</v>
       </c>
       <c r="L285">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0.5</v>
       </c>
       <c r="O285">
@@ -6123,15 +7839,15 @@
         <v>60121</v>
       </c>
       <c r="R285">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0.39982044290749486</v>
       </c>
       <c r="T285">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0.39778135864866665</v>
       </c>
       <c r="X285">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0.19991022145374743</v>
       </c>
     </row>
@@ -6143,7 +7859,7 @@
         <v>0.41665999999999997</v>
       </c>
       <c r="L286">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0.83331999999999995</v>
       </c>
       <c r="O286">
@@ -6153,15 +7869,15 @@
         <v>176</v>
       </c>
       <c r="R286">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>1.1704462326261888E-3</v>
       </c>
       <c r="T286">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>8.1861009509875645E-4</v>
       </c>
       <c r="X286">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>9.7535625457205563E-4</v>
       </c>
     </row>
@@ -6173,7 +7889,7 @@
         <v>0.16666</v>
       </c>
       <c r="L287">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0.33332000000000001</v>
       </c>
       <c r="O287">
@@ -6183,15 +7899,15 @@
         <v>12302</v>
       </c>
       <c r="R287">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>8.1811531555496447E-2</v>
       </c>
       <c r="T287">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>7.3393124958435862E-2</v>
       </c>
       <c r="X287">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>2.7269419698078078E-2</v>
       </c>
     </row>
@@ -6203,7 +7919,7 @@
         <v>0.3</v>
       </c>
       <c r="L288">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0.6</v>
       </c>
       <c r="O288">
@@ -6213,15 +7929,15 @@
         <v>49871</v>
       </c>
       <c r="R288">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0.33165525038239013</v>
       </c>
       <c r="T288">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0.3316220848573519</v>
       </c>
       <c r="X288">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0.19899315022943406</v>
       </c>
     </row>
@@ -6256,11 +7972,11 @@
         <v>57101</v>
       </c>
       <c r="R290">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0.37973664959765913</v>
       </c>
       <c r="T290">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0.37969867593269935</v>
       </c>
       <c r="V290">
@@ -6268,7 +7984,7 @@
         <v>0.97626796634967083</v>
       </c>
       <c r="X290">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0.16875496708119972</v>
       </c>
       <c r="AA290">
@@ -6293,15 +8009,15 @@
         <v>93269</v>
       </c>
       <c r="R291">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0.62026335040234093</v>
       </c>
       <c r="T291">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0.59656929041697149</v>
       </c>
       <c r="X291">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0.56115225310899786</v>
       </c>
     </row>
@@ -6325,11 +8041,11 @@
         <v>14259</v>
       </c>
       <c r="R292">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>9.4826095630777416E-2</v>
       </c>
       <c r="T292">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>9.4816613021214344E-2</v>
       </c>
       <c r="V292">
@@ -6337,7 +8053,7 @@
         <v>0.97628722285030267</v>
       </c>
       <c r="X292">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>4.2140716898317485E-2</v>
       </c>
       <c r="AA292">
@@ -6362,15 +8078,15 @@
         <v>93193</v>
       </c>
       <c r="R293">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0.61975793043825234</v>
       </c>
       <c r="T293">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0.5960831774955111</v>
       </c>
       <c r="X293">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0.56069499966748682</v>
       </c>
     </row>
@@ -6391,15 +8107,15 @@
         <v>42918</v>
       </c>
       <c r="R294">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0.28541597393097029</v>
       </c>
       <c r="T294">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0.28538743233357722</v>
       </c>
       <c r="X294">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0.12683885881492321</v>
       </c>
     </row>
@@ -6423,11 +8139,11 @@
         <v>86038</v>
       </c>
       <c r="R295">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0.57217530092438651</v>
       </c>
       <c r="T295">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0.55260690563277248</v>
       </c>
       <c r="V295">
@@ -6435,7 +8151,7 @@
         <v>0.97982631695151956</v>
       </c>
       <c r="X295">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0.5176469947462925</v>
       </c>
       <c r="AA295">
@@ -6460,15 +8176,15 @@
         <v>14193</v>
       </c>
       <c r="R296">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>9.4387178293542595E-2</v>
       </c>
       <c r="T296">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>9.4377739575713243E-2</v>
       </c>
       <c r="X296">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>4.1945662033650334E-2</v>
       </c>
     </row>
@@ -6489,15 +8205,15 @@
         <v>42983</v>
       </c>
       <c r="R297">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0.2858482410055197</v>
       </c>
       <c r="T297">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0.28581965618141913</v>
       </c>
       <c r="X297">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0.12703095830285296</v>
       </c>
     </row>
@@ -6518,15 +8234,15 @@
         <v>7156</v>
       </c>
       <c r="R298">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>4.7589279776551176E-2</v>
       </c>
       <c r="T298">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>4.7022015561614686E-2</v>
       </c>
       <c r="X298">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>3.271762984637893E-2</v>
       </c>
     </row>
@@ -6551,11 +8267,11 @@
         <v>14076</v>
       </c>
       <c r="R299">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>9.3609097559353593E-2</v>
       </c>
       <c r="T299">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>9.3599736649597656E-2</v>
       </c>
       <c r="V299">
@@ -6563,7 +8279,7 @@
         <v>0.97007693037174969</v>
       </c>
       <c r="X299">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>4.1599882955376741E-2</v>
       </c>
       <c r="AA299">
@@ -6579,7 +8295,7 @@
         <v>0.34375</v>
       </c>
       <c r="L300">
-        <f t="shared" ref="L300:L306" si="29">J300*2</f>
+        <f t="shared" ref="L300:L305" si="30">J300*2</f>
         <v>0.6875</v>
       </c>
       <c r="O300">
@@ -6589,15 +8305,15 @@
         <v>7014</v>
       </c>
       <c r="R300">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>4.6644942475227769E-2</v>
       </c>
       <c r="T300">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>4.6088934760923052E-2</v>
       </c>
       <c r="X300">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>3.2068397951719091E-2</v>
       </c>
     </row>
@@ -6609,7 +8325,7 @@
         <v>0.43332999999999999</v>
       </c>
       <c r="L301">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0.86665999999999999</v>
       </c>
       <c r="O301">
@@ -6619,15 +8335,15 @@
         <v>30259</v>
       </c>
       <c r="R301">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0.20123029859679456</v>
       </c>
       <c r="T301">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0.18171095963290548</v>
       </c>
       <c r="X301">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0.17439825058189798</v>
       </c>
     </row>
@@ -6639,7 +8355,7 @@
         <v>0.44729999999999998</v>
       </c>
       <c r="L302">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0.89459999999999995</v>
       </c>
       <c r="O302">
@@ -6649,15 +8365,15 @@
         <v>55923</v>
       </c>
       <c r="R302">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0.37190264015428609</v>
       </c>
       <c r="T302">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0.36212160071822835</v>
       </c>
       <c r="X302">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0.33270410188202432</v>
       </c>
     </row>
@@ -6669,7 +8385,7 @@
         <v>0.22220000000000001</v>
       </c>
       <c r="L303">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0.44440000000000002</v>
       </c>
       <c r="O303">
@@ -6679,15 +8395,15 @@
         <v>43098</v>
       </c>
       <c r="R303">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0.28661302121433796</v>
       </c>
       <c r="T303">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0.28655569861009511</v>
       </c>
       <c r="X303">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0.12737082662765178</v>
       </c>
     </row>
@@ -6702,7 +8418,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
       <c r="L304">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0.16600000000000001</v>
       </c>
       <c r="O304">
@@ -6712,11 +8428,11 @@
         <v>9684</v>
       </c>
       <c r="R304">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>6.4401143845181891E-2</v>
       </c>
       <c r="T304">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>6.4394703730797379E-2</v>
       </c>
       <c r="V304">
@@ -6724,7 +8440,7 @@
         <v>0.94436736982110792</v>
       </c>
       <c r="X304">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>1.0690589878300195E-2</v>
       </c>
       <c r="AA304">
@@ -6740,7 +8456,7 @@
         <v>0.34375</v>
       </c>
       <c r="L305">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0.6875</v>
       </c>
       <c r="O305">
@@ -6750,15 +8466,15 @@
         <v>7015</v>
       </c>
       <c r="R305">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>4.6651592737913146E-2</v>
       </c>
       <c r="T305">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>4.6095505752477221E-2</v>
       </c>
       <c r="X305">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>3.2072970007315287E-2</v>
       </c>
     </row>
@@ -6780,15 +8496,15 @@
         <v>23807</v>
       </c>
       <c r="R306">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0.15832280375074814</v>
       </c>
       <c r="T306">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0.15830697147037306</v>
       </c>
       <c r="X306">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>7.0358653986832484E-2</v>
       </c>
     </row>
@@ -6800,7 +8516,7 @@
         <v>0.43330000000000002</v>
       </c>
       <c r="L307">
-        <f t="shared" ref="L307:L309" si="30">J307*2</f>
+        <f t="shared" ref="L307:L309" si="31">J307*2</f>
         <v>0.86660000000000004</v>
       </c>
       <c r="O307">
@@ -6810,15 +8526,15 @@
         <v>30407</v>
       </c>
       <c r="R307">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0.20221453747423024</v>
       </c>
       <c r="T307">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0.18251884152424019</v>
       </c>
       <c r="X307">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0.17523911817516793</v>
       </c>
     </row>
@@ -6830,7 +8546,7 @@
         <v>0.22220000000000001</v>
       </c>
       <c r="L308">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0.44440000000000002</v>
       </c>
       <c r="O308">
@@ -6840,15 +8556,15 @@
         <v>23691</v>
       </c>
       <c r="R308">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0.15755137327924454</v>
       </c>
       <c r="T308">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0.15753561814191661</v>
       </c>
       <c r="X308">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>7.0015830285296274E-2</v>
       </c>
     </row>
@@ -6860,7 +8576,7 @@
         <v>0.45229999999999998</v>
       </c>
       <c r="L309">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0.90459999999999996</v>
       </c>
       <c r="O309">
@@ -6870,15 +8586,15 @@
         <v>55766</v>
       </c>
       <c r="R309">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0.37085854891268205</v>
       </c>
       <c r="T309">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0.33551572920130346</v>
       </c>
       <c r="X309">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0.33547864334641214</v>
       </c>
     </row>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\process mining\pm4py\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E730167-418F-42AD-9A0B-E7DB7FC337D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EA79F1F-0E63-407A-A5A2-B830E3F0BC60}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C1753F0F-FFC1-467F-9ECD-AF02EB500D34}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="59">
   <si>
     <t>total 819</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -249,23 +249,29 @@
     <t>NULL</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>log7</t>
+  </si>
+  <si>
+    <t>cluster 7</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -611,20 +617,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1D8B2EC-DD97-4072-9002-9DD13F52F6A9}">
-  <dimension ref="A5:AA310"/>
+  <dimension ref="A5:AA324"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F155" workbookViewId="0">
-      <selection activeCell="N174" sqref="N174"/>
+    <sheetView tabSelected="1" topLeftCell="F301" workbookViewId="0">
+      <selection activeCell="T324" sqref="T324"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="15.6640625" customWidth="1"/>
     <col min="20" max="20" width="15.88671875" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="12.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27">
       <c r="F5" t="s">
         <v>1</v>
       </c>
@@ -656,7 +662,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -703,7 +709,7 @@
         <v>0.81677802197802207</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27">
       <c r="E7" t="s">
         <v>13</v>
       </c>
@@ -733,7 +739,7 @@
         <v>0.60659340659340666</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27">
       <c r="D8" t="s">
         <v>14</v>
       </c>
@@ -774,7 +780,7 @@
         <v>0.72182148962148962</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27">
       <c r="E9" t="s">
         <v>13</v>
       </c>
@@ -804,7 +810,7 @@
         <v>0.15811965811965811</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:27">
       <c r="E10" t="s">
         <v>15</v>
       </c>
@@ -834,7 +840,7 @@
         <v>0.3545787545787546</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:27">
       <c r="D11" t="s">
         <v>16</v>
       </c>
@@ -875,7 +881,7 @@
         <v>0.67535286935286942</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:27">
       <c r="E12" t="s">
         <v>17</v>
       </c>
@@ -905,7 +911,7 @@
         <v>0.20317460317460317</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:27">
       <c r="E13" t="s">
         <v>18</v>
       </c>
@@ -935,7 +941,7 @@
         <v>8.976068376068376E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:27">
       <c r="E14" t="s">
         <v>19</v>
       </c>
@@ -965,7 +971,7 @@
         <v>0.14358974358974358</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:27">
       <c r="D15" t="s">
         <v>43</v>
       </c>
@@ -1006,7 +1012,7 @@
         <v>0.62590427350427347</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:27">
       <c r="E16" t="s">
         <v>17</v>
       </c>
@@ -1036,7 +1042,7 @@
         <v>0.20317460317460317</v>
       </c>
     </row>
-    <row r="17" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:27">
       <c r="E17" t="s">
         <v>18</v>
       </c>
@@ -1066,7 +1072,7 @@
         <v>2.8027838827838828E-2</v>
       </c>
     </row>
-    <row r="18" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:27">
       <c r="E18" t="s">
         <v>19</v>
       </c>
@@ -1096,7 +1102,7 @@
         <v>0.14358974358974358</v>
       </c>
     </row>
-    <row r="19" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:27">
       <c r="E19" t="s">
         <v>45</v>
       </c>
@@ -1126,7 +1132,7 @@
         <v>7.1624908424908429E-2</v>
       </c>
     </row>
-    <row r="20" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:27">
       <c r="D20" t="s">
         <v>46</v>
       </c>
@@ -1167,7 +1173,7 @@
         <v>0.55070207570207574</v>
       </c>
     </row>
-    <row r="21" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:27">
       <c r="E21" t="s">
         <v>17</v>
       </c>
@@ -1197,7 +1203,7 @@
         <v>0.13675213675213677</v>
       </c>
     </row>
-    <row r="22" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:27">
       <c r="E22" t="s">
         <v>18</v>
       </c>
@@ -1227,7 +1233,7 @@
         <v>0.12148962148962149</v>
       </c>
     </row>
-    <row r="23" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:27">
       <c r="E23" t="s">
         <v>19</v>
       </c>
@@ -1257,7 +1263,7 @@
         <v>0.14358974358974358</v>
       </c>
     </row>
-    <row r="24" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:27">
       <c r="E24" t="s">
         <v>45</v>
       </c>
@@ -1287,7 +1293,7 @@
         <v>6.1042735042735038E-2</v>
       </c>
     </row>
-    <row r="25" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:27">
       <c r="E25" t="s">
         <v>47</v>
       </c>
@@ -1317,7 +1323,7 @@
         <v>2.6167277167277167E-2</v>
       </c>
     </row>
-    <row r="26" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:27">
       <c r="B26" t="s">
         <v>20</v>
       </c>
@@ -1361,7 +1367,7 @@
         <v>0.89929230769230772</v>
       </c>
     </row>
-    <row r="27" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:27">
       <c r="E27" t="s">
         <v>13</v>
       </c>
@@ -1391,7 +1397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:27">
       <c r="D28" t="s">
         <v>14</v>
       </c>
@@ -1432,7 +1438,7 @@
         <v>0.85724747252747258</v>
       </c>
     </row>
-    <row r="29" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:27">
       <c r="E29" t="s">
         <v>13</v>
       </c>
@@ -1462,7 +1468,7 @@
         <v>0.85724747252747258</v>
       </c>
     </row>
-    <row r="30" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:27">
       <c r="E30" t="s">
         <v>15</v>
       </c>
@@ -1492,7 +1498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:27">
       <c r="D31" t="s">
         <v>16</v>
       </c>
@@ -1533,7 +1539,7 @@
         <v>0.80469142857142861</v>
       </c>
     </row>
-    <row r="32" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:27">
       <c r="E32" t="s">
         <v>17</v>
       </c>
@@ -1563,7 +1569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:27">
       <c r="E33" t="s">
         <v>18</v>
       </c>
@@ -1593,7 +1599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:27">
       <c r="E34" t="s">
         <v>19</v>
       </c>
@@ -1623,7 +1629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:27">
       <c r="D35" t="s">
         <v>48</v>
       </c>
@@ -1664,7 +1670,7 @@
         <v>0.79057728937728933</v>
       </c>
     </row>
-    <row r="36" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:27">
       <c r="E36" t="s">
         <v>17</v>
       </c>
@@ -1694,7 +1700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:27">
       <c r="E37" t="s">
         <v>18</v>
       </c>
@@ -1724,7 +1730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:27">
       <c r="E38" t="s">
         <v>19</v>
       </c>
@@ -1754,7 +1760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:27">
       <c r="E39" t="s">
         <v>45</v>
       </c>
@@ -1784,7 +1790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:27">
       <c r="D40" t="s">
         <v>46</v>
       </c>
@@ -1825,7 +1831,7 @@
         <v>0.73569230769230776</v>
       </c>
     </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:27">
       <c r="E41" t="s">
         <v>17</v>
       </c>
@@ -1855,7 +1861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:27">
       <c r="E42" t="s">
         <v>18</v>
       </c>
@@ -1885,7 +1891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:27">
       <c r="E43" t="s">
         <v>19</v>
       </c>
@@ -1915,7 +1921,7 @@
         <v>0.73569230769230776</v>
       </c>
     </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:27">
       <c r="E44" t="s">
         <v>45</v>
       </c>
@@ -1945,7 +1951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:27">
       <c r="E45" t="s">
         <v>47</v>
       </c>
@@ -1975,7 +1981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:27">
       <c r="B46" t="s">
         <v>21</v>
       </c>
@@ -1992,7 +1998,7 @@
         <v>0.95165864919999998</v>
       </c>
     </row>
-    <row r="49" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:27">
       <c r="F49" t="s">
         <v>1</v>
       </c>
@@ -2024,7 +2030,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="50" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:27">
       <c r="A50" t="s">
         <v>26</v>
       </c>
@@ -2071,7 +2077,7 @@
         <v>0.94301830476190474</v>
       </c>
     </row>
-    <row r="51" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:27">
       <c r="E51" t="s">
         <v>13</v>
       </c>
@@ -2101,7 +2107,7 @@
         <v>0.68871765714285715</v>
       </c>
     </row>
-    <row r="52" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:27">
       <c r="D52" t="s">
         <v>14</v>
       </c>
@@ -2142,7 +2148,7 @@
         <v>0.93504215238095245</v>
       </c>
     </row>
-    <row r="53" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:27">
       <c r="E53" t="s">
         <v>13</v>
       </c>
@@ -2172,7 +2178,7 @@
         <v>0.20947704761904765</v>
       </c>
     </row>
-    <row r="54" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:27">
       <c r="E54" t="s">
         <v>15</v>
       </c>
@@ -2202,7 +2208,7 @@
         <v>0.47234697142857146</v>
       </c>
     </row>
-    <row r="55" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:27">
       <c r="D55" t="s">
         <v>16</v>
       </c>
@@ -2243,7 +2249,7 @@
         <v>0.89966310476190481</v>
       </c>
     </row>
-    <row r="56" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:27">
       <c r="E56" t="s">
         <v>17</v>
       </c>
@@ -2273,7 +2279,7 @@
         <v>0.18864361904761906</v>
       </c>
     </row>
-    <row r="57" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:27">
       <c r="E57" t="s">
         <v>18</v>
       </c>
@@ -2303,7 +2309,7 @@
         <v>0.24843702857142858</v>
       </c>
     </row>
-    <row r="58" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:27">
       <c r="E58" t="s">
         <v>19</v>
       </c>
@@ -2333,7 +2339,7 @@
         <v>0.46258245714285717</v>
       </c>
     </row>
-    <row r="59" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:27">
       <c r="D59" t="s">
         <v>43</v>
       </c>
@@ -2374,7 +2380,7 @@
         <v>0.78428245714285716</v>
       </c>
     </row>
-    <row r="60" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:27">
       <c r="E60" t="s">
         <v>17</v>
       </c>
@@ -2404,7 +2410,7 @@
         <v>0.22371961904761906</v>
       </c>
     </row>
-    <row r="61" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:27">
       <c r="E61" t="s">
         <v>18</v>
       </c>
@@ -2434,7 +2440,7 @@
         <v>5.7614857142857148E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:27">
       <c r="E62" t="s">
         <v>19</v>
       </c>
@@ -2464,7 +2470,7 @@
         <v>7.7233409523809526E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:27">
       <c r="E63" t="s">
         <v>45</v>
       </c>
@@ -2494,7 +2500,7 @@
         <v>0.14873485714285714</v>
       </c>
     </row>
-    <row r="64" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:27">
       <c r="D64" t="s">
         <v>49</v>
       </c>
@@ -2535,7 +2541,7 @@
         <v>0.90707563809523817</v>
       </c>
     </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:27">
       <c r="E65" t="s">
         <v>17</v>
       </c>
@@ -2565,7 +2571,7 @@
         <v>1.9642857142857144E-3</v>
       </c>
     </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:27">
       <c r="E66" t="s">
         <v>18</v>
       </c>
@@ -2595,7 +2601,7 @@
         <v>0.22335878095238096</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:27">
       <c r="E67" t="s">
         <v>19</v>
       </c>
@@ -2625,7 +2631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:27">
       <c r="E68" t="s">
         <v>45</v>
       </c>
@@ -2655,7 +2661,7 @@
         <v>0.18547904761904763</v>
       </c>
     </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:27">
       <c r="E69" t="s">
         <v>50</v>
       </c>
@@ -2685,7 +2691,7 @@
         <v>0.4219730285714286</v>
       </c>
     </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:27">
       <c r="B70" t="s">
         <v>20</v>
       </c>
@@ -2729,7 +2735,7 @@
         <v>0.93484571428571428</v>
       </c>
     </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:27">
       <c r="E71" t="s">
         <v>13</v>
       </c>
@@ -2759,7 +2765,7 @@
         <v>6.8359142857142854E-2</v>
       </c>
     </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:27">
       <c r="D72" t="s">
         <v>14</v>
       </c>
@@ -2800,7 +2806,7 @@
         <v>0.93973695238095245</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:27">
       <c r="E73" t="s">
         <v>13</v>
       </c>
@@ -2830,7 +2836,7 @@
         <v>0.90079925714285725</v>
       </c>
     </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:27">
       <c r="E74" t="s">
         <v>15</v>
       </c>
@@ -2860,7 +2866,7 @@
         <v>3.363733333333333E-3</v>
       </c>
     </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:27">
       <c r="D75" t="s">
         <v>16</v>
       </c>
@@ -2901,7 +2907,7 @@
         <v>0.89669538666666659</v>
       </c>
     </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:27">
       <c r="E76" t="s">
         <v>17</v>
       </c>
@@ -2931,7 +2937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:27">
       <c r="E77" t="s">
         <v>18</v>
       </c>
@@ -2961,7 +2967,7 @@
         <v>0.71125597714285704</v>
       </c>
     </row>
-    <row r="78" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:27">
       <c r="E78" t="s">
         <v>19</v>
       </c>
@@ -2991,7 +2997,7 @@
         <v>3.1733333333333336E-3</v>
       </c>
     </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:27">
       <c r="D79" t="s">
         <v>43</v>
       </c>
@@ -3032,7 +3038,7 @@
         <v>0.89553853333333333</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:27">
       <c r="E80" t="s">
         <v>17</v>
       </c>
@@ -3062,7 +3068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:27">
       <c r="E81" t="s">
         <v>18</v>
       </c>
@@ -3092,7 +3098,7 @@
         <v>0.18182916190476189</v>
       </c>
     </row>
-    <row r="82" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:27">
       <c r="E82" t="s">
         <v>19</v>
       </c>
@@ -3122,7 +3128,7 @@
         <v>3.3319999999999999E-3</v>
       </c>
     </row>
-    <row r="83" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:27">
       <c r="E83" t="s">
         <v>45</v>
       </c>
@@ -3152,7 +3158,7 @@
         <v>0.7096155428571429</v>
       </c>
     </row>
-    <row r="84" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:27">
       <c r="D84" t="s">
         <v>49</v>
       </c>
@@ -3193,7 +3199,7 @@
         <v>0.88493234285714284</v>
       </c>
     </row>
-    <row r="85" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:27">
       <c r="E85" t="s">
         <v>17</v>
       </c>
@@ -3223,7 +3229,7 @@
         <v>3.1733333333333336E-3</v>
       </c>
     </row>
-    <row r="86" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:27">
       <c r="E86" t="s">
         <v>18</v>
       </c>
@@ -3253,7 +3259,7 @@
         <v>0.13034609523809523</v>
       </c>
     </row>
-    <row r="87" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:27">
       <c r="E87" t="s">
         <v>19</v>
       </c>
@@ -3283,7 +3289,7 @@
         <v>3.6730285714285708E-3</v>
       </c>
     </row>
-    <row r="88" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:27">
       <c r="E88" t="s">
         <v>45</v>
       </c>
@@ -3313,7 +3319,7 @@
         <v>7.6182857142857144E-4</v>
       </c>
     </row>
-    <row r="89" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:27">
       <c r="E89" t="s">
         <v>47</v>
       </c>
@@ -3343,7 +3349,7 @@
         <v>0.6666334285714286</v>
       </c>
     </row>
-    <row r="90" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:27">
       <c r="B90" t="s">
         <v>21</v>
       </c>
@@ -3360,7 +3366,7 @@
         <v>10500</v>
       </c>
     </row>
-    <row r="94" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:27">
       <c r="J94" t="s">
         <v>2</v>
       </c>
@@ -3389,7 +3395,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="95" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:27">
       <c r="A95" t="s">
         <v>27</v>
       </c>
@@ -3436,7 +3442,7 @@
         <v>0.64082267999999998</v>
       </c>
     </row>
-    <row r="96" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:27">
       <c r="E96" t="s">
         <v>13</v>
       </c>
@@ -3466,7 +3472,7 @@
         <v>0.520696512</v>
       </c>
     </row>
-    <row r="97" spans="4:27" x14ac:dyDescent="0.25">
+    <row r="97" spans="4:27">
       <c r="D97" t="s">
         <v>14</v>
       </c>
@@ -3507,7 +3513,7 @@
         <v>0.44078836799999999</v>
       </c>
     </row>
-    <row r="98" spans="4:27" x14ac:dyDescent="0.25">
+    <row r="98" spans="4:27">
       <c r="E98" t="s">
         <v>13</v>
       </c>
@@ -3537,7 +3543,7 @@
         <v>0.25553999999999999</v>
       </c>
     </row>
-    <row r="99" spans="4:27" x14ac:dyDescent="0.25">
+    <row r="99" spans="4:27">
       <c r="E99" t="s">
         <v>15</v>
       </c>
@@ -3567,7 +3573,7 @@
         <v>6.5122200000000005E-2</v>
       </c>
     </row>
-    <row r="100" spans="4:27" x14ac:dyDescent="0.25">
+    <row r="100" spans="4:27">
       <c r="D100" t="s">
         <v>16</v>
       </c>
@@ -3608,7 +3614,7 @@
         <v>0.40280608200000001</v>
       </c>
     </row>
-    <row r="101" spans="4:27" x14ac:dyDescent="0.25">
+    <row r="101" spans="4:27">
       <c r="E101" t="s">
         <v>17</v>
       </c>
@@ -3638,7 +3644,7 @@
         <v>0.24494250000000001</v>
       </c>
     </row>
-    <row r="102" spans="4:27" x14ac:dyDescent="0.25">
+    <row r="102" spans="4:27">
       <c r="E102" t="s">
         <v>18</v>
       </c>
@@ -3668,7 +3674,7 @@
         <v>3.4945393999999998E-2</v>
       </c>
     </row>
-    <row r="103" spans="4:27" x14ac:dyDescent="0.25">
+    <row r="103" spans="4:27">
       <c r="E103" t="s">
         <v>19</v>
       </c>
@@ -3698,7 +3704,7 @@
         <v>0.12012616799999999</v>
       </c>
     </row>
-    <row r="104" spans="4:27" x14ac:dyDescent="0.25">
+    <row r="104" spans="4:27">
       <c r="D104" t="s">
         <v>43</v>
       </c>
@@ -3706,27 +3712,27 @@
         <v>44</v>
       </c>
     </row>
-    <row r="105" spans="4:27" x14ac:dyDescent="0.25">
+    <row r="105" spans="4:27">
       <c r="E105" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="106" spans="4:27" x14ac:dyDescent="0.25">
+    <row r="106" spans="4:27">
       <c r="E106" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="107" spans="4:27" x14ac:dyDescent="0.25">
+    <row r="107" spans="4:27">
       <c r="E107" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="108" spans="4:27" x14ac:dyDescent="0.25">
+    <row r="108" spans="4:27">
       <c r="E108" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="109" spans="4:27" x14ac:dyDescent="0.25">
+    <row r="109" spans="4:27">
       <c r="D109" t="s">
         <v>49</v>
       </c>
@@ -3734,32 +3740,32 @@
         <v>44</v>
       </c>
     </row>
-    <row r="110" spans="4:27" x14ac:dyDescent="0.25">
+    <row r="110" spans="4:27">
       <c r="E110" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="111" spans="4:27" x14ac:dyDescent="0.25">
+    <row r="111" spans="4:27">
       <c r="E111" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="112" spans="4:27" x14ac:dyDescent="0.25">
+    <row r="112" spans="4:27">
       <c r="E112" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="113" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:27">
       <c r="E113" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="114" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:27">
       <c r="E114" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="115" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:27">
       <c r="B115" t="s">
         <v>20</v>
       </c>
@@ -3803,7 +3809,7 @@
         <v>0.50614019999999993</v>
       </c>
     </row>
-    <row r="116" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:27">
       <c r="E116" t="s">
         <v>13</v>
       </c>
@@ -3833,7 +3839,7 @@
         <v>0.23841251999999996</v>
       </c>
     </row>
-    <row r="117" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:27">
       <c r="D117" t="s">
         <v>14</v>
       </c>
@@ -3874,7 +3880,7 @@
         <v>0.49524913279999999</v>
       </c>
     </row>
-    <row r="118" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:27">
       <c r="E118" t="s">
         <v>13</v>
       </c>
@@ -3904,7 +3910,7 @@
         <v>0.23970329999999998</v>
       </c>
     </row>
-    <row r="119" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:27">
       <c r="E119" t="s">
         <v>15</v>
       </c>
@@ -3934,7 +3940,7 @@
         <v>1.33328E-5</v>
       </c>
     </row>
-    <row r="120" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:27">
       <c r="D120" t="s">
         <v>16</v>
       </c>
@@ -3975,7 +3981,7 @@
         <v>0.25118075419999997</v>
       </c>
     </row>
-    <row r="121" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:27">
       <c r="E121" t="s">
         <v>17</v>
       </c>
@@ -4005,7 +4011,7 @@
         <v>0.12012253199999999</v>
       </c>
     </row>
-    <row r="122" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:27">
       <c r="E122" t="s">
         <v>18</v>
       </c>
@@ -4035,7 +4041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:27">
       <c r="E123" t="s">
         <v>19</v>
       </c>
@@ -4065,7 +4071,7 @@
         <v>1.3328E-5</v>
       </c>
     </row>
-    <row r="124" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:27">
       <c r="D124" t="s">
         <v>43</v>
       </c>
@@ -4073,27 +4079,27 @@
         <v>44</v>
       </c>
     </row>
-    <row r="125" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:27">
       <c r="E125" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="126" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:27">
       <c r="E126" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="127" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:27">
       <c r="E127" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="128" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:27">
       <c r="E128" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="129" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:27">
       <c r="D129" t="s">
         <v>49</v>
       </c>
@@ -4101,32 +4107,32 @@
         <v>44</v>
       </c>
     </row>
-    <row r="130" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:27">
       <c r="E130" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="131" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:27">
       <c r="E131" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="132" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:27">
       <c r="E132" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="133" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:27">
       <c r="E133" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="134" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:27">
       <c r="E134" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="135" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:27">
       <c r="D135" t="s">
         <v>28</v>
       </c>
@@ -4143,7 +4149,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="136" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:27">
       <c r="J136" t="s">
         <v>29</v>
       </c>
@@ -4172,7 +4178,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="137" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:27">
       <c r="A137" t="s">
         <v>42</v>
       </c>
@@ -4219,7 +4225,7 @@
         <v>0.88393798759999997</v>
       </c>
     </row>
-    <row r="138" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:27">
       <c r="E138" t="s">
         <v>17</v>
       </c>
@@ -4249,7 +4255,7 @@
         <v>0.54339236000000002</v>
       </c>
     </row>
-    <row r="139" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:27">
       <c r="D139" t="s">
         <v>33</v>
       </c>
@@ -4290,7 +4296,7 @@
         <v>0.68582442180000003</v>
       </c>
     </row>
-    <row r="140" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:27">
       <c r="E140" t="s">
         <v>17</v>
       </c>
@@ -4320,7 +4326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:27">
       <c r="E141" t="s">
         <v>18</v>
       </c>
@@ -4350,7 +4356,7 @@
         <v>0.33283198199999997</v>
       </c>
     </row>
-    <row r="142" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:27">
       <c r="D142" t="s">
         <v>34</v>
       </c>
@@ -4391,7 +4397,7 @@
         <v>0.87001807999999992</v>
       </c>
     </row>
-    <row r="143" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:27">
       <c r="E143" t="s">
         <v>17</v>
       </c>
@@ -4421,7 +4427,7 @@
         <v>0.26245999999999997</v>
       </c>
     </row>
-    <row r="144" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:27">
       <c r="E144" t="s">
         <v>18</v>
       </c>
@@ -4451,7 +4457,7 @@
         <v>2.6899235999999997E-2</v>
       </c>
     </row>
-    <row r="145" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:27">
       <c r="E145" t="s">
         <v>19</v>
       </c>
@@ -4481,7 +4487,7 @@
         <v>0.33263943599999996</v>
       </c>
     </row>
-    <row r="146" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:27">
       <c r="D146" t="s">
         <v>43</v>
       </c>
@@ -4522,7 +4528,7 @@
         <v>0.84184506600000009</v>
       </c>
     </row>
-    <row r="147" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:27">
       <c r="E147" t="s">
         <v>17</v>
       </c>
@@ -4552,7 +4558,7 @@
         <v>0.34231391999999999</v>
       </c>
     </row>
-    <row r="148" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:27">
       <c r="E148" t="s">
         <v>18</v>
       </c>
@@ -4582,7 +4588,7 @@
         <v>2.2005E-2</v>
       </c>
     </row>
-    <row r="149" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:27">
       <c r="E149" t="s">
         <v>19</v>
       </c>
@@ -4612,7 +4618,7 @@
         <v>0.18966124400000001</v>
       </c>
     </row>
-    <row r="150" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:27">
       <c r="E150" t="s">
         <v>45</v>
       </c>
@@ -4642,7 +4648,7 @@
         <v>0.218473372</v>
       </c>
     </row>
-    <row r="151" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:27">
       <c r="D151" t="s">
         <v>49</v>
       </c>
@@ -4683,7 +4689,7 @@
         <v>0.61688804400000008</v>
       </c>
     </row>
-    <row r="152" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:27">
       <c r="E152" t="s">
         <v>17</v>
       </c>
@@ -4713,7 +4719,7 @@
         <v>0.23211900800000002</v>
       </c>
     </row>
-    <row r="153" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:27">
       <c r="E153" t="s">
         <v>18</v>
       </c>
@@ -4743,7 +4749,7 @@
         <v>2.5218939999999999E-2</v>
       </c>
     </row>
-    <row r="154" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:27">
       <c r="E154" t="s">
         <v>19</v>
       </c>
@@ -4773,7 +4779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:27">
       <c r="E155" t="s">
         <v>45</v>
       </c>
@@ -4803,7 +4809,7 @@
         <v>6.7053714E-2</v>
       </c>
     </row>
-    <row r="156" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:27">
       <c r="E156" t="s">
         <v>47</v>
       </c>
@@ -4833,7 +4839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:27">
       <c r="B157" t="s">
         <v>20</v>
       </c>
@@ -4877,7 +4883,7 @@
         <v>0.13096722599999999</v>
       </c>
     </row>
-    <row r="158" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:27">
       <c r="E158" t="s">
         <v>17</v>
       </c>
@@ -4907,7 +4913,7 @@
         <v>0.13096722599999999</v>
       </c>
     </row>
-    <row r="159" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:27">
       <c r="D159" t="s">
         <v>33</v>
       </c>
@@ -4948,7 +4954,7 @@
         <v>0.43695647800000004</v>
       </c>
     </row>
-    <row r="160" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:27">
       <c r="E160" t="s">
         <v>17</v>
       </c>
@@ -4978,7 +4984,7 @@
         <v>0.13003606200000001</v>
       </c>
     </row>
-    <row r="161" spans="4:27" x14ac:dyDescent="0.25">
+    <row r="161" spans="4:27">
       <c r="E161" t="s">
         <v>18</v>
       </c>
@@ -5008,7 +5014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="4:27" x14ac:dyDescent="0.25">
+    <row r="162" spans="4:27">
       <c r="D162" t="s">
         <v>34</v>
       </c>
@@ -5049,7 +5055,7 @@
         <v>0.93945982260000005</v>
       </c>
     </row>
-    <row r="163" spans="4:27" x14ac:dyDescent="0.25">
+    <row r="163" spans="4:27">
       <c r="E163" t="s">
         <v>17</v>
       </c>
@@ -5079,7 +5085,7 @@
         <v>0.11912955600000001</v>
       </c>
     </row>
-    <row r="164" spans="4:27" x14ac:dyDescent="0.25">
+    <row r="164" spans="4:27">
       <c r="E164" t="s">
         <v>18</v>
       </c>
@@ -5109,7 +5115,7 @@
         <v>7.5600827999999995E-2</v>
       </c>
     </row>
-    <row r="165" spans="4:27" x14ac:dyDescent="0.25">
+    <row r="165" spans="4:27">
       <c r="E165" t="s">
         <v>19</v>
       </c>
@@ -5139,7 +5145,7 @@
         <v>0.30527613600000003</v>
       </c>
     </row>
-    <row r="166" spans="4:27" x14ac:dyDescent="0.25">
+    <row r="166" spans="4:27">
       <c r="D166" t="s">
         <v>43</v>
       </c>
@@ -5180,7 +5186,7 @@
         <v>0.92776095420000004</v>
       </c>
     </row>
-    <row r="167" spans="4:27" x14ac:dyDescent="0.25">
+    <row r="167" spans="4:27">
       <c r="E167" t="s">
         <v>17</v>
       </c>
@@ -5210,7 +5216,7 @@
         <v>0.23630250000000003</v>
       </c>
     </row>
-    <row r="168" spans="4:27" x14ac:dyDescent="0.25">
+    <row r="168" spans="4:27">
       <c r="E168" t="s">
         <v>18</v>
       </c>
@@ -5240,7 +5246,7 @@
         <v>0.119000778</v>
       </c>
     </row>
-    <row r="169" spans="4:27" x14ac:dyDescent="0.25">
+    <row r="169" spans="4:27">
       <c r="E169" t="s">
         <v>19</v>
       </c>
@@ -5270,7 +5276,7 @@
         <v>7.0026995999999994E-2</v>
       </c>
     </row>
-    <row r="170" spans="4:27" x14ac:dyDescent="0.25">
+    <row r="170" spans="4:27">
       <c r="E170" t="s">
         <v>45</v>
       </c>
@@ -5278,7 +5284,7 @@
         <v>0.48332999999999998</v>
       </c>
       <c r="L170">
-        <f>J170*2</f>
+        <f t="shared" ref="L170:L176" si="17">J170*2</f>
         <v>0.96665999999999996</v>
       </c>
       <c r="O170">
@@ -5300,7 +5306,7 @@
         <v>0.42926470620000001</v>
       </c>
     </row>
-    <row r="171" spans="4:27" x14ac:dyDescent="0.25">
+    <row r="171" spans="4:27">
       <c r="D171" t="s">
         <v>49</v>
       </c>
@@ -5311,7 +5317,7 @@
         <v>0.4375</v>
       </c>
       <c r="L171">
-        <f>J171*2</f>
+        <f t="shared" si="17"/>
         <v>0.875</v>
       </c>
       <c r="O171">
@@ -5341,7 +5347,7 @@
         <v>0.92554169000000008</v>
       </c>
     </row>
-    <row r="172" spans="4:27" x14ac:dyDescent="0.25">
+    <row r="172" spans="4:27">
       <c r="E172" t="s">
         <v>17</v>
       </c>
@@ -5349,7 +5355,7 @@
         <v>0.48330000000000001</v>
       </c>
       <c r="L172">
-        <f>J172*2</f>
+        <f t="shared" si="17"/>
         <v>0.96660000000000001</v>
       </c>
       <c r="O172">
@@ -5371,7 +5377,7 @@
         <v>0.42455005200000001</v>
       </c>
     </row>
-    <row r="173" spans="4:27" x14ac:dyDescent="0.25">
+    <row r="173" spans="4:27">
       <c r="E173" t="s">
         <v>18</v>
       </c>
@@ -5379,7 +5385,7 @@
         <v>0.40379999999999999</v>
       </c>
       <c r="L173">
-        <f>J173*2</f>
+        <f t="shared" si="17"/>
         <v>0.80759999999999998</v>
       </c>
       <c r="O173">
@@ -5401,7 +5407,7 @@
         <v>6.7071179999999994E-2</v>
       </c>
     </row>
-    <row r="174" spans="4:27" x14ac:dyDescent="0.25">
+    <row r="174" spans="4:27">
       <c r="E174" t="s">
         <v>19</v>
       </c>
@@ -5409,7 +5415,7 @@
         <v>0.49530000000000002</v>
       </c>
       <c r="L174">
-        <f>J174*2</f>
+        <f t="shared" si="17"/>
         <v>0.99060000000000004</v>
       </c>
       <c r="O174">
@@ -5431,7 +5437,7 @@
         <v>0.10661827800000001</v>
       </c>
     </row>
-    <row r="175" spans="4:27" x14ac:dyDescent="0.25">
+    <row r="175" spans="4:27">
       <c r="E175" t="s">
         <v>45</v>
       </c>
@@ -5439,7 +5445,7 @@
         <v>0.45229999999999998</v>
       </c>
       <c r="L175">
-        <f>J175*2</f>
+        <f t="shared" si="17"/>
         <v>0.90459999999999996</v>
       </c>
       <c r="O175">
@@ -5461,7 +5467,7 @@
         <v>2.1665169999999997E-2</v>
       </c>
     </row>
-    <row r="176" spans="4:27" x14ac:dyDescent="0.25">
+    <row r="176" spans="4:27">
       <c r="E176" t="s">
         <v>47</v>
       </c>
@@ -5469,7 +5475,7 @@
         <v>0.45650000000000002</v>
       </c>
       <c r="L176">
-        <f>J176*2</f>
+        <f t="shared" si="17"/>
         <v>0.91300000000000003</v>
       </c>
       <c r="O176">
@@ -5491,7 +5497,7 @@
         <v>6.6210760000000007E-2</v>
       </c>
     </row>
-    <row r="177" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:27">
       <c r="B177" t="s">
         <v>28</v>
       </c>
@@ -5512,7 +5518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:27">
       <c r="F180" t="s">
         <v>1</v>
       </c>
@@ -5544,7 +5550,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="181" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:27">
       <c r="A181" t="s">
         <v>36</v>
       </c>
@@ -5591,7 +5597,7 @@
         <v>0.85353919107391907</v>
       </c>
     </row>
-    <row r="182" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:27">
       <c r="E182" t="s">
         <v>13</v>
       </c>
@@ -5599,7 +5605,7 @@
         <v>0.43180000000000002</v>
       </c>
       <c r="L182">
-        <f t="shared" ref="L182:L209" si="17">J182*2</f>
+        <f t="shared" ref="L182:L209" si="18">J182*2</f>
         <v>0.86360000000000003</v>
       </c>
       <c r="O182">
@@ -5609,19 +5615,19 @@
         <v>1307</v>
       </c>
       <c r="R182">
-        <f t="shared" ref="R182:R209" si="18">Q182/1434</f>
+        <f t="shared" ref="R182:R209" si="19">Q182/1434</f>
         <v>0.91143654114365413</v>
       </c>
       <c r="T182">
-        <f t="shared" ref="T182:T209" si="19">R182*O182</f>
+        <f t="shared" ref="T182:T209" si="20">R182*O182</f>
         <v>0.81737629009762902</v>
       </c>
       <c r="X182">
-        <f t="shared" ref="X182:X208" si="20">R182*L182</f>
+        <f t="shared" ref="X182:X208" si="21">R182*L182</f>
         <v>0.7871165969316597</v>
       </c>
     </row>
-    <row r="183" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:27">
       <c r="D183" t="s">
         <v>14</v>
       </c>
@@ -5632,7 +5638,7 @@
         <v>0.375</v>
       </c>
       <c r="L183">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.75</v>
       </c>
       <c r="O183">
@@ -5642,11 +5648,11 @@
         <v>127</v>
       </c>
       <c r="R183">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>8.8563458856345881E-2</v>
       </c>
       <c r="T183">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>8.77221059972106E-2</v>
       </c>
       <c r="V183">
@@ -5654,7 +5660,7 @@
         <v>0.90473557182705722</v>
       </c>
       <c r="X183">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>6.6422594142259414E-2</v>
       </c>
       <c r="AA183">
@@ -5662,7 +5668,7 @@
         <v>0.7817168758716877</v>
       </c>
     </row>
-    <row r="184" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:27">
       <c r="E184" t="s">
         <v>13</v>
       </c>
@@ -5670,7 +5676,7 @@
         <v>0.38090000000000002</v>
       </c>
       <c r="L184">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.76180000000000003</v>
       </c>
       <c r="O184">
@@ -5680,19 +5686,19 @@
         <v>44</v>
       </c>
       <c r="R184">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>3.0683403068340307E-2</v>
       </c>
       <c r="T184">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>2.4009762900976291E-2</v>
       </c>
       <c r="X184">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>2.3374616457461646E-2</v>
       </c>
     </row>
-    <row r="185" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:27">
       <c r="E185" t="s">
         <v>15</v>
       </c>
@@ -5700,7 +5706,7 @@
         <v>0.39279999999999998</v>
       </c>
       <c r="L185">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.78559999999999997</v>
       </c>
       <c r="O185">
@@ -5710,19 +5716,19 @@
         <v>1263</v>
       </c>
       <c r="R185">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0.88075313807531386</v>
       </c>
       <c r="T185">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.79300370292887035</v>
       </c>
       <c r="X185">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0.69191966527196658</v>
       </c>
     </row>
-    <row r="186" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:27">
       <c r="D186" t="s">
         <v>16</v>
       </c>
@@ -5733,7 +5739,7 @@
         <v>0.3125</v>
       </c>
       <c r="L186">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.625</v>
       </c>
       <c r="O186">
@@ -5743,11 +5749,11 @@
         <v>40</v>
       </c>
       <c r="R186">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>2.7894002789400279E-2</v>
       </c>
       <c r="T186">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1.4532775453277545E-2</v>
       </c>
       <c r="V186">
@@ -5755,7 +5761,7 @@
         <v>0.89667810320781038</v>
       </c>
       <c r="X186">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>1.7433751743375175E-2</v>
       </c>
       <c r="AA186">
@@ -5763,7 +5769,7 @@
         <v>0.84073389121338904</v>
       </c>
     </row>
-    <row r="187" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:27">
       <c r="E187" t="s">
         <v>17</v>
       </c>
@@ -5771,7 +5777,7 @@
         <v>0.43180000000000002</v>
       </c>
       <c r="L187">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.86360000000000003</v>
       </c>
       <c r="O187">
@@ -5781,19 +5787,19 @@
         <v>1276</v>
       </c>
       <c r="R187">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0.88981868898186889</v>
       </c>
       <c r="T187">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.79985801952580193</v>
       </c>
       <c r="X187">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0.76844741980474196</v>
       </c>
     </row>
-    <row r="188" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:27">
       <c r="E188" t="s">
         <v>18</v>
       </c>
@@ -5801,7 +5807,7 @@
         <v>0.33329999999999999</v>
       </c>
       <c r="L188">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.66659999999999997</v>
       </c>
       <c r="O188">
@@ -5811,19 +5817,19 @@
         <v>118</v>
       </c>
       <c r="R188">
-        <f t="shared" si="18"/>
-        <v>8.2287308228730829E-2</v>
-      </c>
-      <c r="T188">
         <f t="shared" si="19"/>
         <v>8.2287308228730829E-2</v>
       </c>
+      <c r="T188">
+        <f t="shared" si="20"/>
+        <v>8.2287308228730829E-2</v>
+      </c>
       <c r="X188">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>5.4852719665271971E-2</v>
       </c>
     </row>
-    <row r="189" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:27">
       <c r="D189" t="s">
         <v>43</v>
       </c>
@@ -5831,27 +5837,27 @@
         <v>44</v>
       </c>
     </row>
-    <row r="190" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:27">
       <c r="E190" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="191" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:27">
       <c r="E191" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="192" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:27">
       <c r="E192" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="193" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="193" spans="2:27">
       <c r="E193" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="194" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="194" spans="2:27">
       <c r="D194" t="s">
         <v>49</v>
       </c>
@@ -5859,32 +5865,32 @@
         <v>44</v>
       </c>
     </row>
-    <row r="195" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="195" spans="2:27">
       <c r="E195" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="196" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="196" spans="2:27">
       <c r="E196" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="197" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="197" spans="2:27">
       <c r="E197" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="198" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="198" spans="2:27">
       <c r="E198" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="199" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="199" spans="2:27">
       <c r="E199" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="200" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="200" spans="2:27">
       <c r="E200" t="s">
         <v>19</v>
       </c>
@@ -5898,19 +5904,19 @@
         <v>0</v>
       </c>
       <c r="R200">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="T200">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="X200" t="e">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="201" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="201" spans="2:27">
       <c r="B201" t="s">
         <v>20</v>
       </c>
@@ -5924,7 +5930,7 @@
         <v>0.47720000000000001</v>
       </c>
       <c r="L201">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.95440000000000003</v>
       </c>
       <c r="O201">
@@ -5934,11 +5940,11 @@
         <v>1368</v>
       </c>
       <c r="R201">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0.95397489539748959</v>
       </c>
       <c r="T201">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.8341556485355649</v>
       </c>
       <c r="V201">
@@ -5946,7 +5952,7 @@
         <v>0.87962845188284522</v>
       </c>
       <c r="X201">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0.9104736401673641</v>
       </c>
       <c r="AA201">
@@ -5954,7 +5960,7 @@
         <v>0.94112635983263604</v>
       </c>
     </row>
-    <row r="202" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="202" spans="2:27">
       <c r="E202" t="s">
         <v>13</v>
       </c>
@@ -5962,7 +5968,7 @@
         <v>0.33300000000000002</v>
       </c>
       <c r="L202">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.66600000000000004</v>
       </c>
       <c r="O202">
@@ -5972,19 +5978,19 @@
         <v>66</v>
       </c>
       <c r="R202">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>4.6025104602510462E-2</v>
       </c>
       <c r="T202">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>4.5472803347280336E-2</v>
       </c>
       <c r="X202">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>3.0652719665271971E-2</v>
       </c>
     </row>
-    <row r="203" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="203" spans="2:27">
       <c r="D203" t="s">
         <v>14</v>
       </c>
@@ -5995,7 +6001,7 @@
         <v>0</v>
       </c>
       <c r="L203">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="O203">
@@ -6005,11 +6011,11 @@
         <v>25</v>
       </c>
       <c r="R203">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1.7433751743375175E-2</v>
       </c>
       <c r="T203">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1.6271443514644351E-2</v>
       </c>
       <c r="V203">
@@ -6017,7 +6023,7 @@
         <v>0.87900240585774059</v>
       </c>
       <c r="X203">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="AA203">
@@ -6025,7 +6031,7 @@
         <v>0.9234566248256626</v>
       </c>
     </row>
-    <row r="204" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="204" spans="2:27">
       <c r="E204" t="s">
         <v>13</v>
       </c>
@@ -6033,7 +6039,7 @@
         <v>0.2</v>
       </c>
       <c r="L204">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.4</v>
       </c>
       <c r="O204">
@@ -6043,19 +6049,19 @@
         <v>37</v>
       </c>
       <c r="R204">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>2.5801952580195259E-2</v>
       </c>
       <c r="T204">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>2.5466527196652721E-2</v>
       </c>
       <c r="X204">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>1.0320781032078105E-2</v>
       </c>
     </row>
-    <row r="205" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="205" spans="2:27">
       <c r="E205" t="s">
         <v>15</v>
       </c>
@@ -6063,7 +6069,7 @@
         <v>0.47720000000000001</v>
       </c>
       <c r="L205">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.95440000000000003</v>
       </c>
       <c r="O205">
@@ -6073,19 +6079,19 @@
         <v>1372</v>
       </c>
       <c r="R205">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0.95676429567642962</v>
       </c>
       <c r="T205">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.83726443514644355</v>
       </c>
       <c r="X205">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0.91313584379358448</v>
       </c>
     </row>
-    <row r="206" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="206" spans="2:27">
       <c r="D206" t="s">
         <v>16</v>
       </c>
@@ -6096,7 +6102,7 @@
         <v>0.26919999999999999</v>
       </c>
       <c r="L206">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.53839999999999999</v>
       </c>
       <c r="O206">
@@ -6106,11 +6112,11 @@
         <v>12</v>
       </c>
       <c r="R206">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>8.368200836820083E-3</v>
       </c>
       <c r="T206">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>7.9255230125523015E-3</v>
       </c>
       <c r="V206">
@@ -6118,7 +6124,7 @@
         <v>0.88071813110181318</v>
       </c>
       <c r="X206">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>4.5054393305439325E-3</v>
       </c>
       <c r="AA206">
@@ -6126,7 +6132,7 @@
         <v>0.91883012552301246</v>
       </c>
     </row>
-    <row r="207" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="207" spans="2:27">
       <c r="E207" t="s">
         <v>17</v>
       </c>
@@ -6134,7 +6140,7 @@
         <v>0.47720000000000001</v>
       </c>
       <c r="L207">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.95440000000000003</v>
       </c>
       <c r="O207">
@@ -6144,19 +6150,19 @@
         <v>1339</v>
       </c>
       <c r="R207">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0.9337517433751743</v>
       </c>
       <c r="T207">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.81759302649930266</v>
       </c>
       <c r="X207">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0.89117266387726635</v>
       </c>
     </row>
-    <row r="208" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="208" spans="2:27">
       <c r="E208" t="s">
         <v>18</v>
       </c>
@@ -6164,7 +6170,7 @@
         <v>0.2</v>
       </c>
       <c r="L208">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.4</v>
       </c>
       <c r="O208">
@@ -6174,19 +6180,19 @@
         <v>48</v>
       </c>
       <c r="R208">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>3.3472803347280332E-2</v>
       </c>
       <c r="T208">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>3.1109623430962342E-2</v>
       </c>
       <c r="X208">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>1.3389121338912133E-2</v>
       </c>
     </row>
-    <row r="209" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="209" spans="2:27">
       <c r="E209" t="s">
         <v>19</v>
       </c>
@@ -6194,7 +6200,7 @@
         <v>0.2</v>
       </c>
       <c r="L209">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.4</v>
       </c>
       <c r="O209">
@@ -6204,11 +6210,11 @@
         <v>35</v>
       </c>
       <c r="R209">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>2.4407252440725245E-2</v>
       </c>
       <c r="T209">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>2.4089958158995818E-2</v>
       </c>
       <c r="X209">
@@ -6216,7 +6222,7 @@
         <v>9.7629009762900988E-3</v>
       </c>
     </row>
-    <row r="210" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="210" spans="2:27">
       <c r="D210" t="s">
         <v>43</v>
       </c>
@@ -6224,27 +6230,27 @@
         <v>44</v>
       </c>
     </row>
-    <row r="211" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="211" spans="2:27">
       <c r="E211" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="212" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="212" spans="2:27">
       <c r="E212" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="213" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="213" spans="2:27">
       <c r="E213" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="214" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="214" spans="2:27">
       <c r="E214" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="215" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="215" spans="2:27">
       <c r="D215" t="s">
         <v>49</v>
       </c>
@@ -6252,32 +6258,32 @@
         <v>44</v>
       </c>
     </row>
-    <row r="216" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="216" spans="2:27">
       <c r="E216" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="217" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="217" spans="2:27">
       <c r="E217" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="218" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="218" spans="2:27">
       <c r="E218" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="219" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="219" spans="2:27">
       <c r="E219" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="220" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="220" spans="2:27">
       <c r="E220" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="221" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="221" spans="2:27">
       <c r="B221" t="s">
         <v>51</v>
       </c>
@@ -6294,7 +6300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:27">
       <c r="J225" t="s">
         <v>2</v>
       </c>
@@ -6323,7 +6329,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="226" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:27">
       <c r="A226" t="s">
         <v>40</v>
       </c>
@@ -6340,7 +6346,7 @@
         <v>0.22489999999999999</v>
       </c>
       <c r="L226">
-        <f t="shared" ref="L226:L266" si="21">J226*2</f>
+        <f t="shared" ref="L226:L266" si="22">J226*2</f>
         <v>0.44979999999999998</v>
       </c>
       <c r="O226">
@@ -6370,7 +6376,7 @@
         <v>0.53076774400000004</v>
       </c>
     </row>
-    <row r="227" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:27">
       <c r="E227" t="s">
         <v>13</v>
       </c>
@@ -6378,7 +6384,7 @@
         <v>0.32785999999999998</v>
       </c>
       <c r="L227">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.65571999999999997</v>
       </c>
       <c r="O227">
@@ -6388,19 +6394,19 @@
         <v>3932</v>
       </c>
       <c r="R227">
-        <f t="shared" ref="R227:R266" si="22">Q227/10000</f>
+        <f t="shared" ref="R227:R266" si="23">Q227/10000</f>
         <v>0.39319999999999999</v>
       </c>
       <c r="T227">
-        <f t="shared" ref="T227:T266" si="23">R227*O227</f>
+        <f t="shared" ref="T227:T266" si="24">R227*O227</f>
         <v>0.32255768799999995</v>
       </c>
       <c r="X227">
-        <f t="shared" ref="X227:X266" si="24">R227*L227</f>
+        <f t="shared" ref="X227:X266" si="25">R227*L227</f>
         <v>0.25782910399999998</v>
       </c>
     </row>
-    <row r="228" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:27">
       <c r="D228" t="s">
         <v>52</v>
       </c>
@@ -6408,17 +6414,17 @@
         <v>44</v>
       </c>
     </row>
-    <row r="229" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:27">
       <c r="E229" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="230" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:27">
       <c r="E230" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="231" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:27">
       <c r="D231" t="s">
         <v>16</v>
       </c>
@@ -6429,7 +6435,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
       <c r="L231">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.16600000000000001</v>
       </c>
       <c r="O231">
@@ -6439,11 +6445,11 @@
         <v>3326</v>
       </c>
       <c r="R231">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.33260000000000001</v>
       </c>
       <c r="T231">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0.29594748000000004</v>
       </c>
       <c r="V231">
@@ -6451,7 +6457,7 @@
         <v>0.91535864400000011</v>
       </c>
       <c r="X231">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>5.5211600000000007E-2</v>
       </c>
       <c r="AA231">
@@ -6459,7 +6465,7 @@
         <v>0.26441999999999999</v>
       </c>
     </row>
-    <row r="232" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:27">
       <c r="E232" t="s">
         <v>13</v>
       </c>
@@ -6467,7 +6473,7 @@
         <v>0.29499999999999998</v>
       </c>
       <c r="L232">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.59</v>
       </c>
       <c r="O232">
@@ -6477,19 +6483,19 @@
         <v>1994</v>
       </c>
       <c r="R232">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.19939999999999999</v>
       </c>
       <c r="T232">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0.16003046400000001</v>
       </c>
       <c r="X232">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0.11764599999999999</v>
       </c>
     </row>
-    <row r="233" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:27">
       <c r="E233" t="s">
         <v>15</v>
       </c>
@@ -6497,7 +6503,7 @@
         <v>0</v>
       </c>
       <c r="L233">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="O233">
@@ -6507,19 +6513,19 @@
         <v>2325</v>
       </c>
       <c r="R233">
-        <f t="shared" si="22"/>
-        <v>0.23250000000000001</v>
-      </c>
-      <c r="T233">
         <f t="shared" si="23"/>
         <v>0.23250000000000001</v>
       </c>
+      <c r="T233">
+        <f t="shared" si="24"/>
+        <v>0.23250000000000001</v>
+      </c>
       <c r="X233">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="234" spans="1:27" x14ac:dyDescent="0.25">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:27">
       <c r="E234" t="s">
         <v>19</v>
       </c>
@@ -6527,7 +6533,7 @@
         <v>0.19439999999999999</v>
       </c>
       <c r="L234">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.38879999999999998</v>
       </c>
       <c r="O234">
@@ -6537,19 +6543,19 @@
         <v>2355</v>
       </c>
       <c r="R234">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.23549999999999999</v>
       </c>
       <c r="T234">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0.22688069999999999</v>
       </c>
       <c r="X234">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>9.1562399999999988E-2</v>
       </c>
     </row>
-    <row r="235" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:27">
       <c r="D235" t="s">
         <v>48</v>
       </c>
@@ -6557,27 +6563,27 @@
         <v>44</v>
       </c>
     </row>
-    <row r="236" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:27">
       <c r="E236" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="237" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:27">
       <c r="E237" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="238" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:27">
       <c r="E238" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="239" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:27">
       <c r="E239" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="240" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:27">
       <c r="D240" t="s">
         <v>37</v>
       </c>
@@ -6588,7 +6594,7 @@
         <v>0</v>
       </c>
       <c r="L240">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="O240">
@@ -6598,11 +6604,11 @@
         <v>1589</v>
       </c>
       <c r="R240">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.15890000000000001</v>
       </c>
       <c r="T240">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0.15890000000000001</v>
       </c>
       <c r="V240">
@@ -6610,7 +6616,7 @@
         <v>0.92501869599999997</v>
       </c>
       <c r="X240">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="AA240">
@@ -6618,7 +6624,7 @@
         <v>0.197927562</v>
       </c>
     </row>
-    <row r="241" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="241" spans="2:27">
       <c r="E241" t="s">
         <v>17</v>
       </c>
@@ -6626,7 +6632,7 @@
         <v>0</v>
       </c>
       <c r="L241">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="O241">
@@ -6636,19 +6642,19 @@
         <v>2002</v>
       </c>
       <c r="R241">
-        <f t="shared" si="22"/>
-        <v>0.20019999999999999</v>
-      </c>
-      <c r="T241">
         <f t="shared" si="23"/>
         <v>0.20019999999999999</v>
       </c>
+      <c r="T241">
+        <f t="shared" si="24"/>
+        <v>0.20019999999999999</v>
+      </c>
       <c r="X241">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="242" spans="2:27" x14ac:dyDescent="0.25">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="2:27">
       <c r="E242" t="s">
         <v>18</v>
       </c>
@@ -6656,7 +6662,7 @@
         <v>0.125</v>
       </c>
       <c r="L242">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.25</v>
       </c>
       <c r="O242">
@@ -6666,19 +6672,19 @@
         <v>1995</v>
       </c>
       <c r="R242">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.19950000000000001</v>
       </c>
       <c r="T242">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0.163191</v>
       </c>
       <c r="X242">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>4.9875000000000003E-2</v>
       </c>
     </row>
-    <row r="243" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="243" spans="2:27">
       <c r="E243" t="s">
         <v>19</v>
       </c>
@@ -6686,7 +6692,7 @@
         <v>0.26229000000000002</v>
       </c>
       <c r="L243">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.52458000000000005</v>
       </c>
       <c r="O243">
@@ -6696,19 +6702,19 @@
         <v>844</v>
       </c>
       <c r="R243">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>8.4400000000000003E-2</v>
       </c>
       <c r="T243">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>6.6459936000000011E-2</v>
       </c>
       <c r="X243">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>4.4274552000000009E-2</v>
       </c>
     </row>
-    <row r="244" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="244" spans="2:27">
       <c r="E244" t="s">
         <v>38</v>
       </c>
@@ -6716,7 +6722,7 @@
         <v>0.15625</v>
       </c>
       <c r="L244">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.3125</v>
       </c>
       <c r="O244">
@@ -6726,19 +6732,19 @@
         <v>1619</v>
       </c>
       <c r="R244">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.16189999999999999</v>
       </c>
       <c r="T244">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0.15872675999999999</v>
       </c>
       <c r="X244">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>5.0593749999999993E-2</v>
       </c>
     </row>
-    <row r="245" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="245" spans="2:27">
       <c r="E245" t="s">
         <v>39</v>
       </c>
@@ -6746,7 +6752,7 @@
         <v>0.1363</v>
       </c>
       <c r="L245">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.27260000000000001</v>
       </c>
       <c r="O245">
@@ -6756,19 +6762,19 @@
         <v>1951</v>
       </c>
       <c r="R245">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.1951</v>
       </c>
       <c r="T245">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0.177541</v>
       </c>
       <c r="X245">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>5.3184259999999997E-2</v>
       </c>
     </row>
-    <row r="246" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="246" spans="2:27">
       <c r="B246" t="s">
         <v>20</v>
       </c>
@@ -6782,7 +6788,7 @@
         <v>0.41120000000000001</v>
       </c>
       <c r="L246">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.82240000000000002</v>
       </c>
       <c r="O246">
@@ -6792,11 +6798,11 @@
         <v>5898</v>
       </c>
       <c r="R246">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.58979999999999999</v>
       </c>
       <c r="T246">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0.54639072</v>
       </c>
       <c r="V246">
@@ -6804,7 +6810,7 @@
         <v>0.95659072000000001</v>
       </c>
       <c r="X246">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0.48505152000000001</v>
       </c>
       <c r="AA246">
@@ -6812,7 +6818,7 @@
         <v>0.48505152000000001</v>
       </c>
     </row>
-    <row r="247" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="247" spans="2:27">
       <c r="E247" t="s">
         <v>13</v>
       </c>
@@ -6820,7 +6826,7 @@
         <v>0</v>
       </c>
       <c r="L247">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="O247">
@@ -6830,19 +6836,19 @@
         <v>4102</v>
       </c>
       <c r="R247">
-        <f t="shared" si="22"/>
-        <v>0.41020000000000001</v>
-      </c>
-      <c r="T247">
         <f t="shared" si="23"/>
         <v>0.41020000000000001</v>
       </c>
+      <c r="T247">
+        <f t="shared" si="24"/>
+        <v>0.41020000000000001</v>
+      </c>
       <c r="X247">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="248" spans="2:27" x14ac:dyDescent="0.25">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="2:27">
       <c r="D248" t="s">
         <v>52</v>
       </c>
@@ -6850,17 +6856,17 @@
         <v>44</v>
       </c>
     </row>
-    <row r="249" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="249" spans="2:27">
       <c r="E249" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="250" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="250" spans="2:27">
       <c r="E250" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="251" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="251" spans="2:27">
       <c r="D251" t="s">
         <v>16</v>
       </c>
@@ -6871,7 +6877,7 @@
         <v>0.41128999999999999</v>
       </c>
       <c r="L251">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.82257999999999998</v>
       </c>
       <c r="O251">
@@ -6881,11 +6887,11 @@
         <v>3057</v>
       </c>
       <c r="R251">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.30570000000000003</v>
       </c>
       <c r="T251">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0.28551768600000005</v>
       </c>
       <c r="V251">
@@ -6893,7 +6899,7 @@
         <v>0.95780512600000012</v>
       </c>
       <c r="X251">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0.25146270600000004</v>
       </c>
       <c r="AA251">
@@ -6901,7 +6907,7 @@
         <v>0.45929085000000003</v>
       </c>
     </row>
-    <row r="252" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="252" spans="2:27">
       <c r="E252" t="s">
         <v>13</v>
       </c>
@@ -6909,7 +6915,7 @@
         <v>0</v>
       </c>
       <c r="L252">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="O252">
@@ -6919,19 +6925,19 @@
         <v>2095</v>
       </c>
       <c r="R252">
-        <f t="shared" si="22"/>
-        <v>0.20949999999999999</v>
-      </c>
-      <c r="T252">
         <f t="shared" si="23"/>
         <v>0.20949999999999999</v>
       </c>
+      <c r="T252">
+        <f t="shared" si="24"/>
+        <v>0.20949999999999999</v>
+      </c>
       <c r="X252">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="253" spans="2:27" x14ac:dyDescent="0.25">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="2:27">
       <c r="E253" t="s">
         <v>15</v>
       </c>
@@ -6939,7 +6945,7 @@
         <v>0.36537999999999998</v>
       </c>
       <c r="L253">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.73075999999999997</v>
       </c>
       <c r="O253">
@@ -6949,19 +6955,19 @@
         <v>2844</v>
       </c>
       <c r="R253">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.28439999999999999</v>
       </c>
       <c r="T253">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0.26238743999999997</v>
       </c>
       <c r="X253">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0.20782814399999999</v>
       </c>
     </row>
-    <row r="254" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="254" spans="2:27">
       <c r="E254" t="s">
         <v>19</v>
       </c>
@@ -6969,7 +6975,7 @@
         <v>0</v>
       </c>
       <c r="L254">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="O254">
@@ -6979,19 +6985,19 @@
         <v>2004</v>
       </c>
       <c r="R254">
-        <f t="shared" si="22"/>
-        <v>0.20039999999999999</v>
-      </c>
-      <c r="T254">
         <f t="shared" si="23"/>
         <v>0.20039999999999999</v>
       </c>
+      <c r="T254">
+        <f t="shared" si="24"/>
+        <v>0.20039999999999999</v>
+      </c>
       <c r="X254">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="255" spans="2:27" x14ac:dyDescent="0.25">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="2:27">
       <c r="D255" t="s">
         <v>43</v>
       </c>
@@ -6999,27 +7005,27 @@
         <v>44</v>
       </c>
     </row>
-    <row r="256" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="256" spans="2:27">
       <c r="E256" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="257" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:27">
       <c r="E257" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="258" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:27">
       <c r="E258" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="259" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:27">
       <c r="E259" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="260" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:27">
       <c r="D260" t="s">
         <v>37</v>
       </c>
@@ -7030,7 +7036,7 @@
         <v>0</v>
       </c>
       <c r="L260">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="O260">
@@ -7040,11 +7046,11 @@
         <v>1370</v>
       </c>
       <c r="R260">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.13700000000000001</v>
       </c>
       <c r="T260">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0.13700000000000001</v>
       </c>
       <c r="V260">
@@ -7052,7 +7058,7 @@
         <v>0.96368827000000001</v>
       </c>
       <c r="X260">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="AA260">
@@ -7060,7 +7066,7 @@
         <v>0.41228377999999999</v>
       </c>
     </row>
-    <row r="261" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:27">
       <c r="E261" t="s">
         <v>17</v>
       </c>
@@ -7068,7 +7074,7 @@
         <v>0.41120000000000001</v>
       </c>
       <c r="L261">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.82240000000000002</v>
       </c>
       <c r="O261">
@@ -7078,19 +7084,19 @@
         <v>1982</v>
       </c>
       <c r="R261">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.19819999999999999</v>
       </c>
       <c r="T261">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0.18783413999999998</v>
       </c>
       <c r="X261">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0.16299967999999998</v>
       </c>
     </row>
-    <row r="262" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:27">
       <c r="E262" t="s">
         <v>18</v>
       </c>
@@ -7098,7 +7104,7 @@
         <v>0</v>
       </c>
       <c r="L262">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="O262">
@@ -7108,19 +7114,19 @@
         <v>1831</v>
       </c>
       <c r="R262">
-        <f t="shared" si="22"/>
-        <v>0.18310000000000001</v>
-      </c>
-      <c r="T262">
         <f t="shared" si="23"/>
         <v>0.18310000000000001</v>
       </c>
+      <c r="T262">
+        <f t="shared" si="24"/>
+        <v>0.18310000000000001</v>
+      </c>
       <c r="X262">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="263" spans="1:27" x14ac:dyDescent="0.25">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="1:27">
       <c r="E263" t="s">
         <v>19</v>
       </c>
@@ -7128,7 +7134,7 @@
         <v>0.36530000000000001</v>
       </c>
       <c r="L263">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.73060000000000003</v>
       </c>
       <c r="O263">
@@ -7138,19 +7144,19 @@
         <v>1785</v>
       </c>
       <c r="R263">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.17849999999999999</v>
       </c>
       <c r="T263">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0.16430924999999999</v>
       </c>
       <c r="X263">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0.1304121</v>
       </c>
     </row>
-    <row r="264" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:27">
       <c r="E264" t="s">
         <v>38</v>
       </c>
@@ -7158,7 +7164,7 @@
         <v>0</v>
       </c>
       <c r="L264">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="O264">
@@ -7168,19 +7174,19 @@
         <v>1381</v>
       </c>
       <c r="R264">
-        <f t="shared" si="22"/>
-        <v>0.1381</v>
-      </c>
-      <c r="T264">
         <f t="shared" si="23"/>
         <v>0.1381</v>
       </c>
+      <c r="T264">
+        <f t="shared" si="24"/>
+        <v>0.1381</v>
+      </c>
       <c r="X264">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="265" spans="1:27" x14ac:dyDescent="0.25">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:27">
       <c r="E265" t="s">
         <v>39</v>
       </c>
@@ -7188,7 +7194,7 @@
         <v>0.36</v>
       </c>
       <c r="L265">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.72</v>
       </c>
       <c r="O265">
@@ -7198,19 +7204,19 @@
         <v>1651</v>
       </c>
       <c r="R265">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.1651</v>
       </c>
       <c r="T265">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0.15334487999999999</v>
       </c>
       <c r="X265">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0.11887199999999999</v>
       </c>
     </row>
-    <row r="266" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:27">
       <c r="D266" t="s">
         <v>28</v>
       </c>
@@ -7218,7 +7224,7 @@
         <v>0.41120000000000001</v>
       </c>
       <c r="L266">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.82240000000000002</v>
       </c>
       <c r="O266">
@@ -7228,22 +7234,22 @@
         <v>10000</v>
       </c>
       <c r="R266">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1</v>
       </c>
       <c r="T266">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0.90959999999999996</v>
       </c>
       <c r="X266">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0.82240000000000002</v>
       </c>
       <c r="AA266">
         <v>0.90959999999999996</v>
       </c>
     </row>
-    <row r="268" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:27">
       <c r="F268" t="s">
         <v>1</v>
       </c>
@@ -7275,7 +7281,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="269" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:27">
       <c r="A269" t="s">
         <v>41</v>
       </c>
@@ -7324,7 +7330,7 @@
         <v>0.75363769368890066</v>
       </c>
     </row>
-    <row r="270" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:27">
       <c r="E270" t="s">
         <v>13</v>
       </c>
@@ -7341,19 +7347,19 @@
         <v>69715</v>
       </c>
       <c r="R270">
-        <f t="shared" ref="R270:R309" si="25">Q270/150370</f>
+        <f t="shared" ref="R270:R322" si="26">Q270/150370</f>
         <v>0.46362306311099288</v>
       </c>
       <c r="T270">
-        <f t="shared" ref="T270:T309" si="26">R270*O270</f>
+        <f t="shared" ref="T270:T322" si="27">R270*O270</f>
         <v>0.28841990756134867</v>
       </c>
       <c r="X270">
-        <f t="shared" ref="X270:X309" si="27">R270*L270</f>
+        <f t="shared" ref="X270:X322" si="28">R270*L270</f>
         <v>0.324536144177695</v>
       </c>
     </row>
-    <row r="271" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:27">
       <c r="D271" t="s">
         <v>14</v>
       </c>
@@ -7376,11 +7382,11 @@
         <v>20534</v>
       </c>
       <c r="R271">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0.13655649398151226</v>
       </c>
       <c r="T271">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0.13654147276717429</v>
       </c>
       <c r="V271">
@@ -7388,7 +7394,7 @@
         <v>0.82274273897718952</v>
       </c>
       <c r="X271">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>8.1933896388907357E-2</v>
       </c>
       <c r="AA271">
@@ -7396,7 +7402,7 @@
         <v>0.60638026202034978</v>
       </c>
     </row>
-    <row r="272" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:27">
       <c r="E272" t="s">
         <v>13</v>
       </c>
@@ -7413,19 +7419,19 @@
         <v>69715</v>
       </c>
       <c r="R272">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0.46362306311099288</v>
       </c>
       <c r="T272">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0.28841990756134867</v>
       </c>
       <c r="X272">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0.324536144177695</v>
       </c>
     </row>
-    <row r="273" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="273" spans="2:27">
       <c r="E273" t="s">
         <v>15</v>
       </c>
@@ -7442,19 +7448,19 @@
         <v>60121</v>
       </c>
       <c r="R273">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0.39982044290749486</v>
       </c>
       <c r="T273">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0.39778135864866665</v>
       </c>
       <c r="X273">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0.19991022145374743</v>
       </c>
     </row>
-    <row r="274" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="274" spans="2:27">
       <c r="D274" t="s">
         <v>16</v>
       </c>
@@ -7477,11 +7483,11 @@
         <v>19832</v>
       </c>
       <c r="R274">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0.13188800957637828</v>
       </c>
       <c r="T274">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>9.6693694220921736E-2</v>
       </c>
       <c r="V274">
@@ -7489,7 +7495,7 @@
         <v>0.96271977123096364</v>
       </c>
       <c r="X274">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>8.0267042628183821E-2</v>
       </c>
       <c r="AA274">
@@ -7497,7 +7503,7 @@
         <v>0.56115219259160742</v>
       </c>
     </row>
-    <row r="275" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="275" spans="2:27">
       <c r="E275" t="s">
         <v>17</v>
       </c>
@@ -7514,19 +7520,19 @@
         <v>49883</v>
       </c>
       <c r="R275">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0.33173505353461463</v>
       </c>
       <c r="T275">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0.33170188002926115</v>
       </c>
       <c r="X275">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0.19904103212076876</v>
       </c>
     </row>
-    <row r="276" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="276" spans="2:27">
       <c r="E276" t="s">
         <v>18</v>
       </c>
@@ -7543,19 +7549,19 @@
         <v>20534</v>
       </c>
       <c r="R276">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0.13655649398151226</v>
       </c>
       <c r="T276">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0.13654283833211411</v>
       </c>
       <c r="X276">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>8.1933896388907357E-2</v>
       </c>
     </row>
-    <row r="277" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="277" spans="2:27">
       <c r="E277" t="s">
         <v>19</v>
       </c>
@@ -7572,19 +7578,19 @@
         <v>60121</v>
       </c>
       <c r="R277">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0.39982044290749486</v>
       </c>
       <c r="T277">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0.39778135864866665</v>
       </c>
       <c r="X277">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0.19991022145374743</v>
       </c>
     </row>
-    <row r="278" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="278" spans="2:27">
       <c r="B278" t="s">
         <v>53</v>
       </c>
@@ -7611,11 +7617,11 @@
         <v>20534</v>
       </c>
       <c r="R278">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0.13655649398151226</v>
       </c>
       <c r="T278">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0.13654147276717429</v>
       </c>
       <c r="V278">
@@ -7623,7 +7629,7 @@
         <v>0.96271840566602385</v>
       </c>
       <c r="X278">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>8.1933896388907357E-2</v>
       </c>
       <c r="AA278">
@@ -7631,7 +7637,7 @@
         <v>0.56115219259160742</v>
       </c>
     </row>
-    <row r="279" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="279" spans="2:27">
       <c r="E279" t="s">
         <v>17</v>
       </c>
@@ -7639,7 +7645,7 @@
         <v>0.25</v>
       </c>
       <c r="L279">
-        <f t="shared" ref="L279:L281" si="28">J279*2</f>
+        <f t="shared" ref="L279:L281" si="29">J279*2</f>
         <v>0.5</v>
       </c>
       <c r="O279">
@@ -7649,19 +7655,19 @@
         <v>60121</v>
       </c>
       <c r="R279">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0.39982044290749486</v>
       </c>
       <c r="T279">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0.39778135864866665</v>
       </c>
       <c r="X279">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0.19991022145374743</v>
       </c>
     </row>
-    <row r="280" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="280" spans="2:27">
       <c r="E280" t="s">
         <v>18</v>
       </c>
@@ -7669,7 +7675,7 @@
         <v>0.3</v>
       </c>
       <c r="L280">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0.6</v>
       </c>
       <c r="O280">
@@ -7679,19 +7685,19 @@
         <v>49883</v>
       </c>
       <c r="R280">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0.33173505353461463</v>
       </c>
       <c r="T280">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0.33170188002926115</v>
       </c>
       <c r="X280">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0.19904103212076876</v>
       </c>
     </row>
-    <row r="281" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="281" spans="2:27">
       <c r="E281" t="s">
         <v>19</v>
       </c>
@@ -7699,7 +7705,7 @@
         <v>0.30430000000000001</v>
       </c>
       <c r="L281">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0.60860000000000003</v>
       </c>
       <c r="O281">
@@ -7709,19 +7715,19 @@
         <v>19832</v>
       </c>
       <c r="R281">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0.13188800957637828</v>
       </c>
       <c r="T281">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>9.6693694220921736E-2</v>
       </c>
       <c r="X281">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>8.0267042628183821E-2</v>
       </c>
     </row>
-    <row r="282" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="282" spans="2:27">
       <c r="E282" t="s">
         <v>45</v>
       </c>
@@ -7732,19 +7738,19 @@
         <v>0</v>
       </c>
       <c r="R282">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="T282">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="X282">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="283" spans="2:27" x14ac:dyDescent="0.25">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" spans="2:27">
       <c r="B283" t="s">
         <v>54</v>
       </c>
@@ -7771,11 +7777,11 @@
         <v>7366</v>
       </c>
       <c r="R283">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>4.8985834940480151E-2</v>
       </c>
       <c r="T283">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>4.8662528429872981E-2</v>
       </c>
       <c r="V283">
@@ -7783,7 +7789,7 @@
         <v>0.9888191797566005</v>
       </c>
       <c r="X283">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>2.6716874376537875E-2</v>
       </c>
       <c r="AA283">
@@ -7791,7 +7797,7 @@
         <v>0.5357989184012768</v>
       </c>
     </row>
-    <row r="284" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="284" spans="2:27">
       <c r="E284" t="s">
         <v>17</v>
       </c>
@@ -7799,7 +7805,7 @@
         <v>0.3</v>
       </c>
       <c r="L284">
-        <f t="shared" ref="L284:L288" si="29">J284*2</f>
+        <f t="shared" ref="L284:L294" si="30">J284*2</f>
         <v>0.6</v>
       </c>
       <c r="O284">
@@ -7809,19 +7815,19 @@
         <v>20534</v>
       </c>
       <c r="R284">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0.13655649398151226</v>
       </c>
       <c r="T284">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0.13654147276717429</v>
       </c>
       <c r="X284">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>8.1933896388907357E-2</v>
       </c>
     </row>
-    <row r="285" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="285" spans="2:27">
       <c r="E285" t="s">
         <v>18</v>
       </c>
@@ -7829,7 +7835,7 @@
         <v>0.25</v>
       </c>
       <c r="L285">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0.5</v>
       </c>
       <c r="O285">
@@ -7839,19 +7845,19 @@
         <v>60121</v>
       </c>
       <c r="R285">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0.39982044290749486</v>
       </c>
       <c r="T285">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0.39778135864866665</v>
       </c>
       <c r="X285">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0.19991022145374743</v>
       </c>
     </row>
-    <row r="286" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="286" spans="2:27">
       <c r="E286" t="s">
         <v>19</v>
       </c>
@@ -7859,7 +7865,7 @@
         <v>0.41665999999999997</v>
       </c>
       <c r="L286">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0.83331999999999995</v>
       </c>
       <c r="O286">
@@ -7869,19 +7875,19 @@
         <v>176</v>
       </c>
       <c r="R286">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>1.1704462326261888E-3</v>
       </c>
       <c r="T286">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>8.1861009509875645E-4</v>
       </c>
       <c r="X286">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>9.7535625457205563E-4</v>
       </c>
     </row>
-    <row r="287" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="287" spans="2:27">
       <c r="E287" t="s">
         <v>45</v>
       </c>
@@ -7889,7 +7895,7 @@
         <v>0.16666</v>
       </c>
       <c r="L287">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0.33332000000000001</v>
       </c>
       <c r="O287">
@@ -7899,19 +7905,19 @@
         <v>12302</v>
       </c>
       <c r="R287">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>8.1811531555496447E-2</v>
       </c>
       <c r="T287">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>7.3393124958435862E-2</v>
       </c>
       <c r="X287">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>2.7269419698078078E-2</v>
       </c>
     </row>
-    <row r="288" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="288" spans="2:27">
       <c r="E288" t="s">
         <v>47</v>
       </c>
@@ -7919,7 +7925,7 @@
         <v>0.3</v>
       </c>
       <c r="L288">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0.6</v>
       </c>
       <c r="O288">
@@ -7929,239 +7935,241 @@
         <v>49871</v>
       </c>
       <c r="R288">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0.33165525038239013</v>
       </c>
       <c r="T288">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0.3316220848573519</v>
       </c>
       <c r="X288">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0.19899315022943406</v>
       </c>
     </row>
-    <row r="289" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="289" spans="2:27">
       <c r="D289" t="s">
         <v>55</v>
       </c>
+      <c r="E289" t="s">
+        <v>12</v>
+      </c>
       <c r="F289">
         <v>0.816832</v>
       </c>
-    </row>
-    <row r="290" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B290" t="s">
-        <v>20</v>
-      </c>
-      <c r="D290" t="s">
-        <v>11</v>
-      </c>
+      <c r="J289">
+        <v>0.3</v>
+      </c>
+      <c r="L289">
+        <f t="shared" si="30"/>
+        <v>0.6</v>
+      </c>
+      <c r="O289">
+        <v>0.99980000000000002</v>
+      </c>
+      <c r="Q289">
+        <v>20534</v>
+      </c>
+      <c r="R289">
+        <f t="shared" si="26"/>
+        <v>0.13655649398151226</v>
+      </c>
+      <c r="T289">
+        <f t="shared" si="27"/>
+        <v>0.13652918268271597</v>
+      </c>
+      <c r="V289">
+        <f>SUM(T289:T295)</f>
+        <v>0.98506902374143779</v>
+      </c>
+      <c r="X289">
+        <f t="shared" si="28"/>
+        <v>8.1933896388907357E-2</v>
+      </c>
+      <c r="AA289">
+        <f>SUM(X289:X295)</f>
+        <v>0.35352348473764711</v>
+      </c>
+    </row>
+    <row r="290" spans="2:27">
       <c r="E290" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="J290">
-        <v>0.22220000000000001</v>
+        <v>0</v>
       </c>
       <c r="L290">
-        <v>0.44440000000000002</v>
+        <f t="shared" si="30"/>
+        <v>0</v>
       </c>
       <c r="O290">
-        <v>0.99990000000000001</v>
+        <v>1</v>
       </c>
       <c r="Q290">
-        <v>57101</v>
+        <v>46371</v>
       </c>
       <c r="R290">
-        <f t="shared" si="25"/>
-        <v>0.37973664959765913</v>
+        <f t="shared" si="26"/>
+        <v>0.30837933098357384</v>
       </c>
       <c r="T290">
+        <f t="shared" si="27"/>
+        <v>0.30837933098357384</v>
+      </c>
+      <c r="X290">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291" spans="2:27">
+      <c r="E291" t="s">
+        <v>18</v>
+      </c>
+      <c r="J291">
+        <v>0.35</v>
+      </c>
+      <c r="L291">
+        <f t="shared" si="30"/>
+        <v>0.7</v>
+      </c>
+      <c r="O291">
+        <v>0.91139999999999999</v>
+      </c>
+      <c r="Q291">
+        <v>7542</v>
+      </c>
+      <c r="R291">
         <f t="shared" si="26"/>
-        <v>0.37969867593269935</v>
-      </c>
-      <c r="V290">
-        <f>T290+T291</f>
-        <v>0.97626796634967083</v>
-      </c>
-      <c r="X290">
+        <v>5.0156281173106339E-2</v>
+      </c>
+      <c r="T291">
         <f t="shared" si="27"/>
-        <v>0.16875496708119972</v>
-      </c>
-      <c r="AA290">
-        <f>SUM(X290:X291)</f>
-        <v>0.7299072201901976</v>
-      </c>
-    </row>
-    <row r="291" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="E291" t="s">
-        <v>13</v>
-      </c>
-      <c r="J291">
-        <v>0.45229999999999998</v>
-      </c>
-      <c r="L291">
-        <v>0.90469999999999995</v>
-      </c>
-      <c r="O291">
-        <v>0.96179999999999999</v>
-      </c>
-      <c r="Q291">
-        <v>93269</v>
-      </c>
-      <c r="R291">
-        <f t="shared" si="25"/>
-        <v>0.62026335040234093</v>
-      </c>
-      <c r="T291">
+        <v>4.5712434661169116E-2</v>
+      </c>
+      <c r="X291">
+        <f t="shared" si="28"/>
+        <v>3.5109396821174435E-2</v>
+      </c>
+    </row>
+    <row r="292" spans="2:27">
+      <c r="E292" t="s">
+        <v>19</v>
+      </c>
+      <c r="J292">
+        <v>0.25</v>
+      </c>
+      <c r="L292">
+        <f t="shared" si="30"/>
+        <v>0.5</v>
+      </c>
+      <c r="O292">
+        <v>0.99490000000000001</v>
+      </c>
+      <c r="Q292">
+        <v>60121</v>
+      </c>
+      <c r="R292">
         <f t="shared" si="26"/>
-        <v>0.59656929041697149</v>
-      </c>
-      <c r="X291">
+        <v>0.39982044290749486</v>
+      </c>
+      <c r="T292">
         <f t="shared" si="27"/>
-        <v>0.56115225310899786</v>
-      </c>
-    </row>
-    <row r="292" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="D292" t="s">
-        <v>14</v>
-      </c>
-      <c r="E292" t="s">
-        <v>12</v>
-      </c>
-      <c r="J292">
-        <v>0.22220000000000001</v>
-      </c>
-      <c r="L292">
-        <v>0.44440000000000002</v>
-      </c>
-      <c r="O292">
-        <v>0.99990000000000001</v>
-      </c>
-      <c r="Q292">
-        <v>14259</v>
-      </c>
-      <c r="R292">
-        <f t="shared" si="25"/>
-        <v>9.4826095630777416E-2</v>
-      </c>
-      <c r="T292">
+        <v>0.39778135864866665</v>
+      </c>
+      <c r="X292">
+        <f t="shared" si="28"/>
+        <v>0.19991022145374743</v>
+      </c>
+    </row>
+    <row r="293" spans="2:27">
+      <c r="E293" t="s">
+        <v>45</v>
+      </c>
+      <c r="J293">
+        <v>0.1666</v>
+      </c>
+      <c r="L293">
+        <f t="shared" si="30"/>
+        <v>0.3332</v>
+      </c>
+      <c r="O293">
+        <v>0.89710000000000001</v>
+      </c>
+      <c r="Q293">
+        <v>12302</v>
+      </c>
+      <c r="R293">
         <f t="shared" si="26"/>
-        <v>9.4816613021214344E-2</v>
-      </c>
-      <c r="V292">
-        <f>T292+T293+T294</f>
-        <v>0.97628722285030267</v>
-      </c>
-      <c r="X292">
+        <v>8.1811531555496447E-2</v>
+      </c>
+      <c r="T293">
         <f t="shared" si="27"/>
-        <v>4.2140716898317485E-2</v>
-      </c>
-      <c r="AA292">
-        <f>SUM(X292:X294)</f>
-        <v>0.72967457538072744</v>
-      </c>
-    </row>
-    <row r="293" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="E293" t="s">
-        <v>13</v>
-      </c>
-      <c r="J293">
-        <v>0.45229999999999998</v>
-      </c>
-      <c r="L293">
-        <v>0.90469999999999995</v>
-      </c>
-      <c r="O293">
-        <v>0.96179999999999999</v>
-      </c>
-      <c r="Q293">
-        <v>93193</v>
-      </c>
-      <c r="R293">
-        <f t="shared" si="25"/>
-        <v>0.61975793043825234</v>
-      </c>
-      <c r="T293">
-        <f t="shared" si="26"/>
-        <v>0.5960831774955111</v>
+        <v>7.3393124958435862E-2</v>
       </c>
       <c r="X293">
-        <f t="shared" si="27"/>
-        <v>0.56069499966748682</v>
-      </c>
-    </row>
-    <row r="294" spans="2:27" x14ac:dyDescent="0.25">
+        <f t="shared" si="28"/>
+        <v>2.7259602314291417E-2</v>
+      </c>
+    </row>
+    <row r="294" spans="2:27">
       <c r="E294" t="s">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="J294">
-        <v>0.22220000000000001</v>
+        <v>0.2</v>
       </c>
       <c r="L294">
-        <v>0.44440000000000002</v>
+        <f t="shared" si="30"/>
+        <v>0.4</v>
       </c>
       <c r="O294">
         <v>0.99990000000000001</v>
       </c>
       <c r="Q294">
-        <v>42918</v>
+        <v>3500</v>
       </c>
       <c r="R294">
-        <f t="shared" si="25"/>
-        <v>0.28541597393097029</v>
+        <f t="shared" si="26"/>
+        <v>2.3275919398816253E-2</v>
       </c>
       <c r="T294">
+        <f t="shared" si="27"/>
+        <v>2.3273591806876371E-2</v>
+      </c>
+      <c r="X294">
+        <f t="shared" si="28"/>
+        <v>9.3103677595265024E-3</v>
+      </c>
+    </row>
+    <row r="295" spans="2:27">
+      <c r="E295" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q295">
+        <v>0</v>
+      </c>
+      <c r="R295">
         <f t="shared" si="26"/>
-        <v>0.28538743233357722</v>
-      </c>
-      <c r="X294">
+        <v>0</v>
+      </c>
+      <c r="T295">
         <f t="shared" si="27"/>
-        <v>0.12683885881492321</v>
-      </c>
-    </row>
-    <row r="295" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="D295" t="s">
-        <v>16</v>
-      </c>
-      <c r="E295" t="s">
+        <v>0</v>
+      </c>
+      <c r="X295">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296" spans="2:27">
+      <c r="B296" t="s">
+        <v>20</v>
+      </c>
+      <c r="D296" t="s">
+        <v>11</v>
+      </c>
+      <c r="E296" t="s">
         <v>12</v>
-      </c>
-      <c r="J295">
-        <v>0.45229999999999998</v>
-      </c>
-      <c r="L295">
-        <v>0.90469999999999995</v>
-      </c>
-      <c r="O295">
-        <v>0.96579999999999999</v>
-      </c>
-      <c r="Q295">
-        <v>86038</v>
-      </c>
-      <c r="R295">
-        <f t="shared" si="25"/>
-        <v>0.57217530092438651</v>
-      </c>
-      <c r="T295">
-        <f t="shared" si="26"/>
-        <v>0.55260690563277248</v>
-      </c>
-      <c r="V295">
-        <f>SUM(T295:T298)</f>
-        <v>0.97982631695151956</v>
-      </c>
-      <c r="X295">
-        <f t="shared" si="27"/>
-        <v>0.5176469947462925</v>
-      </c>
-      <c r="AA295">
-        <f>SUM(X295:X298)</f>
-        <v>0.71934124492917473</v>
-      </c>
-    </row>
-    <row r="296" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="E296" t="s">
-        <v>17</v>
       </c>
       <c r="J296">
         <v>0.22220000000000001</v>
@@ -8173,452 +8181,877 @@
         <v>0.99990000000000001</v>
       </c>
       <c r="Q296">
+        <v>57101</v>
+      </c>
+      <c r="R296">
+        <f t="shared" si="26"/>
+        <v>0.37973664959765913</v>
+      </c>
+      <c r="T296">
+        <f t="shared" si="27"/>
+        <v>0.37969867593269935</v>
+      </c>
+      <c r="V296">
+        <f>T296+T297</f>
+        <v>0.97626796634967083</v>
+      </c>
+      <c r="X296">
+        <f t="shared" si="28"/>
+        <v>0.16875496708119972</v>
+      </c>
+      <c r="AA296">
+        <f>SUM(X296:X297)</f>
+        <v>0.7299072201901976</v>
+      </c>
+    </row>
+    <row r="297" spans="2:27">
+      <c r="E297" t="s">
+        <v>13</v>
+      </c>
+      <c r="J297">
+        <v>0.45229999999999998</v>
+      </c>
+      <c r="L297">
+        <v>0.90469999999999995</v>
+      </c>
+      <c r="O297">
+        <v>0.96179999999999999</v>
+      </c>
+      <c r="Q297">
+        <v>93269</v>
+      </c>
+      <c r="R297">
+        <f t="shared" si="26"/>
+        <v>0.62026335040234093</v>
+      </c>
+      <c r="T297">
+        <f t="shared" si="27"/>
+        <v>0.59656929041697149</v>
+      </c>
+      <c r="X297">
+        <f t="shared" si="28"/>
+        <v>0.56115225310899786</v>
+      </c>
+    </row>
+    <row r="298" spans="2:27">
+      <c r="D298" t="s">
+        <v>14</v>
+      </c>
+      <c r="E298" t="s">
+        <v>12</v>
+      </c>
+      <c r="J298">
+        <v>0.22220000000000001</v>
+      </c>
+      <c r="L298">
+        <v>0.44440000000000002</v>
+      </c>
+      <c r="O298">
+        <v>0.99990000000000001</v>
+      </c>
+      <c r="Q298">
+        <v>14259</v>
+      </c>
+      <c r="R298">
+        <f t="shared" si="26"/>
+        <v>9.4826095630777416E-2</v>
+      </c>
+      <c r="T298">
+        <f t="shared" si="27"/>
+        <v>9.4816613021214344E-2</v>
+      </c>
+      <c r="V298">
+        <f>T298+T299+T300</f>
+        <v>0.97628722285030267</v>
+      </c>
+      <c r="X298">
+        <f t="shared" si="28"/>
+        <v>4.2140716898317485E-2</v>
+      </c>
+      <c r="AA298">
+        <f>SUM(X298:X300)</f>
+        <v>0.72967457538072744</v>
+      </c>
+    </row>
+    <row r="299" spans="2:27">
+      <c r="E299" t="s">
+        <v>13</v>
+      </c>
+      <c r="J299">
+        <v>0.45229999999999998</v>
+      </c>
+      <c r="L299">
+        <v>0.90469999999999995</v>
+      </c>
+      <c r="O299">
+        <v>0.96179999999999999</v>
+      </c>
+      <c r="Q299">
+        <v>93193</v>
+      </c>
+      <c r="R299">
+        <f t="shared" si="26"/>
+        <v>0.61975793043825234</v>
+      </c>
+      <c r="T299">
+        <f t="shared" si="27"/>
+        <v>0.5960831774955111</v>
+      </c>
+      <c r="X299">
+        <f t="shared" si="28"/>
+        <v>0.56069499966748682</v>
+      </c>
+    </row>
+    <row r="300" spans="2:27">
+      <c r="E300" t="s">
+        <v>15</v>
+      </c>
+      <c r="J300">
+        <v>0.22220000000000001</v>
+      </c>
+      <c r="L300">
+        <v>0.44440000000000002</v>
+      </c>
+      <c r="O300">
+        <v>0.99990000000000001</v>
+      </c>
+      <c r="Q300">
+        <v>42918</v>
+      </c>
+      <c r="R300">
+        <f t="shared" si="26"/>
+        <v>0.28541597393097029</v>
+      </c>
+      <c r="T300">
+        <f t="shared" si="27"/>
+        <v>0.28538743233357722</v>
+      </c>
+      <c r="X300">
+        <f t="shared" si="28"/>
+        <v>0.12683885881492321</v>
+      </c>
+    </row>
+    <row r="301" spans="2:27">
+      <c r="D301" t="s">
+        <v>16</v>
+      </c>
+      <c r="E301" t="s">
+        <v>12</v>
+      </c>
+      <c r="J301">
+        <v>0.45229999999999998</v>
+      </c>
+      <c r="L301">
+        <v>0.90469999999999995</v>
+      </c>
+      <c r="O301">
+        <v>0.96579999999999999</v>
+      </c>
+      <c r="Q301">
+        <v>86038</v>
+      </c>
+      <c r="R301">
+        <f t="shared" si="26"/>
+        <v>0.57217530092438651</v>
+      </c>
+      <c r="T301">
+        <f t="shared" si="27"/>
+        <v>0.55260690563277248</v>
+      </c>
+      <c r="V301">
+        <f>SUM(T301:T304)</f>
+        <v>0.97982631695151956</v>
+      </c>
+      <c r="X301">
+        <f t="shared" si="28"/>
+        <v>0.5176469947462925</v>
+      </c>
+      <c r="AA301">
+        <f>SUM(X301:X304)</f>
+        <v>0.71934124492917473</v>
+      </c>
+    </row>
+    <row r="302" spans="2:27">
+      <c r="E302" t="s">
+        <v>17</v>
+      </c>
+      <c r="J302">
+        <v>0.22220000000000001</v>
+      </c>
+      <c r="L302">
+        <v>0.44440000000000002</v>
+      </c>
+      <c r="O302">
+        <v>0.99990000000000001</v>
+      </c>
+      <c r="Q302">
         <v>14193</v>
       </c>
-      <c r="R296">
-        <f t="shared" si="25"/>
+      <c r="R302">
+        <f t="shared" si="26"/>
         <v>9.4387178293542595E-2</v>
       </c>
-      <c r="T296">
-        <f t="shared" si="26"/>
+      <c r="T302">
+        <f t="shared" si="27"/>
         <v>9.4377739575713243E-2</v>
       </c>
-      <c r="X296">
-        <f t="shared" si="27"/>
+      <c r="X302">
+        <f t="shared" si="28"/>
         <v>4.1945662033650334E-2</v>
       </c>
     </row>
-    <row r="297" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="E297" t="s">
+    <row r="303" spans="2:27">
+      <c r="E303" t="s">
         <v>18</v>
-      </c>
-      <c r="J297">
-        <v>0.22220000000000001</v>
-      </c>
-      <c r="L297">
-        <v>0.44440000000000002</v>
-      </c>
-      <c r="O297">
-        <v>0.99990000000000001</v>
-      </c>
-      <c r="Q297">
-        <v>42983</v>
-      </c>
-      <c r="R297">
-        <f t="shared" si="25"/>
-        <v>0.2858482410055197</v>
-      </c>
-      <c r="T297">
-        <f t="shared" si="26"/>
-        <v>0.28581965618141913</v>
-      </c>
-      <c r="X297">
-        <f t="shared" si="27"/>
-        <v>0.12703095830285296</v>
-      </c>
-    </row>
-    <row r="298" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="E298" t="s">
-        <v>19</v>
-      </c>
-      <c r="J298">
-        <v>0.34375</v>
-      </c>
-      <c r="L298">
-        <v>0.6875</v>
-      </c>
-      <c r="O298">
-        <v>0.98807999999999996</v>
-      </c>
-      <c r="Q298">
-        <v>7156</v>
-      </c>
-      <c r="R298">
-        <f t="shared" si="25"/>
-        <v>4.7589279776551176E-2</v>
-      </c>
-      <c r="T298">
-        <f t="shared" si="26"/>
-        <v>4.7022015561614686E-2</v>
-      </c>
-      <c r="X298">
-        <f t="shared" si="27"/>
-        <v>3.271762984637893E-2</v>
-      </c>
-    </row>
-    <row r="299" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="D299" t="s">
-        <v>43</v>
-      </c>
-      <c r="E299" t="s">
-        <v>44</v>
-      </c>
-      <c r="J299">
-        <v>0.22220000000000001</v>
-      </c>
-      <c r="L299">
-        <f>J299*2</f>
-        <v>0.44440000000000002</v>
-      </c>
-      <c r="O299">
-        <v>0.99990000000000001</v>
-      </c>
-      <c r="Q299">
-        <v>14076</v>
-      </c>
-      <c r="R299">
-        <f t="shared" si="25"/>
-        <v>9.3609097559353593E-2</v>
-      </c>
-      <c r="T299">
-        <f t="shared" si="26"/>
-        <v>9.3599736649597656E-2</v>
-      </c>
-      <c r="V299">
-        <f>SUM(T299:T303)</f>
-        <v>0.97007693037174969</v>
-      </c>
-      <c r="X299">
-        <f t="shared" si="27"/>
-        <v>4.1599882955376741E-2</v>
-      </c>
-      <c r="AA299">
-        <f>SUM(X299:X303)</f>
-        <v>0.70814145999866984</v>
-      </c>
-    </row>
-    <row r="300" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="E300" t="s">
-        <v>17</v>
-      </c>
-      <c r="J300">
-        <v>0.34375</v>
-      </c>
-      <c r="L300">
-        <f t="shared" ref="L300:L305" si="30">J300*2</f>
-        <v>0.6875</v>
-      </c>
-      <c r="O300">
-        <v>0.98807999999999996</v>
-      </c>
-      <c r="Q300">
-        <v>7014</v>
-      </c>
-      <c r="R300">
-        <f t="shared" si="25"/>
-        <v>4.6644942475227769E-2</v>
-      </c>
-      <c r="T300">
-        <f t="shared" si="26"/>
-        <v>4.6088934760923052E-2</v>
-      </c>
-      <c r="X300">
-        <f t="shared" si="27"/>
-        <v>3.2068397951719091E-2</v>
-      </c>
-    </row>
-    <row r="301" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="E301" t="s">
-        <v>18</v>
-      </c>
-      <c r="J301">
-        <v>0.43332999999999999</v>
-      </c>
-      <c r="L301">
-        <f t="shared" si="30"/>
-        <v>0.86665999999999999</v>
-      </c>
-      <c r="O301">
-        <v>0.90300000000000002</v>
-      </c>
-      <c r="Q301">
-        <v>30259</v>
-      </c>
-      <c r="R301">
-        <f t="shared" si="25"/>
-        <v>0.20123029859679456</v>
-      </c>
-      <c r="T301">
-        <f t="shared" si="26"/>
-        <v>0.18171095963290548</v>
-      </c>
-      <c r="X301">
-        <f t="shared" si="27"/>
-        <v>0.17439825058189798</v>
-      </c>
-    </row>
-    <row r="302" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="E302" t="s">
-        <v>19</v>
-      </c>
-      <c r="J302">
-        <v>0.44729999999999998</v>
-      </c>
-      <c r="L302">
-        <f t="shared" si="30"/>
-        <v>0.89459999999999995</v>
-      </c>
-      <c r="O302">
-        <v>0.97370000000000001</v>
-      </c>
-      <c r="Q302">
-        <v>55923</v>
-      </c>
-      <c r="R302">
-        <f t="shared" si="25"/>
-        <v>0.37190264015428609</v>
-      </c>
-      <c r="T302">
-        <f t="shared" si="26"/>
-        <v>0.36212160071822835</v>
-      </c>
-      <c r="X302">
-        <f t="shared" si="27"/>
-        <v>0.33270410188202432</v>
-      </c>
-    </row>
-    <row r="303" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="E303" t="s">
-        <v>45</v>
       </c>
       <c r="J303">
         <v>0.22220000000000001</v>
       </c>
       <c r="L303">
-        <f t="shared" si="30"/>
         <v>0.44440000000000002</v>
       </c>
       <c r="O303">
-        <v>0.99980000000000002</v>
+        <v>0.99990000000000001</v>
       </c>
       <c r="Q303">
-        <v>43098</v>
+        <v>42983</v>
       </c>
       <c r="R303">
-        <f t="shared" si="25"/>
-        <v>0.28661302121433796</v>
+        <f t="shared" si="26"/>
+        <v>0.2858482410055197</v>
       </c>
       <c r="T303">
+        <f t="shared" si="27"/>
+        <v>0.28581965618141913</v>
+      </c>
+      <c r="X303">
+        <f t="shared" si="28"/>
+        <v>0.12703095830285296</v>
+      </c>
+    </row>
+    <row r="304" spans="2:27">
+      <c r="E304" t="s">
+        <v>19</v>
+      </c>
+      <c r="J304">
+        <v>0.34375</v>
+      </c>
+      <c r="L304">
+        <v>0.6875</v>
+      </c>
+      <c r="O304">
+        <v>0.98807999999999996</v>
+      </c>
+      <c r="Q304">
+        <v>7156</v>
+      </c>
+      <c r="R304">
         <f t="shared" si="26"/>
-        <v>0.28655569861009511</v>
-      </c>
-      <c r="X303">
+        <v>4.7589279776551176E-2</v>
+      </c>
+      <c r="T304">
         <f t="shared" si="27"/>
-        <v>0.12737082662765178</v>
-      </c>
-    </row>
-    <row r="304" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="D304" t="s">
-        <v>49</v>
-      </c>
-      <c r="E304" t="s">
+        <v>4.7022015561614686E-2</v>
+      </c>
+      <c r="X304">
+        <f t="shared" si="28"/>
+        <v>3.271762984637893E-2</v>
+      </c>
+    </row>
+    <row r="305" spans="4:27">
+      <c r="D305" t="s">
+        <v>43</v>
+      </c>
+      <c r="E305" t="s">
         <v>44</v>
       </c>
-      <c r="J304">
-        <v>8.3000000000000004E-2</v>
-      </c>
-      <c r="L304">
-        <f t="shared" si="30"/>
-        <v>0.16600000000000001</v>
-      </c>
-      <c r="O304">
+      <c r="J305">
+        <v>0.22220000000000001</v>
+      </c>
+      <c r="L305">
+        <f>J305*2</f>
+        <v>0.44440000000000002</v>
+      </c>
+      <c r="O305">
         <v>0.99990000000000001</v>
       </c>
-      <c r="Q304">
-        <v>9684</v>
-      </c>
-      <c r="R304">
-        <f t="shared" si="25"/>
-        <v>6.4401143845181891E-2</v>
-      </c>
-      <c r="T304">
+      <c r="Q305">
+        <v>14076</v>
+      </c>
+      <c r="R305">
         <f t="shared" si="26"/>
-        <v>6.4394703730797379E-2</v>
-      </c>
-      <c r="V304">
-        <f>SUM(T304:T309)</f>
-        <v>0.94436736982110792</v>
-      </c>
-      <c r="X304">
+        <v>9.3609097559353593E-2</v>
+      </c>
+      <c r="T305">
         <f t="shared" si="27"/>
-        <v>1.0690589878300195E-2</v>
-      </c>
-      <c r="AA304">
-        <f>SUM(X304:X309)</f>
-        <v>0.69385580567932437</v>
-      </c>
-    </row>
-    <row r="305" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="E305" t="s">
+        <v>9.3599736649597656E-2</v>
+      </c>
+      <c r="V305">
+        <f>SUM(T305:T309)</f>
+        <v>0.97007693037174969</v>
+      </c>
+      <c r="X305">
+        <f t="shared" si="28"/>
+        <v>4.1599882955376741E-2</v>
+      </c>
+      <c r="AA305">
+        <f>SUM(X305:X309)</f>
+        <v>0.70814145999866984</v>
+      </c>
+    </row>
+    <row r="306" spans="4:27">
+      <c r="E306" t="s">
         <v>17</v>
       </c>
-      <c r="J305">
+      <c r="J306">
         <v>0.34375</v>
       </c>
-      <c r="L305">
-        <f t="shared" si="30"/>
+      <c r="L306">
+        <f t="shared" ref="L306:L311" si="31">J306*2</f>
         <v>0.6875</v>
       </c>
-      <c r="O305">
+      <c r="O306">
         <v>0.98807999999999996</v>
       </c>
-      <c r="Q305">
-        <v>7015</v>
-      </c>
-      <c r="R305">
-        <f t="shared" si="25"/>
-        <v>4.6651592737913146E-2</v>
-      </c>
-      <c r="T305">
+      <c r="Q306">
+        <v>7014</v>
+      </c>
+      <c r="R306">
         <f t="shared" si="26"/>
-        <v>4.6095505752477221E-2</v>
-      </c>
-      <c r="X305">
+        <v>4.6644942475227769E-2</v>
+      </c>
+      <c r="T306">
         <f t="shared" si="27"/>
-        <v>3.2072970007315287E-2</v>
-      </c>
-    </row>
-    <row r="306" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="E306" t="s">
+        <v>4.6088934760923052E-2</v>
+      </c>
+      <c r="X306">
+        <f t="shared" si="28"/>
+        <v>3.2068397951719091E-2</v>
+      </c>
+    </row>
+    <row r="307" spans="4:27">
+      <c r="E307" t="s">
         <v>18</v>
       </c>
-      <c r="J306">
-        <v>0.22220000000000001</v>
-      </c>
-      <c r="L306">
-        <f>J306*2</f>
-        <v>0.44440000000000002</v>
-      </c>
-      <c r="O306">
-        <v>0.99990000000000001</v>
-      </c>
-      <c r="Q306">
-        <v>23807</v>
-      </c>
-      <c r="R306">
-        <f t="shared" si="25"/>
-        <v>0.15832280375074814</v>
-      </c>
-      <c r="T306">
+      <c r="J307">
+        <v>0.43332999999999999</v>
+      </c>
+      <c r="L307">
+        <f t="shared" si="31"/>
+        <v>0.86665999999999999</v>
+      </c>
+      <c r="O307">
+        <v>0.90300000000000002</v>
+      </c>
+      <c r="Q307">
+        <v>30259</v>
+      </c>
+      <c r="R307">
         <f t="shared" si="26"/>
-        <v>0.15830697147037306</v>
-      </c>
-      <c r="X306">
+        <v>0.20123029859679456</v>
+      </c>
+      <c r="T307">
         <f t="shared" si="27"/>
-        <v>7.0358653986832484E-2</v>
-      </c>
-    </row>
-    <row r="307" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="E307" t="s">
+        <v>0.18171095963290548</v>
+      </c>
+      <c r="X307">
+        <f t="shared" si="28"/>
+        <v>0.17439825058189798</v>
+      </c>
+    </row>
+    <row r="308" spans="4:27">
+      <c r="E308" t="s">
         <v>19</v>
       </c>
-      <c r="J307">
-        <v>0.43330000000000002</v>
-      </c>
-      <c r="L307">
-        <f t="shared" ref="L307:L309" si="31">J307*2</f>
-        <v>0.86660000000000004</v>
-      </c>
-      <c r="O307">
-        <v>0.90259999999999996</v>
-      </c>
-      <c r="Q307">
-        <v>30407</v>
-      </c>
-      <c r="R307">
-        <f t="shared" si="25"/>
-        <v>0.20221453747423024</v>
-      </c>
-      <c r="T307">
-        <f t="shared" si="26"/>
-        <v>0.18251884152424019</v>
-      </c>
-      <c r="X307">
-        <f t="shared" si="27"/>
-        <v>0.17523911817516793</v>
-      </c>
-    </row>
-    <row r="308" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="E308" t="s">
-        <v>45</v>
-      </c>
       <c r="J308">
-        <v>0.22220000000000001</v>
+        <v>0.44729999999999998</v>
       </c>
       <c r="L308">
         <f t="shared" si="31"/>
-        <v>0.44440000000000002</v>
+        <v>0.89459999999999995</v>
       </c>
       <c r="O308">
-        <v>0.99990000000000001</v>
+        <v>0.97370000000000001</v>
       </c>
       <c r="Q308">
-        <v>23691</v>
+        <v>55923</v>
       </c>
       <c r="R308">
-        <f t="shared" si="25"/>
-        <v>0.15755137327924454</v>
+        <f t="shared" si="26"/>
+        <v>0.37190264015428609</v>
       </c>
       <c r="T308">
-        <f t="shared" si="26"/>
-        <v>0.15753561814191661</v>
+        <f t="shared" si="27"/>
+        <v>0.36212160071822835</v>
       </c>
       <c r="X308">
-        <f t="shared" si="27"/>
-        <v>7.0015830285296274E-2</v>
-      </c>
-    </row>
-    <row r="309" spans="2:27" x14ac:dyDescent="0.25">
+        <f t="shared" si="28"/>
+        <v>0.33270410188202432</v>
+      </c>
+    </row>
+    <row r="309" spans="4:27">
       <c r="E309" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J309">
-        <v>0.45229999999999998</v>
+        <v>0.22220000000000001</v>
       </c>
       <c r="L309">
         <f t="shared" si="31"/>
+        <v>0.44440000000000002</v>
+      </c>
+      <c r="O309">
+        <v>0.99980000000000002</v>
+      </c>
+      <c r="Q309">
+        <v>43098</v>
+      </c>
+      <c r="R309">
+        <f t="shared" si="26"/>
+        <v>0.28661302121433796</v>
+      </c>
+      <c r="T309">
+        <f t="shared" si="27"/>
+        <v>0.28655569861009511</v>
+      </c>
+      <c r="X309">
+        <f t="shared" si="28"/>
+        <v>0.12737082662765178</v>
+      </c>
+    </row>
+    <row r="310" spans="4:27">
+      <c r="D310" t="s">
+        <v>49</v>
+      </c>
+      <c r="E310" t="s">
+        <v>44</v>
+      </c>
+      <c r="J310">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="L310">
+        <f t="shared" si="31"/>
+        <v>0.16600000000000001</v>
+      </c>
+      <c r="O310">
+        <v>0.99990000000000001</v>
+      </c>
+      <c r="Q310">
+        <v>9684</v>
+      </c>
+      <c r="R310">
+        <f t="shared" si="26"/>
+        <v>6.4401143845181891E-2</v>
+      </c>
+      <c r="T310">
+        <f t="shared" si="27"/>
+        <v>6.4394703730797379E-2</v>
+      </c>
+      <c r="V310">
+        <f>SUM(T310:T315)</f>
+        <v>0.94436736982110792</v>
+      </c>
+      <c r="X310">
+        <f t="shared" si="28"/>
+        <v>1.0690589878300195E-2</v>
+      </c>
+      <c r="AA310">
+        <f>SUM(X310:X315)</f>
+        <v>0.69385580567932437</v>
+      </c>
+    </row>
+    <row r="311" spans="4:27">
+      <c r="E311" t="s">
+        <v>17</v>
+      </c>
+      <c r="J311">
+        <v>0.34375</v>
+      </c>
+      <c r="L311">
+        <f t="shared" si="31"/>
+        <v>0.6875</v>
+      </c>
+      <c r="O311">
+        <v>0.98807999999999996</v>
+      </c>
+      <c r="Q311">
+        <v>7015</v>
+      </c>
+      <c r="R311">
+        <f t="shared" si="26"/>
+        <v>4.6651592737913146E-2</v>
+      </c>
+      <c r="T311">
+        <f t="shared" si="27"/>
+        <v>4.6095505752477221E-2</v>
+      </c>
+      <c r="X311">
+        <f t="shared" si="28"/>
+        <v>3.2072970007315287E-2</v>
+      </c>
+    </row>
+    <row r="312" spans="4:27">
+      <c r="E312" t="s">
+        <v>18</v>
+      </c>
+      <c r="J312">
+        <v>0.22220000000000001</v>
+      </c>
+      <c r="L312">
+        <f>J312*2</f>
+        <v>0.44440000000000002</v>
+      </c>
+      <c r="O312">
+        <v>0.99990000000000001</v>
+      </c>
+      <c r="Q312">
+        <v>23807</v>
+      </c>
+      <c r="R312">
+        <f t="shared" si="26"/>
+        <v>0.15832280375074814</v>
+      </c>
+      <c r="T312">
+        <f t="shared" si="27"/>
+        <v>0.15830697147037306</v>
+      </c>
+      <c r="X312">
+        <f t="shared" si="28"/>
+        <v>7.0358653986832484E-2</v>
+      </c>
+    </row>
+    <row r="313" spans="4:27">
+      <c r="E313" t="s">
+        <v>19</v>
+      </c>
+      <c r="J313">
+        <v>0.43330000000000002</v>
+      </c>
+      <c r="L313">
+        <f t="shared" ref="L313:L322" si="32">J313*2</f>
+        <v>0.86660000000000004</v>
+      </c>
+      <c r="O313">
+        <v>0.90259999999999996</v>
+      </c>
+      <c r="Q313">
+        <v>30407</v>
+      </c>
+      <c r="R313">
+        <f t="shared" si="26"/>
+        <v>0.20221453747423024</v>
+      </c>
+      <c r="T313">
+        <f t="shared" si="27"/>
+        <v>0.18251884152424019</v>
+      </c>
+      <c r="X313">
+        <f t="shared" si="28"/>
+        <v>0.17523911817516793</v>
+      </c>
+    </row>
+    <row r="314" spans="4:27">
+      <c r="E314" t="s">
+        <v>45</v>
+      </c>
+      <c r="J314">
+        <v>0.22220000000000001</v>
+      </c>
+      <c r="L314">
+        <f t="shared" si="32"/>
+        <v>0.44440000000000002</v>
+      </c>
+      <c r="O314">
+        <v>0.99990000000000001</v>
+      </c>
+      <c r="Q314">
+        <v>23691</v>
+      </c>
+      <c r="R314">
+        <f t="shared" si="26"/>
+        <v>0.15755137327924454</v>
+      </c>
+      <c r="T314">
+        <f t="shared" si="27"/>
+        <v>0.15753561814191661</v>
+      </c>
+      <c r="X314">
+        <f t="shared" si="28"/>
+        <v>7.0015830285296274E-2</v>
+      </c>
+    </row>
+    <row r="315" spans="4:27">
+      <c r="E315" t="s">
+        <v>47</v>
+      </c>
+      <c r="J315">
+        <v>0.45229999999999998</v>
+      </c>
+      <c r="L315">
+        <f t="shared" si="32"/>
         <v>0.90459999999999996</v>
       </c>
-      <c r="O309">
+      <c r="O315">
         <v>0.90469999999999995</v>
       </c>
-      <c r="Q309">
+      <c r="Q315">
         <v>55766</v>
       </c>
-      <c r="R309">
-        <f t="shared" si="25"/>
+      <c r="R315">
+        <f t="shared" si="26"/>
         <v>0.37085854891268205</v>
       </c>
-      <c r="T309">
+      <c r="T315">
+        <f t="shared" si="27"/>
+        <v>0.33551572920130346</v>
+      </c>
+      <c r="X315">
+        <f t="shared" si="28"/>
+        <v>0.33547864334641214</v>
+      </c>
+    </row>
+    <row r="316" spans="4:27">
+      <c r="D316" t="s">
+        <v>58</v>
+      </c>
+      <c r="E316" t="s">
+        <v>32</v>
+      </c>
+      <c r="J316">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="L316">
+        <f t="shared" si="32"/>
+        <v>0.16600000000000001</v>
+      </c>
+      <c r="O316">
+        <v>0.99990000000000001</v>
+      </c>
+      <c r="Q316">
+        <v>19503</v>
+      </c>
+      <c r="R316">
         <f t="shared" si="26"/>
-        <v>0.33551572920130346</v>
-      </c>
-      <c r="X309">
+        <v>0.12970007315288953</v>
+      </c>
+      <c r="T316">
         <f t="shared" si="27"/>
-        <v>0.33547864334641214</v>
-      </c>
-    </row>
-    <row r="310" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B310" t="s">
+        <v>0.12968710314557425</v>
+      </c>
+      <c r="V316">
+        <f>SUM(T316:T322)</f>
+        <v>0.94006975327525433</v>
+      </c>
+      <c r="X316">
+        <f t="shared" si="28"/>
+        <v>2.1530212143379662E-2</v>
+      </c>
+      <c r="AA316">
+        <f>SUM(X316:X322)</f>
+        <v>0.61604537673738113</v>
+      </c>
+    </row>
+    <row r="317" spans="4:27">
+      <c r="E317" t="s">
+        <v>17</v>
+      </c>
+      <c r="J317">
+        <v>0.22220000000000001</v>
+      </c>
+      <c r="L317">
+        <f t="shared" si="32"/>
+        <v>0.44440000000000002</v>
+      </c>
+      <c r="O317">
+        <v>0.99980000000000002</v>
+      </c>
+      <c r="Q317">
+        <v>18590</v>
+      </c>
+      <c r="R317">
+        <f t="shared" si="26"/>
+        <v>0.12362838332114119</v>
+      </c>
+      <c r="T317">
+        <f t="shared" si="27"/>
+        <v>0.12360365764447696</v>
+      </c>
+      <c r="X317">
+        <f t="shared" si="28"/>
+        <v>5.4940453547915151E-2</v>
+      </c>
+    </row>
+    <row r="318" spans="4:27">
+      <c r="E318" t="s">
+        <v>18</v>
+      </c>
+      <c r="J318">
+        <v>0.34375</v>
+      </c>
+      <c r="L318">
+        <f t="shared" si="32"/>
+        <v>0.6875</v>
+      </c>
+      <c r="O318">
+        <v>0.98809999999999998</v>
+      </c>
+      <c r="Q318">
+        <v>6967</v>
+      </c>
+      <c r="R318">
+        <f t="shared" si="26"/>
+        <v>4.6332380129015097E-2</v>
+      </c>
+      <c r="T318">
+        <f t="shared" si="27"/>
+        <v>4.5781024805479818E-2</v>
+      </c>
+      <c r="X318">
+        <f t="shared" si="28"/>
+        <v>3.1853511338697876E-2</v>
+      </c>
+    </row>
+    <row r="319" spans="4:27">
+      <c r="E319" t="s">
+        <v>19</v>
+      </c>
+      <c r="J319">
+        <v>0.22220000000000001</v>
+      </c>
+      <c r="L319">
+        <f t="shared" si="32"/>
+        <v>0.44440000000000002</v>
+      </c>
+      <c r="O319">
+        <v>0.99990000000000001</v>
+      </c>
+      <c r="Q319">
+        <v>11003</v>
+      </c>
+      <c r="R319">
+        <f t="shared" si="26"/>
+        <v>7.3172840327192928E-2</v>
+      </c>
+      <c r="T319">
+        <f t="shared" si="27"/>
+        <v>7.3165523043160208E-2</v>
+      </c>
+      <c r="X319">
+        <f t="shared" si="28"/>
+        <v>3.2518010241404535E-2</v>
+      </c>
+    </row>
+    <row r="320" spans="4:27">
+      <c r="E320" t="s">
+        <v>45</v>
+      </c>
+      <c r="J320">
+        <v>0.45229999999999998</v>
+      </c>
+      <c r="L320">
+        <f t="shared" si="32"/>
+        <v>0.90459999999999996</v>
+      </c>
+      <c r="O320">
+        <v>0.9738</v>
+      </c>
+      <c r="Q320">
+        <v>56116</v>
+      </c>
+      <c r="R320">
+        <f t="shared" si="26"/>
+        <v>0.37318614085256369</v>
+      </c>
+      <c r="T320">
+        <f t="shared" si="27"/>
+        <v>0.36340866396222654</v>
+      </c>
+      <c r="X320">
+        <f t="shared" si="28"/>
+        <v>0.33758418301522908</v>
+      </c>
+    </row>
+    <row r="321" spans="2:27">
+      <c r="E321" t="s">
+        <v>47</v>
+      </c>
+      <c r="J321">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="L321">
+        <f t="shared" si="32"/>
+        <v>0.16600000000000001</v>
+      </c>
+      <c r="O321">
+        <v>0.99990000000000001</v>
+      </c>
+      <c r="Q321">
+        <v>8086</v>
+      </c>
+      <c r="R321">
+        <f t="shared" si="26"/>
+        <v>5.3774024073950918E-2</v>
+      </c>
+      <c r="T321">
+        <f t="shared" si="27"/>
+        <v>5.3768646671543525E-2</v>
+      </c>
+      <c r="X321">
+        <f t="shared" si="28"/>
+        <v>8.9264879962758538E-3</v>
+      </c>
+    </row>
+    <row r="322" spans="2:27">
+      <c r="E322" t="s">
+        <v>57</v>
+      </c>
+      <c r="J322">
+        <v>0.32140000000000002</v>
+      </c>
+      <c r="L322">
+        <f t="shared" si="32"/>
+        <v>0.64280000000000004</v>
+      </c>
+      <c r="O322">
+        <v>0.75249999999999995</v>
+      </c>
+      <c r="Q322">
+        <v>30105</v>
+      </c>
+      <c r="R322">
+        <f t="shared" si="26"/>
+        <v>0.20020615814324666</v>
+      </c>
+      <c r="T322">
+        <f t="shared" si="27"/>
+        <v>0.1506551340027931</v>
+      </c>
+      <c r="X322">
+        <f t="shared" si="28"/>
+        <v>0.12869251845447896</v>
+      </c>
+    </row>
+    <row r="324" spans="2:27">
+      <c r="B324" t="s">
         <v>51</v>
       </c>
-      <c r="J310">
+      <c r="J324">
         <v>0.45229999999999998</v>
       </c>
-      <c r="L310">
-        <f>J310*2</f>
+      <c r="L324">
+        <f>J324*2</f>
         <v>0.90459999999999996</v>
       </c>
-      <c r="O310">
+      <c r="O324">
         <v>0.92259999999999998</v>
       </c>
-      <c r="Q310">
+      <c r="Q324">
         <v>150370</v>
       </c>
-      <c r="V310">
+      <c r="V324">
         <v>0.92259999999999998</v>
       </c>
-      <c r="AA310">
+      <c r="AA324">
         <v>0.90459999999999996</v>
       </c>
     </row>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\process mining\pm4py\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EA79F1F-0E63-407A-A5A2-B830E3F0BC60}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{261F2AAE-935A-4655-AF6C-B6AD6B0EB3E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C1753F0F-FFC1-467F-9ECD-AF02EB500D34}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{C1753F0F-FFC1-467F-9ECD-AF02EB500D34}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="62">
   <si>
     <t>total 819</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -254,6 +256,15 @@
   </si>
   <si>
     <t>cluster 7</t>
+  </si>
+  <si>
+    <t>road traffic</t>
+  </si>
+  <si>
+    <t>cluster2</t>
+  </si>
+  <si>
+    <t>fitness</t>
   </si>
 </sst>
 </file>
@@ -619,8 +630,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1D8B2EC-DD97-4072-9002-9DD13F52F6A9}">
   <dimension ref="A5:AA324"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F301" workbookViewId="0">
-      <selection activeCell="T324" sqref="T324"/>
+    <sheetView topLeftCell="A268" workbookViewId="0">
+      <selection activeCell="O270" sqref="O270"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -4142,8 +4153,14 @@
       <c r="L135">
         <v>0.8</v>
       </c>
+      <c r="O135">
+        <v>0.99629999999999996</v>
+      </c>
       <c r="Q135">
         <v>100000</v>
+      </c>
+      <c r="V135">
+        <v>0.99629999999999996</v>
       </c>
       <c r="AA135">
         <v>0.8</v>
@@ -9060,4 +9077,1447 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67C590C6-CA1C-4B64-9D6E-A4DF9D9B5E9A}">
+  <dimension ref="A3:Z62"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="P7" sqref="P7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="3" spans="1:26">
+      <c r="E3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26">
+      <c r="A4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4">
+        <v>0.98280000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26">
+      <c r="D5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5">
+        <v>0.97270000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26">
+      <c r="F6" t="s">
+        <v>1</v>
+      </c>
+      <c r="J6" t="s">
+        <v>2</v>
+      </c>
+      <c r="L6" t="s">
+        <v>24</v>
+      </c>
+      <c r="O6" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>5</v>
+      </c>
+      <c r="R6" t="s">
+        <v>6</v>
+      </c>
+      <c r="T6" t="s">
+        <v>7</v>
+      </c>
+      <c r="V6" t="s">
+        <v>8</v>
+      </c>
+      <c r="X6" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26">
+      <c r="A7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7">
+        <v>0.73277300000000001</v>
+      </c>
+      <c r="L7">
+        <f>J7*2</f>
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0.98280000000000001</v>
+      </c>
+      <c r="Q7">
+        <v>80655</v>
+      </c>
+      <c r="R7">
+        <f>Q7/150370</f>
+        <v>0.53637693688900712</v>
+      </c>
+      <c r="T7">
+        <f>R7*O7</f>
+        <v>0.5271512535745162</v>
+      </c>
+      <c r="V7">
+        <f>T7+T8</f>
+        <v>0.97811740706257899</v>
+      </c>
+      <c r="X7">
+        <f>R7*L7</f>
+        <v>0</v>
+      </c>
+      <c r="Z7">
+        <f>SUM(X7:X8)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26">
+      <c r="E8" t="s">
+        <v>13</v>
+      </c>
+      <c r="L8">
+        <f>J8*2</f>
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0.97270000000000001</v>
+      </c>
+      <c r="Q8">
+        <v>69715</v>
+      </c>
+      <c r="R8">
+        <f t="shared" ref="R8:R60" si="0">Q8/150370</f>
+        <v>0.46362306311099288</v>
+      </c>
+      <c r="T8">
+        <f t="shared" ref="T8:T60" si="1">R8*O8</f>
+        <v>0.45096615348806279</v>
+      </c>
+      <c r="X8">
+        <f t="shared" ref="X8:X60" si="2">R8*L8</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26">
+      <c r="D9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9">
+        <v>0.76267099999999999</v>
+      </c>
+      <c r="L9">
+        <f t="shared" ref="L9:L35" si="3">J9*2</f>
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>20534</v>
+      </c>
+      <c r="R9">
+        <f t="shared" si="0"/>
+        <v>0.13655649398151226</v>
+      </c>
+      <c r="T9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="V9">
+        <f>T9+T10+T11</f>
+        <v>0</v>
+      </c>
+      <c r="X9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26">
+      <c r="E10" t="s">
+        <v>13</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>69715</v>
+      </c>
+      <c r="R10">
+        <f t="shared" si="0"/>
+        <v>0.46362306311099288</v>
+      </c>
+      <c r="T10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26">
+      <c r="E11" t="s">
+        <v>15</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>60121</v>
+      </c>
+      <c r="R11">
+        <f t="shared" si="0"/>
+        <v>0.39982044290749486</v>
+      </c>
+      <c r="T11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26">
+      <c r="D12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12">
+        <v>0.79297200000000001</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>19832</v>
+      </c>
+      <c r="R12">
+        <f t="shared" si="0"/>
+        <v>0.13188800957637828</v>
+      </c>
+      <c r="T12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="V12">
+        <f>T12+T13+T14+T15</f>
+        <v>0</v>
+      </c>
+      <c r="X12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26">
+      <c r="E13" t="s">
+        <v>17</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>49883</v>
+      </c>
+      <c r="R13">
+        <f t="shared" si="0"/>
+        <v>0.33173505353461463</v>
+      </c>
+      <c r="T13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26">
+      <c r="E14" t="s">
+        <v>18</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>20534</v>
+      </c>
+      <c r="R14">
+        <f t="shared" si="0"/>
+        <v>0.13655649398151226</v>
+      </c>
+      <c r="T14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26">
+      <c r="E15" t="s">
+        <v>19</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>60121</v>
+      </c>
+      <c r="R15">
+        <f t="shared" si="0"/>
+        <v>0.39982044290749486</v>
+      </c>
+      <c r="T15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26">
+      <c r="B16" t="s">
+        <v>53</v>
+      </c>
+      <c r="D16" t="s">
+        <v>43</v>
+      </c>
+      <c r="E16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16">
+        <v>0.89922999999999997</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>20534</v>
+      </c>
+      <c r="R16">
+        <f t="shared" si="0"/>
+        <v>0.13655649398151226</v>
+      </c>
+      <c r="T16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="V16">
+        <f>SUM(T16:T19)</f>
+        <v>0</v>
+      </c>
+      <c r="X16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:24">
+      <c r="E17" t="s">
+        <v>17</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>60121</v>
+      </c>
+      <c r="R17">
+        <f t="shared" si="0"/>
+        <v>0.39982044290749486</v>
+      </c>
+      <c r="T17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:24">
+      <c r="E18" t="s">
+        <v>18</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>49883</v>
+      </c>
+      <c r="R18">
+        <f t="shared" si="0"/>
+        <v>0.33173505353461463</v>
+      </c>
+      <c r="T18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:24">
+      <c r="E19" t="s">
+        <v>19</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>19832</v>
+      </c>
+      <c r="R19">
+        <f t="shared" si="0"/>
+        <v>0.13188800957637828</v>
+      </c>
+      <c r="T19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X19">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:24">
+      <c r="E20" t="s">
+        <v>45</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:24">
+      <c r="B21" t="s">
+        <v>54</v>
+      </c>
+      <c r="D21" t="s">
+        <v>37</v>
+      </c>
+      <c r="E21" t="s">
+        <v>12</v>
+      </c>
+      <c r="F21">
+        <v>0.91449899999999995</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>7366</v>
+      </c>
+      <c r="R21">
+        <f t="shared" si="0"/>
+        <v>4.8985834940480151E-2</v>
+      </c>
+      <c r="T21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="V21">
+        <f>SUM(T21:T26)</f>
+        <v>0</v>
+      </c>
+      <c r="X21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:24">
+      <c r="E22" t="s">
+        <v>17</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>20534</v>
+      </c>
+      <c r="R22">
+        <f t="shared" si="0"/>
+        <v>0.13655649398151226</v>
+      </c>
+      <c r="T22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:24">
+      <c r="E23" t="s">
+        <v>18</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>60121</v>
+      </c>
+      <c r="R23">
+        <f t="shared" si="0"/>
+        <v>0.39982044290749486</v>
+      </c>
+      <c r="T23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X23">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:24">
+      <c r="E24" t="s">
+        <v>19</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>176</v>
+      </c>
+      <c r="R24">
+        <f t="shared" si="0"/>
+        <v>1.1704462326261888E-3</v>
+      </c>
+      <c r="T24">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X24">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:24">
+      <c r="E25" t="s">
+        <v>45</v>
+      </c>
+      <c r="L25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>12302</v>
+      </c>
+      <c r="R25">
+        <f t="shared" si="0"/>
+        <v>8.1811531555496447E-2</v>
+      </c>
+      <c r="T25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:24">
+      <c r="E26" t="s">
+        <v>47</v>
+      </c>
+      <c r="L26">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>49871</v>
+      </c>
+      <c r="R26">
+        <f t="shared" si="0"/>
+        <v>0.33165525038239013</v>
+      </c>
+      <c r="T26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:24">
+      <c r="D27" t="s">
+        <v>55</v>
+      </c>
+      <c r="E27" t="s">
+        <v>12</v>
+      </c>
+      <c r="F27">
+        <v>0.816832</v>
+      </c>
+      <c r="L27">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>20534</v>
+      </c>
+      <c r="R27">
+        <f t="shared" si="0"/>
+        <v>0.13655649398151226</v>
+      </c>
+      <c r="T27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="V27">
+        <f>SUM(T27:T33)</f>
+        <v>0</v>
+      </c>
+      <c r="X27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:24">
+      <c r="E28" t="s">
+        <v>17</v>
+      </c>
+      <c r="L28">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>46371</v>
+      </c>
+      <c r="R28">
+        <f t="shared" si="0"/>
+        <v>0.30837933098357384</v>
+      </c>
+      <c r="T28">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X28">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:24">
+      <c r="E29" t="s">
+        <v>18</v>
+      </c>
+      <c r="L29">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>7542</v>
+      </c>
+      <c r="R29">
+        <f t="shared" si="0"/>
+        <v>5.0156281173106339E-2</v>
+      </c>
+      <c r="T29">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X29">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:24">
+      <c r="E30" t="s">
+        <v>19</v>
+      </c>
+      <c r="L30">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>60121</v>
+      </c>
+      <c r="R30">
+        <f t="shared" si="0"/>
+        <v>0.39982044290749486</v>
+      </c>
+      <c r="T30">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X30">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:24">
+      <c r="E31" t="s">
+        <v>45</v>
+      </c>
+      <c r="L31">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>12302</v>
+      </c>
+      <c r="R31">
+        <f t="shared" si="0"/>
+        <v>8.1811531555496447E-2</v>
+      </c>
+      <c r="T31">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X31">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:24">
+      <c r="E32" t="s">
+        <v>47</v>
+      </c>
+      <c r="L32">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <v>3500</v>
+      </c>
+      <c r="R32">
+        <f t="shared" si="0"/>
+        <v>2.3275919398816253E-2</v>
+      </c>
+      <c r="T32">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X32">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:26">
+      <c r="E33" t="s">
+        <v>57</v>
+      </c>
+      <c r="L33">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <v>0</v>
+      </c>
+      <c r="R33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T33">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X33">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:26">
+      <c r="B34" t="s">
+        <v>20</v>
+      </c>
+      <c r="D34" t="s">
+        <v>11</v>
+      </c>
+      <c r="E34" t="s">
+        <v>12</v>
+      </c>
+      <c r="L34">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O34">
+        <v>0.99990000000000001</v>
+      </c>
+      <c r="Q34">
+        <v>57101</v>
+      </c>
+      <c r="R34">
+        <f t="shared" si="0"/>
+        <v>0.37973664959765913</v>
+      </c>
+      <c r="T34">
+        <f t="shared" si="1"/>
+        <v>0.37969867593269935</v>
+      </c>
+      <c r="V34">
+        <f>T34+T35</f>
+        <v>0.98594407461594735</v>
+      </c>
+      <c r="X34">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z34">
+        <f>SUM(X34:X35)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26">
+      <c r="E35" t="s">
+        <v>13</v>
+      </c>
+      <c r="L35">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O35">
+        <v>0.97740000000000005</v>
+      </c>
+      <c r="Q35">
+        <v>93269</v>
+      </c>
+      <c r="R35">
+        <f t="shared" si="0"/>
+        <v>0.62026335040234093</v>
+      </c>
+      <c r="T35">
+        <f t="shared" si="1"/>
+        <v>0.606245398683248</v>
+      </c>
+      <c r="X35">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:26">
+      <c r="D36" t="s">
+        <v>14</v>
+      </c>
+      <c r="E36" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q36">
+        <v>14259</v>
+      </c>
+      <c r="R36">
+        <f t="shared" si="0"/>
+        <v>9.4826095630777416E-2</v>
+      </c>
+      <c r="T36">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="V36">
+        <f>T36+T37+T38</f>
+        <v>0</v>
+      </c>
+      <c r="X36">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:26">
+      <c r="E37" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q37">
+        <v>93193</v>
+      </c>
+      <c r="R37">
+        <f t="shared" si="0"/>
+        <v>0.61975793043825234</v>
+      </c>
+      <c r="T37">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X37">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:26">
+      <c r="E38" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q38">
+        <v>42918</v>
+      </c>
+      <c r="R38">
+        <f t="shared" si="0"/>
+        <v>0.28541597393097029</v>
+      </c>
+      <c r="T38">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X38">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="2:26">
+      <c r="D39" t="s">
+        <v>16</v>
+      </c>
+      <c r="E39" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q39">
+        <v>86038</v>
+      </c>
+      <c r="R39">
+        <f t="shared" si="0"/>
+        <v>0.57217530092438651</v>
+      </c>
+      <c r="T39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="V39">
+        <f>SUM(T39:T42)</f>
+        <v>0</v>
+      </c>
+      <c r="X39">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="2:26">
+      <c r="E40" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q40">
+        <v>14193</v>
+      </c>
+      <c r="R40">
+        <f t="shared" si="0"/>
+        <v>9.4387178293542595E-2</v>
+      </c>
+      <c r="T40">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X40">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="2:26">
+      <c r="E41" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q41">
+        <v>42983</v>
+      </c>
+      <c r="R41">
+        <f t="shared" si="0"/>
+        <v>0.2858482410055197</v>
+      </c>
+      <c r="T41">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X41">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:26">
+      <c r="E42" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q42">
+        <v>7156</v>
+      </c>
+      <c r="R42">
+        <f t="shared" si="0"/>
+        <v>4.7589279776551176E-2</v>
+      </c>
+      <c r="T42">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X42">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26">
+      <c r="D43" t="s">
+        <v>43</v>
+      </c>
+      <c r="E43" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q43">
+        <v>14076</v>
+      </c>
+      <c r="R43">
+        <f t="shared" si="0"/>
+        <v>9.3609097559353593E-2</v>
+      </c>
+      <c r="T43">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="V43">
+        <f>SUM(T43:T47)</f>
+        <v>0</v>
+      </c>
+      <c r="X43">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:26">
+      <c r="E44" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q44">
+        <v>7014</v>
+      </c>
+      <c r="R44">
+        <f t="shared" si="0"/>
+        <v>4.6644942475227769E-2</v>
+      </c>
+      <c r="T44">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X44">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:26">
+      <c r="E45" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q45">
+        <v>30259</v>
+      </c>
+      <c r="R45">
+        <f t="shared" si="0"/>
+        <v>0.20123029859679456</v>
+      </c>
+      <c r="T45">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X45">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:26">
+      <c r="E46" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q46">
+        <v>55923</v>
+      </c>
+      <c r="R46">
+        <f t="shared" si="0"/>
+        <v>0.37190264015428609</v>
+      </c>
+      <c r="T46">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X46">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:26">
+      <c r="E47" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q47">
+        <v>43098</v>
+      </c>
+      <c r="R47">
+        <f t="shared" si="0"/>
+        <v>0.28661302121433796</v>
+      </c>
+      <c r="T47">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X47">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26">
+      <c r="D48" t="s">
+        <v>37</v>
+      </c>
+      <c r="E48" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q48">
+        <v>9684</v>
+      </c>
+      <c r="R48">
+        <f t="shared" si="0"/>
+        <v>6.4401143845181891E-2</v>
+      </c>
+      <c r="T48">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="V48">
+        <f>SUM(T48:T53)</f>
+        <v>0</v>
+      </c>
+      <c r="X48">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="2:24">
+      <c r="E49" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q49">
+        <v>7015</v>
+      </c>
+      <c r="R49">
+        <f t="shared" si="0"/>
+        <v>4.6651592737913146E-2</v>
+      </c>
+      <c r="T49">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X49">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="2:24">
+      <c r="E50" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q50">
+        <v>23807</v>
+      </c>
+      <c r="R50">
+        <f t="shared" si="0"/>
+        <v>0.15832280375074814</v>
+      </c>
+      <c r="T50">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X50">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="2:24">
+      <c r="E51" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q51">
+        <v>30407</v>
+      </c>
+      <c r="R51">
+        <f t="shared" si="0"/>
+        <v>0.20221453747423024</v>
+      </c>
+      <c r="T51">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X51">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="2:24">
+      <c r="E52" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q52">
+        <v>23691</v>
+      </c>
+      <c r="R52">
+        <f t="shared" si="0"/>
+        <v>0.15755137327924454</v>
+      </c>
+      <c r="T52">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X52">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="2:24">
+      <c r="E53" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q53">
+        <v>55766</v>
+      </c>
+      <c r="R53">
+        <f t="shared" si="0"/>
+        <v>0.37085854891268205</v>
+      </c>
+      <c r="T53">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X53">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="2:24">
+      <c r="D54" t="s">
+        <v>58</v>
+      </c>
+      <c r="E54" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q54">
+        <v>19503</v>
+      </c>
+      <c r="R54">
+        <f t="shared" si="0"/>
+        <v>0.12970007315288953</v>
+      </c>
+      <c r="T54">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="V54">
+        <f>SUM(T54:T60)</f>
+        <v>0</v>
+      </c>
+      <c r="X54">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="2:24">
+      <c r="E55" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q55">
+        <v>18590</v>
+      </c>
+      <c r="R55">
+        <f t="shared" si="0"/>
+        <v>0.12362838332114119</v>
+      </c>
+      <c r="T55">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X55">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="2:24">
+      <c r="E56" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q56">
+        <v>6967</v>
+      </c>
+      <c r="R56">
+        <f t="shared" si="0"/>
+        <v>4.6332380129015097E-2</v>
+      </c>
+      <c r="T56">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X56">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="2:24">
+      <c r="E57" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q57">
+        <v>11003</v>
+      </c>
+      <c r="R57">
+        <f t="shared" si="0"/>
+        <v>7.3172840327192928E-2</v>
+      </c>
+      <c r="T57">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X57">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="2:24">
+      <c r="E58" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q58">
+        <v>56116</v>
+      </c>
+      <c r="R58">
+        <f t="shared" si="0"/>
+        <v>0.37318614085256369</v>
+      </c>
+      <c r="T58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X58">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="2:24">
+      <c r="E59" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q59">
+        <v>8086</v>
+      </c>
+      <c r="R59">
+        <f t="shared" si="0"/>
+        <v>5.3774024073950918E-2</v>
+      </c>
+      <c r="T59">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X59">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="2:24">
+      <c r="E60" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q60">
+        <v>30105</v>
+      </c>
+      <c r="R60">
+        <f t="shared" si="0"/>
+        <v>0.20020615814324666</v>
+      </c>
+      <c r="T60">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X60">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="2:24">
+      <c r="B62" t="s">
+        <v>21</v>
+      </c>
+      <c r="J62">
+        <v>0.375</v>
+      </c>
+      <c r="L62">
+        <f>J62*2</f>
+        <v>0.75</v>
+      </c>
+      <c r="O62">
+        <v>0.98229999999999995</v>
+      </c>
+      <c r="Q62">
+        <v>150370</v>
+      </c>
+      <c r="V62">
+        <v>0.98229999999999995</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80DDBB17-CB62-4571-9413-7E9D83057C37}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\process mining\pm4py\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{261F2AAE-935A-4655-AF6C-B6AD6B0EB3E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BBFC21F-F583-4516-8AA3-7122502A5866}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{C1753F0F-FFC1-467F-9ECD-AF02EB500D34}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{C1753F0F-FFC1-467F-9ECD-AF02EB500D34}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="69">
   <si>
     <t>total 819</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -266,12 +266,33 @@
   <si>
     <t>fitness</t>
   </si>
+  <si>
+    <t>weighted fitness</t>
+  </si>
+  <si>
+    <t>init log</t>
+  </si>
+  <si>
+    <t>0.90 fitness</t>
+  </si>
+  <si>
+    <t>0.99 fitness</t>
+  </si>
+  <si>
+    <t>add average time</t>
+  </si>
+  <si>
+    <t>cluster 5</t>
+  </si>
+  <si>
+    <t>cluster 6</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -282,6 +303,13 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
@@ -630,8 +658,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1D8B2EC-DD97-4072-9002-9DD13F52F6A9}">
   <dimension ref="A5:AA324"/>
   <sheetViews>
-    <sheetView topLeftCell="A268" workbookViewId="0">
-      <selection activeCell="O270" sqref="O270"/>
+    <sheetView topLeftCell="F298" workbookViewId="0">
+      <selection activeCell="V318" sqref="V318"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -9083,7 +9111,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67C590C6-CA1C-4B64-9D6E-A4DF9D9B5E9A}">
   <dimension ref="A3:Z62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
@@ -10512,12 +10540,556 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80DDBB17-CB62-4571-9413-7E9D83057C37}">
-  <dimension ref="A1"/>
+  <dimension ref="B8:R35"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="P33" sqref="P33"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
-  <sheetData/>
+  <sheetData>
+    <row r="8" spans="2:18">
+      <c r="F8">
+        <v>0.99</v>
+      </c>
+      <c r="G8">
+        <v>0.9</v>
+      </c>
+      <c r="I8" t="s">
+        <v>5</v>
+      </c>
+      <c r="J8" t="s">
+        <v>6</v>
+      </c>
+      <c r="L8" t="s">
+        <v>62</v>
+      </c>
+      <c r="N8" t="s">
+        <v>62</v>
+      </c>
+      <c r="P8" t="s">
+        <v>64</v>
+      </c>
+      <c r="R8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="9" spans="2:18">
+      <c r="E9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9">
+        <v>0.98229435306151303</v>
+      </c>
+      <c r="G9">
+        <v>0.98324672641020705</v>
+      </c>
+      <c r="I9">
+        <v>80655</v>
+      </c>
+      <c r="J9">
+        <f>I9/150370</f>
+        <v>0.53637693688900712</v>
+      </c>
+      <c r="L9">
+        <f>G9*J9</f>
+        <v>0.52739086731805052</v>
+      </c>
+      <c r="N9">
+        <f>F9*J9</f>
+        <v>0.52688003621850321</v>
+      </c>
+      <c r="P9">
+        <f>SUM(L9:L10)</f>
+        <v>0.79486498192151056</v>
+      </c>
+      <c r="R9">
+        <f>SUM(N9:N10)</f>
+        <v>0.77179553485168939</v>
+      </c>
+    </row>
+    <row r="10" spans="2:18">
+      <c r="E10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10">
+        <v>0.52826426923147396</v>
+      </c>
+      <c r="G10">
+        <v>0.57692150344864501</v>
+      </c>
+      <c r="I10">
+        <v>69715</v>
+      </c>
+      <c r="J10">
+        <f t="shared" ref="J10" si="0">I10/150370</f>
+        <v>0.46362306311099288</v>
+      </c>
+      <c r="L10">
+        <f>G10*J10</f>
+        <v>0.26747411460346004</v>
+      </c>
+      <c r="N10">
+        <f>F10*J10</f>
+        <v>0.24491549863318618</v>
+      </c>
+    </row>
+    <row r="11" spans="2:18">
+      <c r="L11">
+        <f t="shared" ref="L11:L35" si="1">G11*J11</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:18">
+      <c r="L12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:18">
+      <c r="L13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:18">
+      <c r="E14" t="s">
+        <v>63</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0.82897053604456505</v>
+      </c>
+    </row>
+    <row r="15" spans="2:18">
+      <c r="L15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:18">
+      <c r="B16" t="s">
+        <v>66</v>
+      </c>
+      <c r="D16" t="s">
+        <v>31</v>
+      </c>
+      <c r="E16" t="s">
+        <v>32</v>
+      </c>
+      <c r="G16">
+        <v>0.96179999999999999</v>
+      </c>
+      <c r="I16">
+        <v>93264</v>
+      </c>
+      <c r="J16">
+        <f>I16/150370</f>
+        <v>0.62023009908891402</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="1"/>
+        <v>0.59653730930371751</v>
+      </c>
+      <c r="P16">
+        <f>SUM(L16:L17)</f>
+        <v>0.97626923322471237</v>
+      </c>
+    </row>
+    <row r="17" spans="4:16">
+      <c r="E17" t="s">
+        <v>17</v>
+      </c>
+      <c r="G17">
+        <v>0.99990000000000001</v>
+      </c>
+      <c r="I17">
+        <v>57106</v>
+      </c>
+      <c r="J17">
+        <f t="shared" ref="J17:J35" si="2">I17/150370</f>
+        <v>0.37976990091108598</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="1"/>
+        <v>0.37973192392099486</v>
+      </c>
+    </row>
+    <row r="18" spans="4:16">
+      <c r="D18" t="s">
+        <v>33</v>
+      </c>
+      <c r="E18" t="s">
+        <v>32</v>
+      </c>
+      <c r="G18">
+        <v>0.99990000000000001</v>
+      </c>
+      <c r="I18">
+        <v>14217</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="2"/>
+        <v>9.4546784597991623E-2</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="1"/>
+        <v>9.4537329919531829E-2</v>
+      </c>
+      <c r="P18">
+        <f>SUM(L18:L20)</f>
+        <v>0.97628722285030256</v>
+      </c>
+    </row>
+    <row r="19" spans="4:16">
+      <c r="E19" t="s">
+        <v>17</v>
+      </c>
+      <c r="G19">
+        <v>0.99990000000000001</v>
+      </c>
+      <c r="I19">
+        <v>42960</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="2"/>
+        <v>0.28569528496375607</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="1"/>
+        <v>0.28566671543525968</v>
+      </c>
+    </row>
+    <row r="20" spans="4:16">
+      <c r="E20" t="s">
+        <v>18</v>
+      </c>
+      <c r="G20">
+        <v>0.96179999999999999</v>
+      </c>
+      <c r="I20">
+        <v>93193</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="2"/>
+        <v>0.61975793043825234</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="1"/>
+        <v>0.5960831774955111</v>
+      </c>
+    </row>
+    <row r="21" spans="4:16">
+      <c r="D21" t="s">
+        <v>34</v>
+      </c>
+      <c r="E21" t="s">
+        <v>32</v>
+      </c>
+      <c r="G21">
+        <v>0.99990000000000001</v>
+      </c>
+      <c r="I21">
+        <v>14140</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="2"/>
+        <v>9.4034714371217659E-2</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="1"/>
+        <v>9.4025310899780543E-2</v>
+      </c>
+      <c r="P21">
+        <f>SUM(L21:L24)</f>
+        <v>0.97982750123029849</v>
+      </c>
+    </row>
+    <row r="22" spans="4:16">
+      <c r="E22" t="s">
+        <v>17</v>
+      </c>
+      <c r="G22">
+        <v>0.96579999999999999</v>
+      </c>
+      <c r="I22">
+        <v>85995</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="2"/>
+        <v>0.57188933962891531</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="1"/>
+        <v>0.55233072421360641</v>
+      </c>
+    </row>
+    <row r="23" spans="4:16">
+      <c r="E23" t="s">
+        <v>18</v>
+      </c>
+      <c r="G23">
+        <v>0.99990000000000001</v>
+      </c>
+      <c r="I23">
+        <v>43037</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="2"/>
+        <v>0.28620735519053003</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="1"/>
+        <v>0.28617873445501096</v>
+      </c>
+    </row>
+    <row r="24" spans="4:16">
+      <c r="E24" t="s">
+        <v>19</v>
+      </c>
+      <c r="G24">
+        <v>0.98797000000000001</v>
+      </c>
+      <c r="I24">
+        <v>7198</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="2"/>
+        <v>4.7868590809336968E-2</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="1"/>
+        <v>4.7292731661900643E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="4:16">
+      <c r="D25" t="s">
+        <v>67</v>
+      </c>
+      <c r="E25" t="s">
+        <v>32</v>
+      </c>
+      <c r="G25">
+        <v>0.98450000000000004</v>
+      </c>
+      <c r="I25">
+        <v>54023</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="2"/>
+        <v>0.35926714105207158</v>
+      </c>
+      <c r="L25">
+        <f t="shared" si="1"/>
+        <v>0.3536985003657645</v>
+      </c>
+      <c r="P25">
+        <f>SUM(L25:L29)</f>
+        <v>0.94140741903305181</v>
+      </c>
+    </row>
+    <row r="26" spans="4:16">
+      <c r="E26" t="s">
+        <v>17</v>
+      </c>
+      <c r="G26">
+        <v>0.99990000000000001</v>
+      </c>
+      <c r="I26">
+        <v>43160</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="2"/>
+        <v>0.28702533750083126</v>
+      </c>
+      <c r="L26">
+        <f t="shared" si="1"/>
+        <v>0.28699663496708117</v>
+      </c>
+    </row>
+    <row r="27" spans="4:16">
+      <c r="E27" t="s">
+        <v>18</v>
+      </c>
+      <c r="G27">
+        <v>0.75490000000000002</v>
+      </c>
+      <c r="I27">
+        <v>32164</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="2"/>
+        <v>0.213899049012436</v>
+      </c>
+      <c r="L27">
+        <f t="shared" si="1"/>
+        <v>0.16147239209948794</v>
+      </c>
+    </row>
+    <row r="28" spans="4:16">
+      <c r="E28" t="s">
+        <v>19</v>
+      </c>
+      <c r="G28">
+        <v>0.98799999999999999</v>
+      </c>
+      <c r="I28">
+        <v>7008</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="2"/>
+        <v>4.6605040899115519E-2</v>
+      </c>
+      <c r="L28">
+        <f t="shared" si="1"/>
+        <v>4.6045780408326131E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="4:16">
+      <c r="E29" t="s">
+        <v>45</v>
+      </c>
+      <c r="G29">
+        <v>0.99990000000000001</v>
+      </c>
+      <c r="I29">
+        <v>14015</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="2"/>
+        <v>9.3203431535545653E-2</v>
+      </c>
+      <c r="L29">
+        <f t="shared" si="1"/>
+        <v>9.3194111192392098E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="4:16">
+      <c r="D30" t="s">
+        <v>68</v>
+      </c>
+      <c r="E30" t="s">
+        <v>32</v>
+      </c>
+      <c r="G30">
+        <v>0.98799999999999999</v>
+      </c>
+      <c r="I30">
+        <v>7030</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="2"/>
+        <v>4.6751346678193792E-2</v>
+      </c>
+      <c r="L30">
+        <f t="shared" si="1"/>
+        <v>4.6190330518055468E-2</v>
+      </c>
+      <c r="P30">
+        <f>SUM(L30:L35)</f>
+        <v>0.9393259094234222</v>
+      </c>
+    </row>
+    <row r="31" spans="4:16">
+      <c r="E31" t="s">
+        <v>17</v>
+      </c>
+      <c r="G31">
+        <v>0.99990000000000001</v>
+      </c>
+      <c r="I31">
+        <v>9644</v>
+      </c>
+      <c r="J31">
+        <f t="shared" si="2"/>
+        <v>6.4135133337766839E-2</v>
+      </c>
+      <c r="L31">
+        <f t="shared" si="1"/>
+        <v>6.4128719824433064E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="4:16">
+      <c r="E32" t="s">
+        <v>18</v>
+      </c>
+      <c r="G32">
+        <v>0.99990000000000001</v>
+      </c>
+      <c r="I32">
+        <v>24237</v>
+      </c>
+      <c r="J32">
+        <f t="shared" si="2"/>
+        <v>0.16118241670545985</v>
+      </c>
+      <c r="L32">
+        <f t="shared" si="1"/>
+        <v>0.1611662984637893</v>
+      </c>
+    </row>
+    <row r="33" spans="5:12">
+      <c r="E33" t="s">
+        <v>19</v>
+      </c>
+      <c r="G33">
+        <v>0.99990000000000001</v>
+      </c>
+      <c r="I33">
+        <v>23301</v>
+      </c>
+      <c r="J33">
+        <f t="shared" si="2"/>
+        <v>0.15495777083194787</v>
+      </c>
+      <c r="L33">
+        <f t="shared" si="1"/>
+        <v>0.15494227505486469</v>
+      </c>
+    </row>
+    <row r="34" spans="5:12">
+      <c r="E34" t="s">
+        <v>45</v>
+      </c>
+      <c r="G34">
+        <v>0.75490000000000002</v>
+      </c>
+      <c r="I34">
+        <v>31873</v>
+      </c>
+      <c r="J34">
+        <f t="shared" si="2"/>
+        <v>0.21196382257099156</v>
+      </c>
+      <c r="L34">
+        <f t="shared" si="1"/>
+        <v>0.16001148965884152</v>
+      </c>
+    </row>
+    <row r="35" spans="5:12">
+      <c r="E35" t="s">
+        <v>47</v>
+      </c>
+      <c r="G35">
+        <v>0.97750000000000004</v>
+      </c>
+      <c r="I35">
+        <v>54285</v>
+      </c>
+      <c r="J35">
+        <f t="shared" si="2"/>
+        <v>0.36100950987564007</v>
+      </c>
+      <c r="L35">
+        <f t="shared" si="1"/>
+        <v>0.35288679590343819</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data.xlsx
+++ b/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\process mining\pm4py\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BBFC21F-F583-4516-8AA3-7122502A5866}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3537EBCB-0846-4F43-9EAB-923F2C9114C3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{C1753F0F-FFC1-467F-9ECD-AF02EB500D34}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{C1753F0F-FFC1-467F-9ECD-AF02EB500D34}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -658,7 +658,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1D8B2EC-DD97-4072-9002-9DD13F52F6A9}">
   <dimension ref="A5:AA324"/>
   <sheetViews>
-    <sheetView topLeftCell="F298" workbookViewId="0">
+    <sheetView topLeftCell="A268" workbookViewId="0">
       <selection activeCell="V318" sqref="V318"/>
     </sheetView>
   </sheetViews>
@@ -9111,8 +9111,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67C590C6-CA1C-4B64-9D6E-A4DF9D9B5E9A}">
   <dimension ref="A3:Z62"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="P7" sqref="P7"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="H52" sqref="H52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -9739,7 +9739,7 @@
         <v>12</v>
       </c>
       <c r="F27">
-        <v>0.816832</v>
+        <v>0.91683199999999998</v>
       </c>
       <c r="L27">
         <f t="shared" si="3"/>
@@ -9919,6 +9919,9 @@
       <c r="E34" t="s">
         <v>12</v>
       </c>
+      <c r="F34">
+        <v>1.481087</v>
+      </c>
       <c r="L34">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -9984,6 +9987,9 @@
       <c r="E36" t="s">
         <v>12</v>
       </c>
+      <c r="F36">
+        <v>1.9049640000000001</v>
+      </c>
       <c r="Q36">
         <v>14259</v>
       </c>
@@ -10051,6 +10057,9 @@
       <c r="E39" t="s">
         <v>12</v>
       </c>
+      <c r="F39">
+        <v>1.8037909999999999</v>
+      </c>
       <c r="Q39">
         <v>86038</v>
       </c>
@@ -10138,6 +10147,9 @@
       <c r="E43" t="s">
         <v>12</v>
       </c>
+      <c r="F43">
+        <v>2.0550109999999999</v>
+      </c>
       <c r="Q43">
         <v>14076</v>
       </c>
@@ -10245,6 +10257,9 @@
       <c r="E48" t="s">
         <v>12</v>
       </c>
+      <c r="F48">
+        <v>2.241622</v>
+      </c>
       <c r="Q48">
         <v>9684</v>
       </c>
@@ -10371,6 +10386,9 @@
       </c>
       <c r="E54" t="s">
         <v>32</v>
+      </c>
+      <c r="F54">
+        <v>3.1830430000000001</v>
       </c>
       <c r="Q54">
         <v>19503</v>
@@ -10542,7 +10560,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80DDBB17-CB62-4571-9413-7E9D83057C37}">
   <dimension ref="B8:R35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P33" sqref="P33"/>
     </sheetView>
   </sheetViews>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\process mining\pm4py\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3537EBCB-0846-4F43-9EAB-923F2C9114C3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FC4BC8E-16BE-4091-80C8-8D9A71DCB5C0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{C1753F0F-FFC1-467F-9ECD-AF02EB500D34}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C1753F0F-FFC1-467F-9ECD-AF02EB500D34}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="73">
   <si>
     <t>total 819</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -286,6 +286,18 @@
   </si>
   <si>
     <t>cluster 6</t>
+  </si>
+  <si>
+    <t>k means</t>
+  </si>
+  <si>
+    <t>canopy</t>
+  </si>
+  <si>
+    <t>2w</t>
+  </si>
+  <si>
+    <t>ms</t>
   </si>
 </sst>
 </file>
@@ -658,8 +670,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1D8B2EC-DD97-4072-9002-9DD13F52F6A9}">
   <dimension ref="A5:AA324"/>
   <sheetViews>
-    <sheetView topLeftCell="A268" workbookViewId="0">
-      <selection activeCell="V318" sqref="V318"/>
+    <sheetView tabSelected="1" topLeftCell="A187" workbookViewId="0">
+      <selection activeCell="C271" sqref="C271"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -749,6 +761,15 @@
       </c>
     </row>
     <row r="7" spans="1:27">
+      <c r="A7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B7">
+        <v>1690.47</v>
+      </c>
+      <c r="C7" t="s">
+        <v>72</v>
+      </c>
       <c r="E7" t="s">
         <v>13</v>
       </c>
@@ -779,6 +800,15 @@
       </c>
     </row>
     <row r="8" spans="1:27">
+      <c r="A8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B8">
+        <v>13.962999999999999</v>
+      </c>
+      <c r="C8" t="s">
+        <v>72</v>
+      </c>
       <c r="D8" t="s">
         <v>14</v>
       </c>
@@ -2117,6 +2147,15 @@
       </c>
     </row>
     <row r="51" spans="1:27">
+      <c r="A51" t="s">
+        <v>69</v>
+      </c>
+      <c r="B51">
+        <v>23797.365000000002</v>
+      </c>
+      <c r="C51" t="s">
+        <v>72</v>
+      </c>
       <c r="E51" t="s">
         <v>13</v>
       </c>
@@ -2147,6 +2186,15 @@
       </c>
     </row>
     <row r="52" spans="1:27">
+      <c r="A52" t="s">
+        <v>70</v>
+      </c>
+      <c r="B52">
+        <v>4290.3220000000001</v>
+      </c>
+      <c r="C52" t="s">
+        <v>72</v>
+      </c>
       <c r="D52" t="s">
         <v>14</v>
       </c>
@@ -3482,6 +3530,15 @@
       </c>
     </row>
     <row r="96" spans="1:27">
+      <c r="A96" t="s">
+        <v>69</v>
+      </c>
+      <c r="B96">
+        <v>40449.991000000002</v>
+      </c>
+      <c r="C96" t="s">
+        <v>72</v>
+      </c>
       <c r="E96" t="s">
         <v>13</v>
       </c>
@@ -3511,7 +3568,16 @@
         <v>0.520696512</v>
       </c>
     </row>
-    <row r="97" spans="4:27">
+    <row r="97" spans="1:27">
+      <c r="A97" t="s">
+        <v>70</v>
+      </c>
+      <c r="B97">
+        <v>43845.118999999999</v>
+      </c>
+      <c r="C97" t="s">
+        <v>72</v>
+      </c>
       <c r="D97" t="s">
         <v>14</v>
       </c>
@@ -3552,7 +3618,10 @@
         <v>0.44078836799999999</v>
       </c>
     </row>
-    <row r="98" spans="4:27">
+    <row r="98" spans="1:27">
+      <c r="A98" t="s">
+        <v>71</v>
+      </c>
       <c r="E98" t="s">
         <v>13</v>
       </c>
@@ -3582,7 +3651,7 @@
         <v>0.25553999999999999</v>
       </c>
     </row>
-    <row r="99" spans="4:27">
+    <row r="99" spans="1:27">
       <c r="E99" t="s">
         <v>15</v>
       </c>
@@ -3612,7 +3681,7 @@
         <v>6.5122200000000005E-2</v>
       </c>
     </row>
-    <row r="100" spans="4:27">
+    <row r="100" spans="1:27">
       <c r="D100" t="s">
         <v>16</v>
       </c>
@@ -3653,7 +3722,7 @@
         <v>0.40280608200000001</v>
       </c>
     </row>
-    <row r="101" spans="4:27">
+    <row r="101" spans="1:27">
       <c r="E101" t="s">
         <v>17</v>
       </c>
@@ -3683,7 +3752,7 @@
         <v>0.24494250000000001</v>
       </c>
     </row>
-    <row r="102" spans="4:27">
+    <row r="102" spans="1:27">
       <c r="E102" t="s">
         <v>18</v>
       </c>
@@ -3713,7 +3782,7 @@
         <v>3.4945393999999998E-2</v>
       </c>
     </row>
-    <row r="103" spans="4:27">
+    <row r="103" spans="1:27">
       <c r="E103" t="s">
         <v>19</v>
       </c>
@@ -3743,7 +3812,7 @@
         <v>0.12012616799999999</v>
       </c>
     </row>
-    <row r="104" spans="4:27">
+    <row r="104" spans="1:27">
       <c r="D104" t="s">
         <v>43</v>
       </c>
@@ -3751,27 +3820,27 @@
         <v>44</v>
       </c>
     </row>
-    <row r="105" spans="4:27">
+    <row r="105" spans="1:27">
       <c r="E105" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="106" spans="4:27">
+    <row r="106" spans="1:27">
       <c r="E106" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="107" spans="4:27">
+    <row r="107" spans="1:27">
       <c r="E107" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="108" spans="4:27">
+    <row r="108" spans="1:27">
       <c r="E108" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="109" spans="4:27">
+    <row r="109" spans="1:27">
       <c r="D109" t="s">
         <v>49</v>
       </c>
@@ -3779,17 +3848,17 @@
         <v>44</v>
       </c>
     </row>
-    <row r="110" spans="4:27">
+    <row r="110" spans="1:27">
       <c r="E110" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="111" spans="4:27">
+    <row r="111" spans="1:27">
       <c r="E111" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="112" spans="4:27">
+    <row r="112" spans="1:27">
       <c r="E112" t="s">
         <v>19</v>
       </c>
@@ -4271,6 +4340,15 @@
       </c>
     </row>
     <row r="138" spans="1:27">
+      <c r="A138" t="s">
+        <v>69</v>
+      </c>
+      <c r="B138">
+        <v>57653.091999999997</v>
+      </c>
+      <c r="C138" t="s">
+        <v>72</v>
+      </c>
       <c r="E138" t="s">
         <v>17</v>
       </c>
@@ -4301,6 +4379,15 @@
       </c>
     </row>
     <row r="139" spans="1:27">
+      <c r="A139" t="s">
+        <v>70</v>
+      </c>
+      <c r="B139">
+        <v>11309.031000000001</v>
+      </c>
+      <c r="C139" t="s">
+        <v>72</v>
+      </c>
       <c r="D139" t="s">
         <v>33</v>
       </c>
@@ -4342,6 +4429,9 @@
       </c>
     </row>
     <row r="140" spans="1:27">
+      <c r="A140" t="s">
+        <v>71</v>
+      </c>
       <c r="E140" t="s">
         <v>17</v>
       </c>
@@ -5643,6 +5733,15 @@
       </c>
     </row>
     <row r="182" spans="1:27">
+      <c r="A182" t="s">
+        <v>69</v>
+      </c>
+      <c r="B182">
+        <v>1915.4169999999999</v>
+      </c>
+      <c r="C182" t="s">
+        <v>72</v>
+      </c>
       <c r="E182" t="s">
         <v>13</v>
       </c>
@@ -5673,6 +5772,15 @@
       </c>
     </row>
     <row r="183" spans="1:27">
+      <c r="A183" t="s">
+        <v>70</v>
+      </c>
+      <c r="B183">
+        <v>4610.7049999999999</v>
+      </c>
+      <c r="C183" t="s">
+        <v>72</v>
+      </c>
       <c r="D183" t="s">
         <v>14</v>
       </c>
@@ -6422,6 +6530,15 @@
       </c>
     </row>
     <row r="227" spans="1:27">
+      <c r="A227" t="s">
+        <v>69</v>
+      </c>
+      <c r="B227">
+        <v>61366.180999999997</v>
+      </c>
+      <c r="C227" t="s">
+        <v>72</v>
+      </c>
       <c r="E227" t="s">
         <v>13</v>
       </c>
@@ -6452,6 +6569,15 @@
       </c>
     </row>
     <row r="228" spans="1:27">
+      <c r="A228" t="s">
+        <v>70</v>
+      </c>
+      <c r="B228">
+        <v>3858.7979999999998</v>
+      </c>
+      <c r="C228" t="s">
+        <v>72</v>
+      </c>
       <c r="D228" t="s">
         <v>52</v>
       </c>
@@ -7376,6 +7502,15 @@
       </c>
     </row>
     <row r="270" spans="1:27">
+      <c r="A270" t="s">
+        <v>69</v>
+      </c>
+      <c r="B270">
+        <v>36516.271000000001</v>
+      </c>
+      <c r="C270" t="s">
+        <v>72</v>
+      </c>
       <c r="E270" t="s">
         <v>13</v>
       </c>
@@ -7405,6 +7540,15 @@
       </c>
     </row>
     <row r="271" spans="1:27">
+      <c r="A271" t="s">
+        <v>70</v>
+      </c>
+      <c r="B271">
+        <v>15909.343999999999</v>
+      </c>
+      <c r="C271" t="s">
+        <v>72</v>
+      </c>
       <c r="D271" t="s">
         <v>14</v>
       </c>
@@ -7448,6 +7592,9 @@
       </c>
     </row>
     <row r="272" spans="1:27">
+      <c r="A272" t="s">
+        <v>71</v>
+      </c>
       <c r="E272" t="s">
         <v>13</v>
       </c>
@@ -9111,7 +9258,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67C590C6-CA1C-4B64-9D6E-A4DF9D9B5E9A}">
   <dimension ref="A3:Z62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H52" sqref="H52"/>
     </sheetView>
   </sheetViews>
@@ -10560,7 +10707,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80DDBB17-CB62-4571-9413-7E9D83057C37}">
   <dimension ref="B8:R35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="P33" sqref="P33"/>
     </sheetView>
   </sheetViews>
